--- a/fuentes/contenidos/grado08/guion07/Escaleta_LE_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/Escaleta_LE_08_07_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_07_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado08\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19172" windowHeight="8157"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="327">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1215,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1252,57 +1251,26 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1313,108 +1281,112 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1721,127 +1693,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W44" sqref="W44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="19" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="41.85546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="19" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="39.28515625" style="43" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="28" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="27" customWidth="1"/>
-    <col min="18" max="18" width="23" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="19" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="9.796875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="35.86328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="36.265625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="26.1328125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="41.73046875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="9.73046875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" style="64" customWidth="1"/>
+    <col min="10" max="10" width="41.86328125" style="37" customWidth="1"/>
+    <col min="11" max="11" width="16.1328125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" style="37" customWidth="1"/>
+    <col min="13" max="14" width="9.265625" style="37" customWidth="1"/>
+    <col min="15" max="15" width="39.265625" style="64" customWidth="1"/>
+    <col min="16" max="16" width="16.59765625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="20.3984375" style="64" customWidth="1"/>
+    <col min="18" max="18" width="23" style="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.73046875" style="37" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.86328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.73046875" style="37" customWidth="1"/>
+    <col min="22" max="16384" width="11.3984375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="50" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="14" t="s">
+    <row r="2" spans="1:21" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="66"/>
-    </row>
-    <row r="3" spans="1:21" ht="63.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="48"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.25" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1851,21 +1823,21 @@
       <c r="C3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="22">
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="52" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -1878,29 +1850,29 @@
       <c r="N3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="19">
         <v>6</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1910,21 +1882,21 @@
       <c r="C4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="16">
         <v>2</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="57" t="s">
         <v>215</v>
       </c>
       <c r="K4" s="12" t="s">
@@ -1937,29 +1909,29 @@
       <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="19">
         <v>6</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1969,21 +1941,21 @@
       <c r="C5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="16">
         <v>3</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="57" t="s">
         <v>276</v>
       </c>
       <c r="K5" s="12" t="s">
@@ -1996,29 +1968,29 @@
       <c r="N5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="19">
         <v>6</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2028,21 +2000,21 @@
       <c r="C6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="24" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="22">
         <v>4</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="57" t="s">
         <v>229</v>
       </c>
       <c r="K6" s="12" t="s">
@@ -2055,29 +2027,29 @@
       <c r="N6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="19">
         <v>6</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="S6" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="T6" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="U6" s="31" t="s">
+      <c r="U6" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2087,21 +2059,21 @@
       <c r="C7" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="24" t="s">
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="16">
         <v>5</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="57" t="s">
         <v>231</v>
       </c>
       <c r="K7" s="12" t="s">
@@ -2114,29 +2086,29 @@
       <c r="N7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="19">
         <v>6</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="U7" s="31" t="s">
+      <c r="U7" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2146,21 +2118,21 @@
       <c r="C8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="24" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="16">
         <v>6</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="57" t="s">
         <v>233</v>
       </c>
       <c r="K8" s="12" t="s">
@@ -2173,29 +2145,29 @@
       <c r="N8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="19">
         <v>6</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S8" s="33" t="s">
+      <c r="S8" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="U8" s="31" t="s">
+      <c r="U8" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -2205,14 +2177,14 @@
       <c r="C9" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="24" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="51" t="s">
         <v>219</v>
       </c>
       <c r="H9" s="22">
@@ -2221,7 +2193,7 @@
       <c r="I9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="57" t="s">
         <v>220</v>
       </c>
       <c r="K9" s="12" t="s">
@@ -2234,29 +2206,29 @@
       <c r="N9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="19">
         <v>6</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S9" s="33" t="s">
+      <c r="S9" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T9" s="39" t="s">
+      <c r="T9" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="126" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2266,23 +2238,23 @@
       <c r="C10" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="56"/>
+      <c r="G10" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="16">
         <v>8</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="57" t="s">
         <v>221</v>
       </c>
       <c r="K10" s="12" t="s">
@@ -2295,29 +2267,29 @@
         <v>56</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="19">
         <v>6</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="S10" s="33" t="s">
+      <c r="S10" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="T10" s="39" t="s">
+      <c r="T10" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="U10" s="31" t="s">
+      <c r="U10" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2327,23 +2299,23 @@
       <c r="C11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="56"/>
+      <c r="G11" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="16">
         <v>9</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="57" t="s">
         <v>223</v>
       </c>
       <c r="K11" s="12" t="s">
@@ -2356,29 +2328,29 @@
       <c r="N11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="19">
         <v>6</v>
       </c>
-      <c r="R11" s="32" t="s">
+      <c r="R11" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T11" s="39" t="s">
+      <c r="T11" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2388,14 +2360,14 @@
       <c r="C12" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="51" t="s">
         <v>224</v>
       </c>
       <c r="H12" s="22">
@@ -2404,7 +2376,7 @@
       <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="57" t="s">
         <v>225</v>
       </c>
       <c r="K12" s="12" t="s">
@@ -2417,29 +2389,29 @@
       <c r="N12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="56" t="s">
         <v>282</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="19">
         <v>6</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S12" s="33" t="s">
+      <c r="S12" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T12" s="39" t="s">
+      <c r="T12" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="U12" s="31" t="s">
+      <c r="U12" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="126" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -2449,23 +2421,23 @@
       <c r="C13" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="16">
         <v>11</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="57" t="s">
         <v>227</v>
       </c>
       <c r="K13" s="12" t="s">
@@ -2478,29 +2450,29 @@
       <c r="N13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="19">
         <v>6</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S13" s="33" t="s">
+      <c r="S13" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T13" s="39" t="s">
+      <c r="T13" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="U13" s="31" t="s">
+      <c r="U13" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2510,23 +2482,23 @@
       <c r="C14" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="56"/>
+      <c r="G14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="16">
         <v>12</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="57" t="s">
         <v>235</v>
       </c>
       <c r="K14" s="12" t="s">
@@ -2539,29 +2511,29 @@
       <c r="N14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="19">
         <v>6</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="R14" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S14" s="33" t="s">
+      <c r="S14" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="U14" s="31" t="s">
+      <c r="U14" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -2571,14 +2543,14 @@
       <c r="C15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="56"/>
+      <c r="G15" s="51" t="s">
         <v>129</v>
       </c>
       <c r="H15" s="22">
@@ -2587,7 +2559,7 @@
       <c r="I15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="57" t="s">
         <v>237</v>
       </c>
       <c r="K15" s="12" t="s">
@@ -2600,29 +2572,29 @@
         <v>55</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="19">
         <v>6</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="R15" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="S15" s="33" t="s">
+      <c r="S15" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="T15" s="39" t="s">
+      <c r="T15" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="U15" s="31" t="s">
+      <c r="U15" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2632,23 +2604,23 @@
       <c r="C16" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="56"/>
+      <c r="G16" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="16">
         <v>14</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="57" t="s">
         <v>163</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -2659,29 +2631,29 @@
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="38" t="s">
+      <c r="O16" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P16" s="22" t="s">
+      <c r="P16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="19">
         <v>8</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="T16" s="39" t="s">
+      <c r="T16" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="U16" s="31" t="s">
+      <c r="U16" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -2691,25 +2663,25 @@
       <c r="C17" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="16">
         <v>15</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="57" t="s">
         <v>239</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -2722,29 +2694,29 @@
       <c r="N17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="P17" s="22" t="s">
+      <c r="P17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="19">
         <v>6</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S17" s="33" t="s">
+      <c r="S17" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T17" s="39" t="s">
+      <c r="T17" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="U17" s="31" t="s">
+      <c r="U17" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2754,23 +2726,23 @@
       <c r="C18" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="24" t="s">
+      <c r="F18" s="56"/>
+      <c r="G18" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="22">
         <v>16</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="57" t="s">
         <v>167</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -2781,49 +2753,55 @@
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="22" t="s">
+      <c r="P18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="19">
         <v>10</v>
       </c>
-      <c r="R18" s="32" t="s">
+      <c r="R18" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S18" s="33" t="s">
+      <c r="S18" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="T18" s="39" t="s">
+      <c r="T18" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="U18" s="31" t="s">
+      <c r="U18" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="16" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="56"/>
+      <c r="G19" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="16">
         <v>17</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="57" t="s">
         <v>173</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -2834,29 +2812,29 @@
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="38" t="s">
+      <c r="O19" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P19" s="22" t="s">
+      <c r="P19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="19">
         <v>9</v>
       </c>
-      <c r="R19" s="32" t="s">
+      <c r="R19" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S19" s="33" t="s">
+      <c r="S19" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="T19" s="39" t="s">
+      <c r="T19" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="U19" s="31" t="s">
+      <c r="U19" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -2866,25 +2844,25 @@
       <c r="C20" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="16">
         <v>18</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="57" t="s">
         <v>241</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -2897,29 +2875,29 @@
       <c r="N20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="38" t="s">
+      <c r="O20" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="P20" s="22" t="s">
+      <c r="P20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="19">
         <v>6</v>
       </c>
-      <c r="R20" s="32" t="s">
+      <c r="R20" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S20" s="33" t="s">
+      <c r="S20" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T20" s="39" t="s">
+      <c r="T20" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="U20" s="31" t="s">
+      <c r="U20" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
@@ -2929,23 +2907,23 @@
       <c r="C21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="24" t="s">
+      <c r="F21" s="56"/>
+      <c r="G21" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="22">
         <v>19</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="57" t="s">
         <v>208</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -2956,29 +2934,29 @@
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="38" t="s">
+      <c r="O21" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="P21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="19">
         <v>10</v>
       </c>
-      <c r="R21" s="32" t="s">
+      <c r="R21" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S21" s="33" t="s">
+      <c r="S21" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="T21" s="39" t="s">
+      <c r="T21" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="U21" s="31" t="s">
+      <c r="U21" s="19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -2988,23 +2966,23 @@
       <c r="C22" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="30" t="s">
+      <c r="F22" s="56"/>
+      <c r="G22" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="16">
         <v>20</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="60" t="s">
         <v>181</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -3015,29 +2993,29 @@
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="38" t="s">
+      <c r="O22" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="22" t="s">
+      <c r="P22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="19">
         <v>9</v>
       </c>
-      <c r="R22" s="32" t="s">
+      <c r="R22" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S22" s="33" t="s">
+      <c r="S22" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="T22" s="39" t="s">
+      <c r="T22" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="U22" s="31" t="s">
+      <c r="U22" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -3047,23 +3025,23 @@
       <c r="C23" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="30" t="s">
+      <c r="F23" s="56"/>
+      <c r="G23" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="16">
         <v>21</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="60" t="s">
         <v>210</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -3074,29 +3052,29 @@
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="38" t="s">
+      <c r="O23" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="P23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="19">
         <v>9</v>
       </c>
-      <c r="R23" s="32" t="s">
+      <c r="R23" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S23" s="33" t="s">
+      <c r="S23" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="T23" s="39" t="s">
+      <c r="T23" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="U23" s="31" t="s">
+      <c r="U23" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3106,21 +3084,23 @@
       <c r="C24" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="30" t="s">
+      <c r="F24" s="56"/>
+      <c r="G24" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="22">
+        <v>22</v>
+      </c>
       <c r="I24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="60" t="s">
         <v>246</v>
       </c>
       <c r="K24" s="5" t="s">
@@ -3133,29 +3113,29 @@
       <c r="N24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O24" s="38" t="s">
+      <c r="O24" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="31">
+      <c r="Q24" s="19">
         <v>6</v>
       </c>
-      <c r="R24" s="32" t="s">
+      <c r="R24" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S24" s="33" t="s">
+      <c r="S24" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T24" s="39" t="s">
+      <c r="T24" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="U24" s="31" t="s">
+      <c r="U24" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -3165,21 +3145,21 @@
       <c r="C25" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="30" t="s">
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="22">
-        <v>22</v>
+      <c r="H25" s="16">
+        <v>23</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="57" t="s">
         <v>185</v>
       </c>
       <c r="K25" s="5" t="s">
@@ -3190,29 +3170,29 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="38" t="s">
+      <c r="O25" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="22" t="s">
+      <c r="P25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="31">
+      <c r="Q25" s="19">
         <v>10</v>
       </c>
-      <c r="R25" s="32" t="s">
+      <c r="R25" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S25" s="33" t="s">
+      <c r="S25" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="39" t="s">
+      <c r="T25" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="U25" s="31" t="s">
+      <c r="U25" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
@@ -3222,23 +3202,23 @@
       <c r="C26" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="24" t="s">
+      <c r="F26" s="56"/>
+      <c r="G26" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="H26" s="22">
-        <v>23</v>
+      <c r="H26" s="16">
+        <v>24</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="57" t="s">
         <v>244</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -3251,29 +3231,29 @@
       <c r="N26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="P26" s="22" t="s">
+      <c r="P26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="Q26" s="19">
         <v>6</v>
       </c>
-      <c r="R26" s="32" t="s">
+      <c r="R26" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S26" s="33" t="s">
+      <c r="S26" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T26" s="39" t="s">
+      <c r="T26" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="U26" s="31" t="s">
+      <c r="U26" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
@@ -3283,14 +3263,14 @@
       <c r="C27" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="24" t="s">
+      <c r="F27" s="56"/>
+      <c r="G27" s="51" t="s">
         <v>265</v>
       </c>
       <c r="H27" s="22">
@@ -3299,7 +3279,7 @@
       <c r="I27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="57" t="s">
         <v>266</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -3312,29 +3292,29 @@
       <c r="N27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="38" t="s">
+      <c r="O27" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="P27" s="22" t="s">
+      <c r="P27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="31">
+      <c r="Q27" s="19">
         <v>6</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="R27" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S27" s="33" t="s">
+      <c r="S27" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T27" s="39" t="s">
+      <c r="T27" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="U27" s="31" t="s">
+      <c r="U27" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
@@ -3344,23 +3324,23 @@
       <c r="C28" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="24" t="s">
+      <c r="F28" s="56"/>
+      <c r="G28" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="16">
         <v>26</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="57" t="s">
         <v>190</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -3371,29 +3351,29 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="38" t="s">
+      <c r="O28" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P28" s="22" t="s">
+      <c r="P28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="Q28" s="19">
         <v>10</v>
       </c>
-      <c r="R28" s="32" t="s">
+      <c r="R28" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S28" s="33" t="s">
+      <c r="S28" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="T28" s="39" t="s">
+      <c r="T28" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="U28" s="31" t="s">
+      <c r="U28" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -3403,23 +3383,23 @@
       <c r="C29" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="24" t="s">
+      <c r="F29" s="56"/>
+      <c r="G29" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="16">
         <v>27</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="57" t="s">
         <v>212</v>
       </c>
       <c r="K29" s="5" t="s">
@@ -3430,29 +3410,29 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="38" t="s">
+      <c r="O29" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P29" s="22" t="s">
+      <c r="P29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q29" s="19">
         <v>8</v>
       </c>
-      <c r="R29" s="32" t="s">
+      <c r="R29" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S29" s="33" t="s">
+      <c r="S29" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="T29" s="39" t="s">
+      <c r="T29" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="U29" s="31" t="s">
+      <c r="U29" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
@@ -3462,14 +3442,14 @@
       <c r="C30" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="24" t="s">
+      <c r="F30" s="56"/>
+      <c r="G30" s="51" t="s">
         <v>247</v>
       </c>
       <c r="H30" s="22">
@@ -3478,7 +3458,7 @@
       <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="57" t="s">
         <v>268</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -3491,29 +3471,29 @@
       <c r="N30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="38" t="s">
+      <c r="O30" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="P30" s="22" t="s">
+      <c r="P30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q30" s="19">
         <v>6</v>
       </c>
-      <c r="R30" s="32" t="s">
+      <c r="R30" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S30" s="33" t="s">
+      <c r="S30" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T30" s="39" t="s">
+      <c r="T30" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="U30" s="31" t="s">
+      <c r="U30" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
@@ -3523,23 +3503,23 @@
       <c r="C31" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="24" t="s">
+      <c r="F31" s="56"/>
+      <c r="G31" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="16">
         <v>29</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="57" t="s">
         <v>270</v>
       </c>
       <c r="K31" s="5" t="s">
@@ -3552,29 +3532,29 @@
       <c r="N31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="38" t="s">
+      <c r="O31" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="P31" s="22" t="s">
+      <c r="P31" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="31">
+      <c r="Q31" s="19">
         <v>6</v>
       </c>
-      <c r="R31" s="32" t="s">
+      <c r="R31" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S31" s="33" t="s">
+      <c r="S31" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T31" s="39" t="s">
+      <c r="T31" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="U31" s="31" t="s">
+      <c r="U31" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
@@ -3584,23 +3564,23 @@
       <c r="C32" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="24" t="s">
+      <c r="F32" s="56"/>
+      <c r="G32" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="16">
         <v>30</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="57" t="s">
         <v>249</v>
       </c>
       <c r="K32" s="5" t="s">
@@ -3613,29 +3593,29 @@
         <v>59</v>
       </c>
       <c r="N32" s="6"/>
-      <c r="O32" s="38" t="s">
+      <c r="O32" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="P32" s="22" t="s">
+      <c r="P32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="19">
         <v>6</v>
       </c>
-      <c r="R32" s="32" t="s">
+      <c r="R32" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="S32" s="33" t="s">
+      <c r="S32" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="T32" s="39" t="s">
+      <c r="T32" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="U32" s="31" t="s">
+      <c r="U32" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
@@ -3645,23 +3625,23 @@
       <c r="C33" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="24" t="s">
+      <c r="F33" s="56"/>
+      <c r="G33" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="22">
         <v>31</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="57" t="s">
         <v>251</v>
       </c>
       <c r="K33" s="5" t="s">
@@ -3674,29 +3654,29 @@
       <c r="N33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O33" s="38" t="s">
+      <c r="O33" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="P33" s="22" t="s">
+      <c r="P33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="31">
+      <c r="Q33" s="19">
         <v>6</v>
       </c>
-      <c r="R33" s="32" t="s">
+      <c r="R33" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S33" s="33" t="s">
+      <c r="S33" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T33" s="39" t="s">
+      <c r="T33" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="U33" s="31" t="s">
+      <c r="U33" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -3706,23 +3686,23 @@
       <c r="C34" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="24" t="s">
+      <c r="F34" s="56"/>
+      <c r="G34" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="16">
         <v>32</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="57" t="s">
         <v>200</v>
       </c>
       <c r="K34" s="5" t="s">
@@ -3733,29 +3713,29 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="38" t="s">
+      <c r="O34" s="56" t="s">
         <v>319</v>
       </c>
-      <c r="P34" s="22" t="s">
+      <c r="P34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="31">
+      <c r="Q34" s="19">
         <v>9</v>
       </c>
-      <c r="R34" s="32" t="s">
+      <c r="R34" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S34" s="33" t="s">
+      <c r="S34" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="T34" s="39" t="s">
+      <c r="T34" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="U34" s="31" t="s">
+      <c r="U34" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -3765,23 +3745,23 @@
       <c r="C35" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="44" t="s">
+      <c r="F35" s="56"/>
+      <c r="G35" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="16">
         <v>33</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="57" t="s">
         <v>253</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -3794,29 +3774,29 @@
         <v>64</v>
       </c>
       <c r="N35" s="6"/>
-      <c r="O35" s="38" t="s">
+      <c r="O35" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="P35" s="22" t="s">
+      <c r="P35" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="31">
+      <c r="Q35" s="19">
         <v>6</v>
       </c>
-      <c r="R35" s="32" t="s">
+      <c r="R35" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="S35" s="33" t="s">
+      <c r="S35" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="T35" s="39" t="s">
+      <c r="T35" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="U35" s="31" t="s">
+      <c r="U35" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3826,23 +3806,23 @@
       <c r="C36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="24" t="s">
+      <c r="F36" s="56"/>
+      <c r="G36" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="22">
         <v>34</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="57" t="s">
         <v>254</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -3855,29 +3835,29 @@
       <c r="N36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O36" s="38" t="s">
+      <c r="O36" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="P36" s="22" t="s">
+      <c r="P36" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="31">
+      <c r="Q36" s="19">
         <v>6</v>
       </c>
-      <c r="R36" s="32" t="s">
+      <c r="R36" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S36" s="33" t="s">
+      <c r="S36" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T36" s="39" t="s">
+      <c r="T36" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="U36" s="31" t="s">
+      <c r="U36" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A37" s="7" t="s">
         <v>16</v>
       </c>
@@ -3887,21 +3867,21 @@
       <c r="C37" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="24" t="s">
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="16">
         <v>35</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J37" s="57" t="s">
         <v>256</v>
       </c>
       <c r="K37" s="5" t="s">
@@ -3914,29 +3894,29 @@
       <c r="N37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="38" t="s">
+      <c r="O37" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="P37" s="22" t="s">
+      <c r="P37" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="31">
+      <c r="Q37" s="19">
         <v>6</v>
       </c>
-      <c r="R37" s="32" t="s">
+      <c r="R37" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S37" s="33" t="s">
+      <c r="S37" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T37" s="39" t="s">
+      <c r="T37" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="U37" s="31" t="s">
+      <c r="U37" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -3946,21 +3926,21 @@
       <c r="C38" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="24" t="s">
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="16">
         <v>36</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="57" t="s">
         <v>259</v>
       </c>
       <c r="K38" s="5" t="s">
@@ -3973,29 +3953,29 @@
       <c r="N38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O38" s="38" t="s">
+      <c r="O38" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="Q38" s="19">
         <v>6</v>
       </c>
-      <c r="R38" s="32" t="s">
+      <c r="R38" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S38" s="33" t="s">
+      <c r="S38" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T38" s="39" t="s">
+      <c r="T38" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="U38" s="31" t="s">
+      <c r="U38" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A39" s="7" t="s">
         <v>16</v>
       </c>
@@ -4005,12 +3985,12 @@
       <c r="C39" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="24" t="s">
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="51" t="s">
         <v>191</v>
       </c>
       <c r="H39" s="22">
@@ -4019,7 +3999,7 @@
       <c r="I39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J39" s="57" t="s">
         <v>196</v>
       </c>
       <c r="K39" s="5" t="s">
@@ -4030,29 +4010,29 @@
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="38" t="s">
+      <c r="O39" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="P39" s="22" t="s">
+      <c r="P39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="31">
+      <c r="Q39" s="19">
         <v>6</v>
       </c>
-      <c r="R39" s="32" t="s">
+      <c r="R39" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S39" s="33" t="s">
+      <c r="S39" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="T39" s="39" t="s">
+      <c r="T39" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="U39" s="31" t="s">
+      <c r="U39" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
@@ -4062,21 +4042,21 @@
       <c r="C40" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="24" t="s">
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="16">
         <v>38</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J40" s="57" t="s">
         <v>260</v>
       </c>
       <c r="K40" s="5" t="s">
@@ -4089,29 +4069,29 @@
       <c r="N40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="38" t="s">
+      <c r="O40" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="P40" s="22" t="s">
+      <c r="P40" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="31">
+      <c r="Q40" s="19">
         <v>6</v>
       </c>
-      <c r="R40" s="32" t="s">
+      <c r="R40" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S40" s="33" t="s">
+      <c r="S40" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T40" s="39" t="s">
+      <c r="T40" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="U40" s="31" t="s">
+      <c r="U40" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
@@ -4121,21 +4101,21 @@
       <c r="C41" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="24" t="s">
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H41" s="16">
         <v>39</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="25" t="s">
+      <c r="J41" s="57" t="s">
         <v>257</v>
       </c>
       <c r="K41" s="5" t="s">
@@ -4148,29 +4128,29 @@
       <c r="N41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O41" s="38" t="s">
+      <c r="O41" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="P41" s="22" t="s">
+      <c r="P41" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="31">
+      <c r="Q41" s="19">
         <v>6</v>
       </c>
-      <c r="R41" s="32" t="s">
+      <c r="R41" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S41" s="33" t="s">
+      <c r="S41" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T41" s="39" t="s">
+      <c r="T41" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="U41" s="31" t="s">
+      <c r="U41" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A42" s="7" t="s">
         <v>16</v>
       </c>
@@ -4180,12 +4160,12 @@
       <c r="C42" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="24" t="s">
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="51" t="s">
         <v>124</v>
       </c>
       <c r="H42" s="22">
@@ -4194,7 +4174,7 @@
       <c r="I42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="J42" s="57" t="s">
         <v>155</v>
       </c>
       <c r="K42" s="5" t="s">
@@ -4205,17 +4185,17 @@
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="22" t="s">
+      <c r="O42" s="56"/>
+      <c r="P42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="31"/>
-    </row>
-    <row r="43" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="Q42" s="19"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="19"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A43" s="7" t="s">
         <v>16</v>
       </c>
@@ -4225,21 +4205,21 @@
       <c r="C43" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="45" t="s">
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="16">
         <v>41</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="J43" s="57" t="s">
         <v>156</v>
       </c>
       <c r="K43" s="5" t="s">
@@ -4252,29 +4232,29 @@
       <c r="N43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="38" t="s">
+      <c r="O43" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="P43" s="22" t="s">
+      <c r="P43" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="31">
+      <c r="Q43" s="19">
         <v>6</v>
       </c>
-      <c r="R43" s="32" t="s">
+      <c r="R43" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S43" s="33" t="s">
+      <c r="S43" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T43" s="39" t="s">
+      <c r="T43" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="U43" s="31" t="s">
+      <c r="U43" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A44" s="7" t="s">
         <v>16</v>
       </c>
@@ -4284,21 +4264,21 @@
       <c r="C44" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="24" t="s">
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="16">
         <v>42</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="J44" s="57" t="s">
         <v>157</v>
       </c>
       <c r="K44" s="5" t="s">
@@ -4311,2028 +4291,2016 @@
       <c r="N44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O44" s="38" t="s">
+      <c r="O44" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="P44" s="22" t="s">
+      <c r="P44" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="31">
+      <c r="Q44" s="19">
         <v>6</v>
       </c>
-      <c r="R44" s="32" t="s">
+      <c r="R44" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S44" s="33" t="s">
+      <c r="S44" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T44" s="39" t="s">
+      <c r="T44" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="U44" s="31" t="s">
+      <c r="U44" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="19"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-    </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="19"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-    </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="19"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-    </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="19"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-    </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="19"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-    </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="19"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-    </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="19"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-    </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A59" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="19"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-    </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+      <c r="D59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A60" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="19"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-    </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="D60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A61" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="19"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-    </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+      <c r="D61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A62" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="19"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-    </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+      <c r="D62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A63" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="19"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-    </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+      <c r="D63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A64" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="19"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-    </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="D64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A65" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="19"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-    </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="D65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A66" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="19"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-    </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="D66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A67" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="19"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-    </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="D67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A68" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="19"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-    </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="D68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A69" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="19"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-    </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+      <c r="D69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A70" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="19"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-    </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+      <c r="D70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A71" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="19"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-    </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="D71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A72" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="19"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-    </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="D72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A73" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="19"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-    </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="D73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A74" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="19"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-    </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="D74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A75" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="19"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-    </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+      <c r="D75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A76" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="19"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-    </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+      <c r="D76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A77" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="19"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-    </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="D77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A78" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="19"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-    </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
+      <c r="D78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A79" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="19"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-    </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+      <c r="D79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A80" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="19"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-    </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+      <c r="D80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A81" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="19"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-    </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
+      <c r="D81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A82" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="19"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-    </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
+      <c r="D82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A83" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="19"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-    </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
+      <c r="D83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A84" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="19"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-    </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+      <c r="D84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A85" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="19"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-    </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+      <c r="D85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A86" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="19"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-    </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="D86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A87" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="19"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-    </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="D87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A88" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="19"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-    </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+      <c r="D88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A89" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="19"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-    </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+      <c r="D89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A90" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="19"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-    </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
+      <c r="D90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A91" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="19"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-    </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
+      <c r="D91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A92" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="19"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-    </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
+      <c r="D92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A93" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="19"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-    </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
+      <c r="D93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A94" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="19"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-    </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
+      <c r="D94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A95" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="19"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-    </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="19"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="19"/>
-      <c r="Q96" s="19"/>
-    </row>
-    <row r="97" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="19"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-    </row>
-    <row r="98" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="19"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="19"/>
-    </row>
-    <row r="99" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="19"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-    </row>
-    <row r="100" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="19"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-    </row>
-    <row r="101" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="19"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-    </row>
-    <row r="102" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="19"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-    </row>
-    <row r="103" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="19"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-    </row>
-    <row r="104" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="19"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-    </row>
-    <row r="105" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="19"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="19"/>
-    </row>
-    <row r="106" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="19"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="19"/>
-      <c r="Q106" s="19"/>
-    </row>
-    <row r="107" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="19"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="19"/>
-      <c r="Q107" s="19"/>
-    </row>
-    <row r="108" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="19"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-    </row>
-    <row r="109" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="19"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="19"/>
-    </row>
-    <row r="110" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="19"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-    </row>
-    <row r="111" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="19"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-    </row>
-    <row r="112" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="19"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="19"/>
-      <c r="Q112" s="19"/>
-    </row>
-    <row r="113" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="19"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-    </row>
-    <row r="114" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="19"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-    </row>
-    <row r="115" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="19"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="19"/>
-      <c r="Q115" s="19"/>
-    </row>
-    <row r="116" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="19"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="19"/>
-      <c r="Q116" s="19"/>
-    </row>
-    <row r="117" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="19"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="19"/>
-      <c r="Q117" s="19"/>
-    </row>
-    <row r="118" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="19"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="19"/>
-      <c r="Q118" s="19"/>
-    </row>
-    <row r="119" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="19"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="19"/>
-    </row>
-    <row r="120" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="19"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="19"/>
-      <c r="Q120" s="19"/>
-    </row>
-    <row r="121" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="H121" s="34"/>
-      <c r="I121" s="19"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="19"/>
-      <c r="Q121" s="19"/>
-    </row>
-    <row r="122" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="19"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="19"/>
-      <c r="Q122" s="19"/>
-    </row>
-    <row r="123" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="19"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="19"/>
-      <c r="Q123" s="19"/>
-    </row>
-    <row r="124" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="19"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="19"/>
-      <c r="Q124" s="19"/>
-    </row>
-    <row r="125" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="H125" s="34"/>
-      <c r="I125" s="19"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="19"/>
-      <c r="Q125" s="19"/>
-    </row>
-    <row r="126" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="19"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="19"/>
-    </row>
-    <row r="127" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="H127" s="34"/>
-      <c r="I127" s="19"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="19"/>
-      <c r="Q127" s="19"/>
-    </row>
-    <row r="128" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="19"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="19"/>
-      <c r="Q128" s="19"/>
-    </row>
-    <row r="129" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="19"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="19"/>
-      <c r="Q129" s="19"/>
-    </row>
-    <row r="130" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="H130" s="34"/>
-      <c r="I130" s="19"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="19"/>
-    </row>
-    <row r="131" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="19"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="19"/>
-      <c r="Q131" s="19"/>
-    </row>
-    <row r="132" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="H132" s="34"/>
-      <c r="I132" s="19"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="19"/>
-      <c r="Q132" s="19"/>
-    </row>
-    <row r="133" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="19"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="19"/>
-      <c r="Q133" s="19"/>
-    </row>
-    <row r="134" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="19"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="19"/>
-    </row>
-    <row r="135" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="H135" s="34"/>
-      <c r="I135" s="19"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="19"/>
-      <c r="Q135" s="19"/>
-    </row>
-    <row r="136" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="H136" s="34"/>
-      <c r="I136" s="19"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="19"/>
-      <c r="Q136" s="19"/>
-    </row>
-    <row r="137" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="19"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="19"/>
-      <c r="Q137" s="19"/>
-    </row>
-    <row r="138" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="H138" s="34"/>
-      <c r="I138" s="19"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-    </row>
-    <row r="139" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="H139" s="34"/>
-      <c r="I139" s="19"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="19"/>
-      <c r="Q139" s="19"/>
-    </row>
-    <row r="140" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="H140" s="34"/>
-      <c r="I140" s="19"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="19"/>
-      <c r="Q140" s="19"/>
-    </row>
-    <row r="141" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="19"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="19"/>
-      <c r="Q141" s="19"/>
-    </row>
-    <row r="142" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="H142" s="34"/>
-      <c r="I142" s="19"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-    </row>
-    <row r="143" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="H143" s="34"/>
-      <c r="I143" s="19"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="19"/>
-      <c r="Q143" s="19"/>
-    </row>
-    <row r="144" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="H144" s="34"/>
-      <c r="I144" s="19"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="19"/>
-      <c r="Q144" s="19"/>
-    </row>
-    <row r="145" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="H145" s="34"/>
-      <c r="I145" s="19"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="19"/>
-      <c r="Q145" s="19"/>
-    </row>
-    <row r="146" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="19"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-    </row>
-    <row r="147" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="H147" s="34"/>
-      <c r="I147" s="19"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="19"/>
-      <c r="Q147" s="19"/>
-    </row>
-    <row r="148" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="19"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="19"/>
-      <c r="Q148" s="19"/>
-    </row>
-    <row r="149" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="H149" s="34"/>
-      <c r="I149" s="19"/>
-      <c r="O149" s="17"/>
-      <c r="P149" s="19"/>
-      <c r="Q149" s="19"/>
-    </row>
-    <row r="150" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="H150" s="34"/>
-      <c r="I150" s="19"/>
-      <c r="O150" s="17"/>
-      <c r="P150" s="19"/>
-      <c r="Q150" s="19"/>
-    </row>
-    <row r="151" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="H151" s="34"/>
-      <c r="I151" s="19"/>
-      <c r="O151" s="17"/>
-      <c r="P151" s="19"/>
-      <c r="Q151" s="19"/>
-    </row>
-    <row r="152" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="19"/>
-      <c r="O152" s="17"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="19"/>
-    </row>
-    <row r="153" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="19"/>
-      <c r="O153" s="17"/>
-      <c r="P153" s="19"/>
-      <c r="Q153" s="19"/>
-    </row>
-    <row r="154" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="19"/>
-      <c r="O154" s="17"/>
-      <c r="P154" s="19"/>
-      <c r="Q154" s="19"/>
-    </row>
-    <row r="155" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="H155" s="34"/>
-      <c r="I155" s="19"/>
-      <c r="O155" s="17"/>
-      <c r="P155" s="19"/>
-      <c r="Q155" s="19"/>
-    </row>
-    <row r="156" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="19"/>
-      <c r="O156" s="17"/>
-      <c r="P156" s="19"/>
-      <c r="Q156" s="19"/>
-    </row>
-    <row r="157" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D157" s="19"/>
-      <c r="F157" s="19"/>
-      <c r="H157" s="34"/>
-      <c r="I157" s="19"/>
-      <c r="O157" s="17"/>
-      <c r="P157" s="19"/>
-      <c r="Q157" s="19"/>
-    </row>
-    <row r="158" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="H158" s="34"/>
-      <c r="I158" s="19"/>
-      <c r="O158" s="17"/>
-      <c r="P158" s="19"/>
-      <c r="Q158" s="19"/>
-    </row>
-    <row r="159" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="H159" s="34"/>
-      <c r="I159" s="19"/>
-      <c r="O159" s="17"/>
-      <c r="P159" s="19"/>
-      <c r="Q159" s="19"/>
-    </row>
-    <row r="160" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="H160" s="34"/>
-      <c r="I160" s="19"/>
-      <c r="O160" s="17"/>
-      <c r="P160" s="19"/>
-      <c r="Q160" s="19"/>
-    </row>
-    <row r="161" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="H161" s="34"/>
-      <c r="I161" s="19"/>
-      <c r="O161" s="17"/>
-      <c r="P161" s="19"/>
-      <c r="Q161" s="19"/>
-    </row>
-    <row r="162" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="H162" s="34"/>
-      <c r="I162" s="19"/>
-      <c r="O162" s="17"/>
-      <c r="P162" s="19"/>
-      <c r="Q162" s="19"/>
-    </row>
-    <row r="163" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="H163" s="34"/>
-      <c r="I163" s="19"/>
-      <c r="O163" s="17"/>
-      <c r="P163" s="19"/>
-      <c r="Q163" s="19"/>
-    </row>
-    <row r="164" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="H164" s="34"/>
-      <c r="I164" s="19"/>
-      <c r="O164" s="17"/>
-      <c r="P164" s="19"/>
-      <c r="Q164" s="19"/>
-    </row>
-    <row r="165" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="H165" s="34"/>
-      <c r="I165" s="19"/>
-      <c r="O165" s="17"/>
-      <c r="P165" s="19"/>
-      <c r="Q165" s="19"/>
-    </row>
-    <row r="166" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="H166" s="34"/>
-      <c r="I166" s="19"/>
-      <c r="O166" s="17"/>
-      <c r="P166" s="19"/>
-      <c r="Q166" s="19"/>
-    </row>
-    <row r="167" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="H167" s="34"/>
-      <c r="I167" s="19"/>
-      <c r="O167" s="17"/>
-      <c r="P167" s="19"/>
-      <c r="Q167" s="19"/>
-    </row>
-    <row r="168" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="H168" s="34"/>
-      <c r="I168" s="19"/>
-      <c r="O168" s="17"/>
-      <c r="P168" s="19"/>
-      <c r="Q168" s="19"/>
-    </row>
-    <row r="169" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="H169" s="34"/>
-      <c r="I169" s="19"/>
-      <c r="O169" s="17"/>
-      <c r="P169" s="19"/>
-      <c r="Q169" s="19"/>
-    </row>
-    <row r="170" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="H170" s="34"/>
-      <c r="I170" s="19"/>
-      <c r="O170" s="17"/>
-      <c r="P170" s="19"/>
-      <c r="Q170" s="19"/>
-    </row>
-    <row r="171" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="H171" s="34"/>
-      <c r="I171" s="19"/>
-      <c r="O171" s="17"/>
-      <c r="P171" s="19"/>
-      <c r="Q171" s="19"/>
-    </row>
-    <row r="172" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="H172" s="34"/>
-      <c r="I172" s="19"/>
-      <c r="O172" s="17"/>
-      <c r="P172" s="19"/>
-      <c r="Q172" s="19"/>
-    </row>
-    <row r="173" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="H173" s="34"/>
-      <c r="I173" s="19"/>
-      <c r="O173" s="17"/>
-      <c r="P173" s="19"/>
-      <c r="Q173" s="19"/>
-    </row>
-    <row r="174" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="H174" s="34"/>
-      <c r="I174" s="19"/>
-      <c r="O174" s="17"/>
-      <c r="P174" s="19"/>
-      <c r="Q174" s="19"/>
-    </row>
-    <row r="175" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="H175" s="34"/>
-      <c r="I175" s="19"/>
-      <c r="O175" s="17"/>
-      <c r="P175" s="19"/>
-      <c r="Q175" s="19"/>
-    </row>
-    <row r="176" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="H176" s="34"/>
-      <c r="I176" s="19"/>
-      <c r="O176" s="17"/>
-      <c r="P176" s="19"/>
-      <c r="Q176" s="19"/>
-    </row>
-    <row r="177" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="H177" s="34"/>
-      <c r="I177" s="19"/>
-      <c r="O177" s="17"/>
-      <c r="P177" s="19"/>
-      <c r="Q177" s="19"/>
-    </row>
-    <row r="178" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="H178" s="34"/>
-      <c r="I178" s="19"/>
-      <c r="O178" s="17"/>
-      <c r="P178" s="19"/>
-      <c r="Q178" s="19"/>
-    </row>
-    <row r="179" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="H179" s="34"/>
-      <c r="I179" s="19"/>
-      <c r="O179" s="17"/>
-      <c r="P179" s="19"/>
-      <c r="Q179" s="19"/>
-    </row>
-    <row r="180" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="H180" s="34"/>
-      <c r="I180" s="19"/>
-      <c r="O180" s="17"/>
-      <c r="P180" s="19"/>
-      <c r="Q180" s="19"/>
-    </row>
-    <row r="181" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="H181" s="34"/>
-      <c r="I181" s="19"/>
-      <c r="O181" s="17"/>
-      <c r="P181" s="19"/>
-      <c r="Q181" s="19"/>
-    </row>
-    <row r="182" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="H182" s="34"/>
-      <c r="I182" s="19"/>
-      <c r="O182" s="17"/>
-      <c r="P182" s="19"/>
-      <c r="Q182" s="19"/>
-    </row>
-    <row r="183" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="H183" s="34"/>
-      <c r="I183" s="19"/>
-      <c r="O183" s="17"/>
-      <c r="P183" s="19"/>
-      <c r="Q183" s="19"/>
-    </row>
-    <row r="184" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="H184" s="34"/>
-      <c r="I184" s="19"/>
-      <c r="O184" s="17"/>
-      <c r="P184" s="19"/>
-      <c r="Q184" s="19"/>
-    </row>
-    <row r="185" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="H185" s="34"/>
-      <c r="I185" s="19"/>
-      <c r="O185" s="17"/>
-      <c r="P185" s="19"/>
-      <c r="Q185" s="19"/>
-    </row>
-    <row r="186" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D186" s="19"/>
-      <c r="F186" s="19"/>
-      <c r="H186" s="34"/>
-      <c r="I186" s="19"/>
-      <c r="O186" s="17"/>
-      <c r="P186" s="19"/>
-      <c r="Q186" s="19"/>
-    </row>
-    <row r="187" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="H187" s="34"/>
-      <c r="I187" s="19"/>
-      <c r="O187" s="17"/>
-      <c r="P187" s="19"/>
-      <c r="Q187" s="19"/>
-    </row>
-    <row r="188" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D188" s="19"/>
-      <c r="F188" s="19"/>
-      <c r="H188" s="34"/>
-      <c r="I188" s="19"/>
-      <c r="O188" s="17"/>
-      <c r="P188" s="19"/>
-      <c r="Q188" s="19"/>
-    </row>
-    <row r="189" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D189" s="19"/>
-      <c r="F189" s="19"/>
-      <c r="H189" s="34"/>
-      <c r="I189" s="19"/>
-      <c r="O189" s="17"/>
-      <c r="P189" s="19"/>
-      <c r="Q189" s="19"/>
-    </row>
-    <row r="190" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D190" s="19"/>
-      <c r="F190" s="19"/>
-      <c r="H190" s="34"/>
-      <c r="I190" s="19"/>
-      <c r="O190" s="17"/>
-      <c r="P190" s="19"/>
-      <c r="Q190" s="19"/>
-    </row>
-    <row r="191" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="H191" s="34"/>
-      <c r="I191" s="19"/>
-      <c r="O191" s="17"/>
-      <c r="P191" s="19"/>
-      <c r="Q191" s="19"/>
-    </row>
-    <row r="192" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D192" s="19"/>
-      <c r="F192" s="19"/>
-      <c r="H192" s="34"/>
-      <c r="I192" s="19"/>
-      <c r="O192" s="17"/>
-      <c r="P192" s="19"/>
-      <c r="Q192" s="19"/>
-    </row>
-    <row r="193" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="H193" s="34"/>
-      <c r="I193" s="19"/>
-      <c r="O193" s="17"/>
-      <c r="P193" s="19"/>
-      <c r="Q193" s="19"/>
-    </row>
-    <row r="194" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="H194" s="34"/>
-      <c r="I194" s="19"/>
-      <c r="O194" s="17"/>
-      <c r="P194" s="19"/>
-      <c r="Q194" s="19"/>
-    </row>
-    <row r="195" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="H195" s="34"/>
-      <c r="I195" s="19"/>
-      <c r="O195" s="17"/>
-      <c r="P195" s="19"/>
-      <c r="Q195" s="19"/>
-    </row>
-    <row r="196" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="H196" s="34"/>
-      <c r="I196" s="19"/>
-      <c r="O196" s="17"/>
-      <c r="P196" s="19"/>
-      <c r="Q196" s="19"/>
-    </row>
-    <row r="197" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="H197" s="34"/>
-      <c r="I197" s="19"/>
-      <c r="O197" s="17"/>
-      <c r="P197" s="19"/>
-      <c r="Q197" s="19"/>
-    </row>
-    <row r="198" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D198" s="19"/>
-      <c r="F198" s="19"/>
-      <c r="H198" s="34"/>
-      <c r="I198" s="19"/>
-      <c r="O198" s="17"/>
-      <c r="P198" s="19"/>
-      <c r="Q198" s="19"/>
-    </row>
-    <row r="199" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="H199" s="34"/>
-      <c r="I199" s="19"/>
-      <c r="O199" s="17"/>
-      <c r="P199" s="19"/>
-      <c r="Q199" s="19"/>
-    </row>
-    <row r="200" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D200" s="19"/>
-      <c r="F200" s="19"/>
-      <c r="H200" s="34"/>
-      <c r="I200" s="19"/>
-      <c r="O200" s="17"/>
-      <c r="P200" s="19"/>
-      <c r="Q200" s="19"/>
-    </row>
-    <row r="201" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="H201" s="34"/>
-      <c r="I201" s="19"/>
-      <c r="O201" s="17"/>
-      <c r="P201" s="19"/>
-      <c r="Q201" s="19"/>
-    </row>
-    <row r="202" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D202" s="19"/>
-      <c r="F202" s="19"/>
-      <c r="H202" s="34"/>
-      <c r="I202" s="19"/>
-      <c r="O202" s="17"/>
-      <c r="P202" s="19"/>
-      <c r="Q202" s="19"/>
-    </row>
-    <row r="203" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="H203" s="34"/>
-      <c r="I203" s="19"/>
-      <c r="O203" s="17"/>
-      <c r="P203" s="19"/>
-      <c r="Q203" s="19"/>
-    </row>
-    <row r="204" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D204" s="19"/>
-      <c r="F204" s="19"/>
-      <c r="H204" s="34"/>
-      <c r="I204" s="19"/>
-      <c r="O204" s="17"/>
-      <c r="P204" s="19"/>
-      <c r="Q204" s="19"/>
-    </row>
-    <row r="205" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="H205" s="34"/>
-      <c r="I205" s="19"/>
-      <c r="O205" s="17"/>
-      <c r="P205" s="19"/>
-      <c r="Q205" s="19"/>
-    </row>
-    <row r="206" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D206" s="19"/>
-      <c r="F206" s="19"/>
-      <c r="H206" s="34"/>
-      <c r="I206" s="19"/>
-      <c r="O206" s="17"/>
-      <c r="P206" s="19"/>
-      <c r="Q206" s="19"/>
-    </row>
-    <row r="207" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D207" s="19"/>
-      <c r="F207" s="19"/>
-      <c r="H207" s="34"/>
-      <c r="I207" s="19"/>
-      <c r="O207" s="17"/>
-      <c r="P207" s="19"/>
-      <c r="Q207" s="19"/>
-    </row>
-    <row r="208" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D208" s="19"/>
-      <c r="F208" s="19"/>
-      <c r="H208" s="34"/>
-      <c r="I208" s="19"/>
-      <c r="O208" s="17"/>
-      <c r="P208" s="19"/>
-      <c r="Q208" s="19"/>
-    </row>
-    <row r="209" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D209" s="19"/>
-      <c r="F209" s="19"/>
-      <c r="H209" s="34"/>
-      <c r="I209" s="19"/>
-      <c r="O209" s="17"/>
-      <c r="P209" s="19"/>
-      <c r="Q209" s="19"/>
-    </row>
-    <row r="210" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D210" s="19"/>
-      <c r="F210" s="19"/>
-      <c r="H210" s="34"/>
-      <c r="I210" s="19"/>
-      <c r="O210" s="17"/>
-      <c r="P210" s="19"/>
-      <c r="Q210" s="19"/>
-    </row>
-    <row r="211" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D211" s="19"/>
-      <c r="F211" s="19"/>
-      <c r="H211" s="34"/>
-      <c r="I211" s="19"/>
-      <c r="O211" s="17"/>
-      <c r="P211" s="19"/>
-      <c r="Q211" s="19"/>
-    </row>
-    <row r="212" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D212" s="19"/>
-      <c r="F212" s="19"/>
-      <c r="H212" s="34"/>
-      <c r="I212" s="19"/>
-      <c r="O212" s="17"/>
-      <c r="P212" s="19"/>
-      <c r="Q212" s="19"/>
-    </row>
-    <row r="213" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D213" s="19"/>
-      <c r="F213" s="19"/>
-      <c r="H213" s="34"/>
-      <c r="I213" s="19"/>
-      <c r="O213" s="17"/>
-      <c r="P213" s="19"/>
-      <c r="Q213" s="19"/>
-    </row>
-    <row r="214" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D214" s="19"/>
-      <c r="F214" s="19"/>
-      <c r="H214" s="34"/>
-      <c r="I214" s="19"/>
-      <c r="O214" s="17"/>
-      <c r="P214" s="19"/>
-      <c r="Q214" s="19"/>
-    </row>
-    <row r="215" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D215" s="19"/>
-      <c r="F215" s="19"/>
-      <c r="H215" s="34"/>
-      <c r="I215" s="19"/>
-      <c r="O215" s="17"/>
-      <c r="P215" s="19"/>
-      <c r="Q215" s="19"/>
-    </row>
-    <row r="216" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D216" s="19"/>
-      <c r="F216" s="19"/>
-      <c r="H216" s="34"/>
-      <c r="I216" s="19"/>
-      <c r="O216" s="17"/>
-      <c r="P216" s="19"/>
-      <c r="Q216" s="19"/>
-    </row>
-    <row r="217" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D217" s="19"/>
-      <c r="F217" s="19"/>
-      <c r="H217" s="34"/>
-      <c r="I217" s="19"/>
-      <c r="O217" s="17"/>
-      <c r="P217" s="19"/>
-      <c r="Q217" s="19"/>
-    </row>
-    <row r="218" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D218" s="19"/>
-      <c r="F218" s="19"/>
-      <c r="H218" s="34"/>
-      <c r="I218" s="19"/>
-      <c r="O218" s="17"/>
-      <c r="P218" s="19"/>
-      <c r="Q218" s="19"/>
-    </row>
-    <row r="219" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D219" s="19"/>
-      <c r="F219" s="19"/>
-      <c r="H219" s="34"/>
-      <c r="I219" s="19"/>
-      <c r="O219" s="17"/>
-      <c r="P219" s="19"/>
-      <c r="Q219" s="19"/>
-    </row>
-    <row r="220" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D220" s="19"/>
-      <c r="F220" s="19"/>
-      <c r="H220" s="34"/>
-      <c r="I220" s="19"/>
-      <c r="O220" s="17"/>
-      <c r="P220" s="19"/>
-      <c r="Q220" s="19"/>
-    </row>
-    <row r="221" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D221" s="19"/>
-      <c r="F221" s="19"/>
-      <c r="H221" s="34"/>
-      <c r="I221" s="19"/>
-      <c r="O221" s="17"/>
-      <c r="P221" s="19"/>
-      <c r="Q221" s="19"/>
-    </row>
-    <row r="222" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D222" s="19"/>
-      <c r="F222" s="19"/>
-      <c r="H222" s="34"/>
-      <c r="I222" s="19"/>
-      <c r="O222" s="17"/>
-      <c r="P222" s="19"/>
-      <c r="Q222" s="19"/>
-    </row>
-    <row r="223" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D223" s="19"/>
-      <c r="F223" s="19"/>
-      <c r="H223" s="34"/>
-      <c r="I223" s="19"/>
-      <c r="O223" s="17"/>
-      <c r="P223" s="19"/>
-      <c r="Q223" s="19"/>
-    </row>
-    <row r="224" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D224" s="19"/>
-      <c r="F224" s="19"/>
-      <c r="H224" s="34"/>
-      <c r="I224" s="19"/>
-      <c r="O224" s="17"/>
-      <c r="P224" s="19"/>
-      <c r="Q224" s="19"/>
-    </row>
-    <row r="225" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D225" s="19"/>
-      <c r="F225" s="19"/>
-      <c r="H225" s="34"/>
-      <c r="I225" s="19"/>
-      <c r="O225" s="17"/>
-      <c r="P225" s="19"/>
-      <c r="Q225" s="19"/>
-    </row>
-    <row r="226" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D226" s="19"/>
-      <c r="F226" s="19"/>
-      <c r="H226" s="34"/>
-      <c r="I226" s="19"/>
-      <c r="O226" s="17"/>
-      <c r="P226" s="19"/>
-      <c r="Q226" s="19"/>
-    </row>
-    <row r="227" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D227" s="19"/>
-      <c r="F227" s="19"/>
-      <c r="H227" s="34"/>
-      <c r="I227" s="19"/>
-      <c r="O227" s="17"/>
-      <c r="P227" s="19"/>
-      <c r="Q227" s="19"/>
-    </row>
-    <row r="228" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D228" s="19"/>
-      <c r="F228" s="19"/>
-      <c r="H228" s="34"/>
-      <c r="I228" s="19"/>
-      <c r="O228" s="17"/>
-      <c r="P228" s="19"/>
-      <c r="Q228" s="19"/>
-    </row>
-    <row r="229" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D229" s="19"/>
-      <c r="F229" s="19"/>
-      <c r="H229" s="34"/>
-      <c r="I229" s="19"/>
-      <c r="O229" s="17"/>
-      <c r="P229" s="19"/>
-      <c r="Q229" s="19"/>
-    </row>
-    <row r="230" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D230" s="19"/>
-      <c r="F230" s="19"/>
-      <c r="H230" s="34"/>
-      <c r="I230" s="19"/>
-      <c r="O230" s="17"/>
-      <c r="P230" s="19"/>
-      <c r="Q230" s="19"/>
-    </row>
-    <row r="231" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D231" s="19"/>
-      <c r="F231" s="19"/>
-      <c r="H231" s="34"/>
-      <c r="I231" s="19"/>
-      <c r="O231" s="17"/>
-      <c r="P231" s="19"/>
-      <c r="Q231" s="19"/>
-    </row>
-    <row r="232" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="H232" s="34"/>
-      <c r="I232" s="19"/>
-      <c r="O232" s="17"/>
-      <c r="P232" s="19"/>
-      <c r="Q232" s="19"/>
-    </row>
-    <row r="233" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D233" s="19"/>
-      <c r="F233" s="19"/>
-      <c r="H233" s="34"/>
-      <c r="I233" s="19"/>
-      <c r="O233" s="17"/>
-      <c r="P233" s="19"/>
-      <c r="Q233" s="19"/>
-    </row>
-    <row r="234" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D234" s="19"/>
-      <c r="F234" s="19"/>
-      <c r="H234" s="34"/>
-      <c r="I234" s="19"/>
-      <c r="O234" s="17"/>
-      <c r="P234" s="19"/>
-      <c r="Q234" s="19"/>
-    </row>
-    <row r="235" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D235" s="19"/>
-      <c r="F235" s="19"/>
-      <c r="H235" s="34"/>
-      <c r="I235" s="19"/>
-      <c r="O235" s="17"/>
-      <c r="P235" s="19"/>
-      <c r="Q235" s="19"/>
-    </row>
-    <row r="236" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D236" s="19"/>
-      <c r="F236" s="19"/>
-      <c r="H236" s="34"/>
-      <c r="I236" s="19"/>
-      <c r="O236" s="17"/>
-      <c r="P236" s="19"/>
-      <c r="Q236" s="19"/>
-    </row>
-    <row r="237" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D237" s="19"/>
-      <c r="F237" s="19"/>
-      <c r="H237" s="34"/>
-      <c r="I237" s="19"/>
-      <c r="O237" s="17"/>
-      <c r="P237" s="19"/>
-      <c r="Q237" s="19"/>
-    </row>
-    <row r="238" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D238" s="19"/>
-      <c r="F238" s="19"/>
-      <c r="H238" s="34"/>
-      <c r="I238" s="19"/>
-      <c r="O238" s="17"/>
-      <c r="P238" s="19"/>
-      <c r="Q238" s="19"/>
-    </row>
-    <row r="239" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D239" s="19"/>
-      <c r="F239" s="19"/>
-      <c r="H239" s="34"/>
-      <c r="I239" s="19"/>
-      <c r="O239" s="17"/>
-      <c r="P239" s="19"/>
-      <c r="Q239" s="19"/>
-    </row>
-    <row r="240" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D240" s="19"/>
-      <c r="F240" s="19"/>
-      <c r="H240" s="34"/>
-      <c r="I240" s="19"/>
-      <c r="O240" s="17"/>
-      <c r="P240" s="19"/>
-      <c r="Q240" s="19"/>
-    </row>
-    <row r="241" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D241" s="19"/>
-      <c r="F241" s="19"/>
-      <c r="H241" s="34"/>
-      <c r="I241" s="19"/>
-      <c r="O241" s="17"/>
-      <c r="P241" s="19"/>
-      <c r="Q241" s="19"/>
-    </row>
-    <row r="242" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D242" s="19"/>
-      <c r="F242" s="19"/>
-      <c r="H242" s="34"/>
-      <c r="I242" s="19"/>
-      <c r="O242" s="17"/>
-      <c r="P242" s="19"/>
-      <c r="Q242" s="19"/>
-    </row>
-    <row r="243" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D243" s="19"/>
-      <c r="F243" s="19"/>
-      <c r="H243" s="34"/>
-      <c r="I243" s="19"/>
-      <c r="O243" s="17"/>
-      <c r="P243" s="19"/>
-      <c r="Q243" s="19"/>
-    </row>
-    <row r="244" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D244" s="19"/>
-      <c r="F244" s="19"/>
-      <c r="H244" s="34"/>
-      <c r="I244" s="19"/>
-      <c r="O244" s="17"/>
-      <c r="P244" s="19"/>
-      <c r="Q244" s="19"/>
-    </row>
-    <row r="245" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D245" s="19"/>
-      <c r="F245" s="19"/>
-      <c r="H245" s="34"/>
-      <c r="I245" s="19"/>
-      <c r="O245" s="17"/>
-      <c r="P245" s="19"/>
-      <c r="Q245" s="19"/>
-    </row>
-    <row r="246" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D246" s="19"/>
-      <c r="F246" s="19"/>
-      <c r="H246" s="34"/>
-      <c r="I246" s="19"/>
-      <c r="O246" s="17"/>
-      <c r="P246" s="19"/>
-      <c r="Q246" s="19"/>
-    </row>
-    <row r="247" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D247" s="19"/>
-      <c r="F247" s="19"/>
-      <c r="H247" s="34"/>
-      <c r="I247" s="19"/>
-      <c r="O247" s="17"/>
-      <c r="P247" s="19"/>
-      <c r="Q247" s="19"/>
-    </row>
-    <row r="248" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D248" s="19"/>
-      <c r="F248" s="19"/>
-      <c r="H248" s="34"/>
-      <c r="I248" s="19"/>
-      <c r="O248" s="17"/>
-      <c r="P248" s="19"/>
-      <c r="Q248" s="19"/>
-    </row>
-    <row r="249" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D249" s="19"/>
-      <c r="F249" s="19"/>
-      <c r="H249" s="34"/>
-      <c r="I249" s="19"/>
-      <c r="O249" s="17"/>
-      <c r="P249" s="19"/>
-      <c r="Q249" s="19"/>
-    </row>
-    <row r="250" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D250" s="19"/>
-      <c r="F250" s="19"/>
-      <c r="H250" s="34"/>
-      <c r="I250" s="19"/>
-      <c r="O250" s="17"/>
-      <c r="P250" s="19"/>
-      <c r="Q250" s="19"/>
-    </row>
-    <row r="251" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D251" s="19"/>
-      <c r="F251" s="19"/>
-      <c r="H251" s="34"/>
-      <c r="I251" s="19"/>
-      <c r="O251" s="17"/>
-      <c r="P251" s="19"/>
-      <c r="Q251" s="19"/>
-    </row>
-    <row r="252" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D252" s="19"/>
-      <c r="F252" s="19"/>
-      <c r="H252" s="34"/>
-      <c r="I252" s="19"/>
-      <c r="O252" s="17"/>
-      <c r="P252" s="19"/>
-      <c r="Q252" s="19"/>
-    </row>
-    <row r="253" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D253" s="19"/>
-      <c r="F253" s="19"/>
-      <c r="H253" s="34"/>
-      <c r="I253" s="19"/>
-      <c r="O253" s="17"/>
-      <c r="P253" s="19"/>
-      <c r="Q253" s="19"/>
-    </row>
-    <row r="254" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D254" s="19"/>
-      <c r="F254" s="19"/>
-      <c r="H254" s="34"/>
-      <c r="I254" s="19"/>
-      <c r="O254" s="17"/>
-      <c r="P254" s="19"/>
-      <c r="Q254" s="19"/>
-    </row>
-    <row r="255" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D255" s="19"/>
-      <c r="F255" s="19"/>
-      <c r="H255" s="34"/>
-      <c r="I255" s="19"/>
-      <c r="O255" s="17"/>
-      <c r="P255" s="19"/>
-      <c r="Q255" s="19"/>
-    </row>
-    <row r="256" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D256" s="19"/>
-      <c r="F256" s="19"/>
-      <c r="H256" s="34"/>
-      <c r="I256" s="19"/>
-      <c r="O256" s="17"/>
-      <c r="P256" s="19"/>
-      <c r="Q256" s="19"/>
-    </row>
-    <row r="257" spans="4:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D257" s="19"/>
-      <c r="F257" s="19"/>
-      <c r="H257" s="34"/>
-      <c r="I257" s="19"/>
-      <c r="O257" s="17"/>
-      <c r="P257" s="19"/>
-      <c r="Q257" s="19"/>
-    </row>
-    <row r="258" spans="4:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D258" s="19"/>
-      <c r="F258" s="19"/>
-      <c r="H258" s="34"/>
-      <c r="I258" s="19"/>
-      <c r="O258" s="17"/>
-      <c r="P258" s="19"/>
-      <c r="Q258" s="19"/>
-    </row>
-    <row r="266" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="P266"/>
-      <c r="Q266"/>
-      <c r="R266"/>
-      <c r="S266"/>
-      <c r="T266"/>
-      <c r="U266"/>
-      <c r="V266"/>
+      <c r="D95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+    </row>
+    <row r="97" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+    </row>
+    <row r="98" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+    </row>
+    <row r="99" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="37"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="37"/>
+    </row>
+    <row r="100" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+    </row>
+    <row r="101" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+    </row>
+    <row r="102" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+    </row>
+    <row r="103" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="37"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="37"/>
+    </row>
+    <row r="104" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="37"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="37"/>
+    </row>
+    <row r="105" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="37"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="37"/>
+    </row>
+    <row r="106" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="37"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="37"/>
+      <c r="Q106" s="37"/>
+    </row>
+    <row r="107" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="37"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="37"/>
+      <c r="Q107" s="37"/>
+    </row>
+    <row r="108" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="37"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
+      <c r="Q108" s="37"/>
+    </row>
+    <row r="109" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="37"/>
+      <c r="O109" s="37"/>
+      <c r="P109" s="37"/>
+      <c r="Q109" s="37"/>
+    </row>
+    <row r="110" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="37"/>
+      <c r="O110" s="37"/>
+      <c r="P110" s="37"/>
+      <c r="Q110" s="37"/>
+    </row>
+    <row r="111" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="37"/>
+      <c r="O111" s="37"/>
+      <c r="P111" s="37"/>
+      <c r="Q111" s="37"/>
+    </row>
+    <row r="112" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="37"/>
+      <c r="O112" s="37"/>
+      <c r="P112" s="37"/>
+      <c r="Q112" s="37"/>
+    </row>
+    <row r="113" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="37"/>
+      <c r="O113" s="37"/>
+      <c r="P113" s="37"/>
+      <c r="Q113" s="37"/>
+    </row>
+    <row r="114" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="37"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="37"/>
+      <c r="Q114" s="37"/>
+    </row>
+    <row r="115" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="37"/>
+      <c r="O115" s="37"/>
+      <c r="P115" s="37"/>
+      <c r="Q115" s="37"/>
+    </row>
+    <row r="116" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="37"/>
+      <c r="O116" s="37"/>
+      <c r="P116" s="37"/>
+      <c r="Q116" s="37"/>
+    </row>
+    <row r="117" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="37"/>
+      <c r="O117" s="37"/>
+      <c r="P117" s="37"/>
+      <c r="Q117" s="37"/>
+    </row>
+    <row r="118" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="37"/>
+      <c r="O118" s="37"/>
+      <c r="P118" s="37"/>
+      <c r="Q118" s="37"/>
+    </row>
+    <row r="119" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="37"/>
+      <c r="O119" s="37"/>
+      <c r="P119" s="37"/>
+      <c r="Q119" s="37"/>
+    </row>
+    <row r="120" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="37"/>
+      <c r="O120" s="37"/>
+      <c r="P120" s="37"/>
+      <c r="Q120" s="37"/>
+    </row>
+    <row r="121" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="37"/>
+      <c r="O121" s="37"/>
+      <c r="P121" s="37"/>
+      <c r="Q121" s="37"/>
+    </row>
+    <row r="122" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="37"/>
+      <c r="O122" s="37"/>
+      <c r="P122" s="37"/>
+      <c r="Q122" s="37"/>
+    </row>
+    <row r="123" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="37"/>
+      <c r="O123" s="37"/>
+      <c r="P123" s="37"/>
+      <c r="Q123" s="37"/>
+    </row>
+    <row r="124" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="37"/>
+      <c r="O124" s="37"/>
+      <c r="P124" s="37"/>
+      <c r="Q124" s="37"/>
+    </row>
+    <row r="125" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="37"/>
+      <c r="O125" s="37"/>
+      <c r="P125" s="37"/>
+      <c r="Q125" s="37"/>
+    </row>
+    <row r="126" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="37"/>
+      <c r="O126" s="37"/>
+      <c r="P126" s="37"/>
+      <c r="Q126" s="37"/>
+    </row>
+    <row r="127" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="37"/>
+      <c r="O127" s="37"/>
+      <c r="P127" s="37"/>
+      <c r="Q127" s="37"/>
+    </row>
+    <row r="128" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="37"/>
+      <c r="O128" s="37"/>
+      <c r="P128" s="37"/>
+      <c r="Q128" s="37"/>
+    </row>
+    <row r="129" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D129" s="37"/>
+      <c r="F129" s="37"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="37"/>
+      <c r="O129" s="37"/>
+      <c r="P129" s="37"/>
+      <c r="Q129" s="37"/>
+    </row>
+    <row r="130" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="37"/>
+      <c r="O130" s="37"/>
+      <c r="P130" s="37"/>
+      <c r="Q130" s="37"/>
+    </row>
+    <row r="131" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D131" s="37"/>
+      <c r="F131" s="37"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="37"/>
+      <c r="O131" s="37"/>
+      <c r="P131" s="37"/>
+      <c r="Q131" s="37"/>
+    </row>
+    <row r="132" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="37"/>
+      <c r="O132" s="37"/>
+      <c r="P132" s="37"/>
+      <c r="Q132" s="37"/>
+    </row>
+    <row r="133" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="37"/>
+      <c r="O133" s="37"/>
+      <c r="P133" s="37"/>
+      <c r="Q133" s="37"/>
+    </row>
+    <row r="134" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="37"/>
+      <c r="O134" s="37"/>
+      <c r="P134" s="37"/>
+      <c r="Q134" s="37"/>
+    </row>
+    <row r="135" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D135" s="37"/>
+      <c r="F135" s="37"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="37"/>
+      <c r="O135" s="37"/>
+      <c r="P135" s="37"/>
+      <c r="Q135" s="37"/>
+    </row>
+    <row r="136" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D136" s="37"/>
+      <c r="F136" s="37"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="37"/>
+      <c r="O136" s="37"/>
+      <c r="P136" s="37"/>
+      <c r="Q136" s="37"/>
+    </row>
+    <row r="137" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D137" s="37"/>
+      <c r="F137" s="37"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="37"/>
+      <c r="O137" s="37"/>
+      <c r="P137" s="37"/>
+      <c r="Q137" s="37"/>
+    </row>
+    <row r="138" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D138" s="37"/>
+      <c r="F138" s="37"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="37"/>
+      <c r="O138" s="37"/>
+      <c r="P138" s="37"/>
+      <c r="Q138" s="37"/>
+    </row>
+    <row r="139" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D139" s="37"/>
+      <c r="F139" s="37"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="37"/>
+      <c r="O139" s="37"/>
+      <c r="P139" s="37"/>
+      <c r="Q139" s="37"/>
+    </row>
+    <row r="140" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D140" s="37"/>
+      <c r="F140" s="37"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="37"/>
+      <c r="O140" s="37"/>
+      <c r="P140" s="37"/>
+      <c r="Q140" s="37"/>
+    </row>
+    <row r="141" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D141" s="37"/>
+      <c r="F141" s="37"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="37"/>
+      <c r="O141" s="37"/>
+      <c r="P141" s="37"/>
+      <c r="Q141" s="37"/>
+    </row>
+    <row r="142" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D142" s="37"/>
+      <c r="F142" s="37"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="37"/>
+      <c r="O142" s="37"/>
+      <c r="P142" s="37"/>
+      <c r="Q142" s="37"/>
+    </row>
+    <row r="143" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D143" s="37"/>
+      <c r="F143" s="37"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="37"/>
+      <c r="O143" s="37"/>
+      <c r="P143" s="37"/>
+      <c r="Q143" s="37"/>
+    </row>
+    <row r="144" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D144" s="37"/>
+      <c r="F144" s="37"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="37"/>
+      <c r="O144" s="37"/>
+      <c r="P144" s="37"/>
+      <c r="Q144" s="37"/>
+    </row>
+    <row r="145" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D145" s="37"/>
+      <c r="F145" s="37"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="37"/>
+      <c r="O145" s="37"/>
+      <c r="P145" s="37"/>
+      <c r="Q145" s="37"/>
+    </row>
+    <row r="146" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D146" s="37"/>
+      <c r="F146" s="37"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="37"/>
+      <c r="O146" s="37"/>
+      <c r="P146" s="37"/>
+      <c r="Q146" s="37"/>
+    </row>
+    <row r="147" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D147" s="37"/>
+      <c r="F147" s="37"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="37"/>
+      <c r="O147" s="37"/>
+      <c r="P147" s="37"/>
+      <c r="Q147" s="37"/>
+    </row>
+    <row r="148" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D148" s="37"/>
+      <c r="F148" s="37"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="37"/>
+      <c r="O148" s="37"/>
+      <c r="P148" s="37"/>
+      <c r="Q148" s="37"/>
+    </row>
+    <row r="149" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D149" s="37"/>
+      <c r="F149" s="37"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="37"/>
+      <c r="O149" s="37"/>
+      <c r="P149" s="37"/>
+      <c r="Q149" s="37"/>
+    </row>
+    <row r="150" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D150" s="37"/>
+      <c r="F150" s="37"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="37"/>
+      <c r="O150" s="37"/>
+      <c r="P150" s="37"/>
+      <c r="Q150" s="37"/>
+    </row>
+    <row r="151" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D151" s="37"/>
+      <c r="F151" s="37"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="37"/>
+      <c r="O151" s="37"/>
+      <c r="P151" s="37"/>
+      <c r="Q151" s="37"/>
+    </row>
+    <row r="152" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D152" s="37"/>
+      <c r="F152" s="37"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="37"/>
+      <c r="O152" s="37"/>
+      <c r="P152" s="37"/>
+      <c r="Q152" s="37"/>
+    </row>
+    <row r="153" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="37"/>
+      <c r="O153" s="37"/>
+      <c r="P153" s="37"/>
+      <c r="Q153" s="37"/>
+    </row>
+    <row r="154" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D154" s="37"/>
+      <c r="F154" s="37"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="37"/>
+      <c r="O154" s="37"/>
+      <c r="P154" s="37"/>
+      <c r="Q154" s="37"/>
+    </row>
+    <row r="155" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D155" s="37"/>
+      <c r="F155" s="37"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="37"/>
+      <c r="O155" s="37"/>
+      <c r="P155" s="37"/>
+      <c r="Q155" s="37"/>
+    </row>
+    <row r="156" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="37"/>
+      <c r="O156" s="37"/>
+      <c r="P156" s="37"/>
+      <c r="Q156" s="37"/>
+    </row>
+    <row r="157" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D157" s="37"/>
+      <c r="F157" s="37"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="37"/>
+      <c r="O157" s="37"/>
+      <c r="P157" s="37"/>
+      <c r="Q157" s="37"/>
+    </row>
+    <row r="158" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D158" s="37"/>
+      <c r="F158" s="37"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="37"/>
+      <c r="O158" s="37"/>
+      <c r="P158" s="37"/>
+      <c r="Q158" s="37"/>
+    </row>
+    <row r="159" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D159" s="37"/>
+      <c r="F159" s="37"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="37"/>
+      <c r="O159" s="37"/>
+      <c r="P159" s="37"/>
+      <c r="Q159" s="37"/>
+    </row>
+    <row r="160" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D160" s="37"/>
+      <c r="F160" s="37"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="37"/>
+      <c r="O160" s="37"/>
+      <c r="P160" s="37"/>
+      <c r="Q160" s="37"/>
+    </row>
+    <row r="161" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D161" s="37"/>
+      <c r="F161" s="37"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="37"/>
+      <c r="O161" s="37"/>
+      <c r="P161" s="37"/>
+      <c r="Q161" s="37"/>
+    </row>
+    <row r="162" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="37"/>
+      <c r="O162" s="37"/>
+      <c r="P162" s="37"/>
+      <c r="Q162" s="37"/>
+    </row>
+    <row r="163" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D163" s="37"/>
+      <c r="F163" s="37"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="37"/>
+      <c r="O163" s="37"/>
+      <c r="P163" s="37"/>
+      <c r="Q163" s="37"/>
+    </row>
+    <row r="164" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="37"/>
+      <c r="O164" s="37"/>
+      <c r="P164" s="37"/>
+      <c r="Q164" s="37"/>
+    </row>
+    <row r="165" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D165" s="37"/>
+      <c r="F165" s="37"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="37"/>
+      <c r="O165" s="37"/>
+      <c r="P165" s="37"/>
+      <c r="Q165" s="37"/>
+    </row>
+    <row r="166" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D166" s="37"/>
+      <c r="F166" s="37"/>
+      <c r="H166" s="21"/>
+      <c r="I166" s="37"/>
+      <c r="O166" s="37"/>
+      <c r="P166" s="37"/>
+      <c r="Q166" s="37"/>
+    </row>
+    <row r="167" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D167" s="37"/>
+      <c r="F167" s="37"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="37"/>
+      <c r="O167" s="37"/>
+      <c r="P167" s="37"/>
+      <c r="Q167" s="37"/>
+    </row>
+    <row r="168" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D168" s="37"/>
+      <c r="F168" s="37"/>
+      <c r="H168" s="21"/>
+      <c r="I168" s="37"/>
+      <c r="O168" s="37"/>
+      <c r="P168" s="37"/>
+      <c r="Q168" s="37"/>
+    </row>
+    <row r="169" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D169" s="37"/>
+      <c r="F169" s="37"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="37"/>
+      <c r="O169" s="37"/>
+      <c r="P169" s="37"/>
+      <c r="Q169" s="37"/>
+    </row>
+    <row r="170" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D170" s="37"/>
+      <c r="F170" s="37"/>
+      <c r="H170" s="21"/>
+      <c r="I170" s="37"/>
+      <c r="O170" s="37"/>
+      <c r="P170" s="37"/>
+      <c r="Q170" s="37"/>
+    </row>
+    <row r="171" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D171" s="37"/>
+      <c r="F171" s="37"/>
+      <c r="H171" s="21"/>
+      <c r="I171" s="37"/>
+      <c r="O171" s="37"/>
+      <c r="P171" s="37"/>
+      <c r="Q171" s="37"/>
+    </row>
+    <row r="172" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D172" s="37"/>
+      <c r="F172" s="37"/>
+      <c r="H172" s="21"/>
+      <c r="I172" s="37"/>
+      <c r="O172" s="37"/>
+      <c r="P172" s="37"/>
+      <c r="Q172" s="37"/>
+    </row>
+    <row r="173" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D173" s="37"/>
+      <c r="F173" s="37"/>
+      <c r="H173" s="21"/>
+      <c r="I173" s="37"/>
+      <c r="O173" s="37"/>
+      <c r="P173" s="37"/>
+      <c r="Q173" s="37"/>
+    </row>
+    <row r="174" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D174" s="37"/>
+      <c r="F174" s="37"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="37"/>
+      <c r="O174" s="37"/>
+      <c r="P174" s="37"/>
+      <c r="Q174" s="37"/>
+    </row>
+    <row r="175" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D175" s="37"/>
+      <c r="F175" s="37"/>
+      <c r="H175" s="21"/>
+      <c r="I175" s="37"/>
+      <c r="O175" s="37"/>
+      <c r="P175" s="37"/>
+      <c r="Q175" s="37"/>
+    </row>
+    <row r="176" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D176" s="37"/>
+      <c r="F176" s="37"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="37"/>
+      <c r="O176" s="37"/>
+      <c r="P176" s="37"/>
+      <c r="Q176" s="37"/>
+    </row>
+    <row r="177" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D177" s="37"/>
+      <c r="F177" s="37"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="37"/>
+      <c r="O177" s="37"/>
+      <c r="P177" s="37"/>
+      <c r="Q177" s="37"/>
+    </row>
+    <row r="178" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D178" s="37"/>
+      <c r="F178" s="37"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="37"/>
+      <c r="O178" s="37"/>
+      <c r="P178" s="37"/>
+      <c r="Q178" s="37"/>
+    </row>
+    <row r="179" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D179" s="37"/>
+      <c r="F179" s="37"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="37"/>
+      <c r="O179" s="37"/>
+      <c r="P179" s="37"/>
+      <c r="Q179" s="37"/>
+    </row>
+    <row r="180" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D180" s="37"/>
+      <c r="F180" s="37"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="37"/>
+      <c r="O180" s="37"/>
+      <c r="P180" s="37"/>
+      <c r="Q180" s="37"/>
+    </row>
+    <row r="181" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D181" s="37"/>
+      <c r="F181" s="37"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="37"/>
+      <c r="O181" s="37"/>
+      <c r="P181" s="37"/>
+      <c r="Q181" s="37"/>
+    </row>
+    <row r="182" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D182" s="37"/>
+      <c r="F182" s="37"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="37"/>
+      <c r="O182" s="37"/>
+      <c r="P182" s="37"/>
+      <c r="Q182" s="37"/>
+    </row>
+    <row r="183" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D183" s="37"/>
+      <c r="F183" s="37"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="37"/>
+      <c r="O183" s="37"/>
+      <c r="P183" s="37"/>
+      <c r="Q183" s="37"/>
+    </row>
+    <row r="184" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D184" s="37"/>
+      <c r="F184" s="37"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="37"/>
+      <c r="O184" s="37"/>
+      <c r="P184" s="37"/>
+      <c r="Q184" s="37"/>
+    </row>
+    <row r="185" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D185" s="37"/>
+      <c r="F185" s="37"/>
+      <c r="H185" s="21"/>
+      <c r="I185" s="37"/>
+      <c r="O185" s="37"/>
+      <c r="P185" s="37"/>
+      <c r="Q185" s="37"/>
+    </row>
+    <row r="186" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D186" s="37"/>
+      <c r="F186" s="37"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="37"/>
+      <c r="O186" s="37"/>
+      <c r="P186" s="37"/>
+      <c r="Q186" s="37"/>
+    </row>
+    <row r="187" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D187" s="37"/>
+      <c r="F187" s="37"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="37"/>
+      <c r="O187" s="37"/>
+      <c r="P187" s="37"/>
+      <c r="Q187" s="37"/>
+    </row>
+    <row r="188" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D188" s="37"/>
+      <c r="F188" s="37"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="37"/>
+      <c r="O188" s="37"/>
+      <c r="P188" s="37"/>
+      <c r="Q188" s="37"/>
+    </row>
+    <row r="189" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D189" s="37"/>
+      <c r="F189" s="37"/>
+      <c r="H189" s="21"/>
+      <c r="I189" s="37"/>
+      <c r="O189" s="37"/>
+      <c r="P189" s="37"/>
+      <c r="Q189" s="37"/>
+    </row>
+    <row r="190" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D190" s="37"/>
+      <c r="F190" s="37"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="37"/>
+      <c r="O190" s="37"/>
+      <c r="P190" s="37"/>
+      <c r="Q190" s="37"/>
+    </row>
+    <row r="191" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D191" s="37"/>
+      <c r="F191" s="37"/>
+      <c r="H191" s="21"/>
+      <c r="I191" s="37"/>
+      <c r="O191" s="37"/>
+      <c r="P191" s="37"/>
+      <c r="Q191" s="37"/>
+    </row>
+    <row r="192" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D192" s="37"/>
+      <c r="F192" s="37"/>
+      <c r="H192" s="21"/>
+      <c r="I192" s="37"/>
+      <c r="O192" s="37"/>
+      <c r="P192" s="37"/>
+      <c r="Q192" s="37"/>
+    </row>
+    <row r="193" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D193" s="37"/>
+      <c r="F193" s="37"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="37"/>
+      <c r="O193" s="37"/>
+      <c r="P193" s="37"/>
+      <c r="Q193" s="37"/>
+    </row>
+    <row r="194" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D194" s="37"/>
+      <c r="F194" s="37"/>
+      <c r="H194" s="21"/>
+      <c r="I194" s="37"/>
+      <c r="O194" s="37"/>
+      <c r="P194" s="37"/>
+      <c r="Q194" s="37"/>
+    </row>
+    <row r="195" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D195" s="37"/>
+      <c r="F195" s="37"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="37"/>
+      <c r="O195" s="37"/>
+      <c r="P195" s="37"/>
+      <c r="Q195" s="37"/>
+    </row>
+    <row r="196" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D196" s="37"/>
+      <c r="F196" s="37"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="37"/>
+      <c r="O196" s="37"/>
+      <c r="P196" s="37"/>
+      <c r="Q196" s="37"/>
+    </row>
+    <row r="197" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D197" s="37"/>
+      <c r="F197" s="37"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="37"/>
+      <c r="O197" s="37"/>
+      <c r="P197" s="37"/>
+      <c r="Q197" s="37"/>
+    </row>
+    <row r="198" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D198" s="37"/>
+      <c r="F198" s="37"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="37"/>
+      <c r="O198" s="37"/>
+      <c r="P198" s="37"/>
+      <c r="Q198" s="37"/>
+    </row>
+    <row r="199" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D199" s="37"/>
+      <c r="F199" s="37"/>
+      <c r="H199" s="21"/>
+      <c r="I199" s="37"/>
+      <c r="O199" s="37"/>
+      <c r="P199" s="37"/>
+      <c r="Q199" s="37"/>
+    </row>
+    <row r="200" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D200" s="37"/>
+      <c r="F200" s="37"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="37"/>
+      <c r="O200" s="37"/>
+      <c r="P200" s="37"/>
+      <c r="Q200" s="37"/>
+    </row>
+    <row r="201" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D201" s="37"/>
+      <c r="F201" s="37"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="37"/>
+      <c r="O201" s="37"/>
+      <c r="P201" s="37"/>
+      <c r="Q201" s="37"/>
+    </row>
+    <row r="202" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D202" s="37"/>
+      <c r="F202" s="37"/>
+      <c r="H202" s="21"/>
+      <c r="I202" s="37"/>
+      <c r="O202" s="37"/>
+      <c r="P202" s="37"/>
+      <c r="Q202" s="37"/>
+    </row>
+    <row r="203" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D203" s="37"/>
+      <c r="F203" s="37"/>
+      <c r="H203" s="21"/>
+      <c r="I203" s="37"/>
+      <c r="O203" s="37"/>
+      <c r="P203" s="37"/>
+      <c r="Q203" s="37"/>
+    </row>
+    <row r="204" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D204" s="37"/>
+      <c r="F204" s="37"/>
+      <c r="H204" s="21"/>
+      <c r="I204" s="37"/>
+      <c r="O204" s="37"/>
+      <c r="P204" s="37"/>
+      <c r="Q204" s="37"/>
+    </row>
+    <row r="205" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D205" s="37"/>
+      <c r="F205" s="37"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="37"/>
+      <c r="O205" s="37"/>
+      <c r="P205" s="37"/>
+      <c r="Q205" s="37"/>
+    </row>
+    <row r="206" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D206" s="37"/>
+      <c r="F206" s="37"/>
+      <c r="H206" s="21"/>
+      <c r="I206" s="37"/>
+      <c r="O206" s="37"/>
+      <c r="P206" s="37"/>
+      <c r="Q206" s="37"/>
+    </row>
+    <row r="207" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D207" s="37"/>
+      <c r="F207" s="37"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="37"/>
+      <c r="O207" s="37"/>
+      <c r="P207" s="37"/>
+      <c r="Q207" s="37"/>
+    </row>
+    <row r="208" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D208" s="37"/>
+      <c r="F208" s="37"/>
+      <c r="H208" s="21"/>
+      <c r="I208" s="37"/>
+      <c r="O208" s="37"/>
+      <c r="P208" s="37"/>
+      <c r="Q208" s="37"/>
+    </row>
+    <row r="209" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D209" s="37"/>
+      <c r="F209" s="37"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="37"/>
+      <c r="O209" s="37"/>
+      <c r="P209" s="37"/>
+      <c r="Q209" s="37"/>
+    </row>
+    <row r="210" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D210" s="37"/>
+      <c r="F210" s="37"/>
+      <c r="H210" s="21"/>
+      <c r="I210" s="37"/>
+      <c r="O210" s="37"/>
+      <c r="P210" s="37"/>
+      <c r="Q210" s="37"/>
+    </row>
+    <row r="211" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D211" s="37"/>
+      <c r="F211" s="37"/>
+      <c r="H211" s="21"/>
+      <c r="I211" s="37"/>
+      <c r="O211" s="37"/>
+      <c r="P211" s="37"/>
+      <c r="Q211" s="37"/>
+    </row>
+    <row r="212" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D212" s="37"/>
+      <c r="F212" s="37"/>
+      <c r="H212" s="21"/>
+      <c r="I212" s="37"/>
+      <c r="O212" s="37"/>
+      <c r="P212" s="37"/>
+      <c r="Q212" s="37"/>
+    </row>
+    <row r="213" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D213" s="37"/>
+      <c r="F213" s="37"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="37"/>
+      <c r="O213" s="37"/>
+      <c r="P213" s="37"/>
+      <c r="Q213" s="37"/>
+    </row>
+    <row r="214" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D214" s="37"/>
+      <c r="F214" s="37"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="37"/>
+      <c r="O214" s="37"/>
+      <c r="P214" s="37"/>
+      <c r="Q214" s="37"/>
+    </row>
+    <row r="215" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D215" s="37"/>
+      <c r="F215" s="37"/>
+      <c r="H215" s="21"/>
+      <c r="I215" s="37"/>
+      <c r="O215" s="37"/>
+      <c r="P215" s="37"/>
+      <c r="Q215" s="37"/>
+    </row>
+    <row r="216" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D216" s="37"/>
+      <c r="F216" s="37"/>
+      <c r="H216" s="21"/>
+      <c r="I216" s="37"/>
+      <c r="O216" s="37"/>
+      <c r="P216" s="37"/>
+      <c r="Q216" s="37"/>
+    </row>
+    <row r="217" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D217" s="37"/>
+      <c r="F217" s="37"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="37"/>
+      <c r="O217" s="37"/>
+      <c r="P217" s="37"/>
+      <c r="Q217" s="37"/>
+    </row>
+    <row r="218" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D218" s="37"/>
+      <c r="F218" s="37"/>
+      <c r="H218" s="21"/>
+      <c r="I218" s="37"/>
+      <c r="O218" s="37"/>
+      <c r="P218" s="37"/>
+      <c r="Q218" s="37"/>
+    </row>
+    <row r="219" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D219" s="37"/>
+      <c r="F219" s="37"/>
+      <c r="H219" s="21"/>
+      <c r="I219" s="37"/>
+      <c r="O219" s="37"/>
+      <c r="P219" s="37"/>
+      <c r="Q219" s="37"/>
+    </row>
+    <row r="220" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D220" s="37"/>
+      <c r="F220" s="37"/>
+      <c r="H220" s="21"/>
+      <c r="I220" s="37"/>
+      <c r="O220" s="37"/>
+      <c r="P220" s="37"/>
+      <c r="Q220" s="37"/>
+    </row>
+    <row r="221" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D221" s="37"/>
+      <c r="F221" s="37"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="37"/>
+      <c r="O221" s="37"/>
+      <c r="P221" s="37"/>
+      <c r="Q221" s="37"/>
+    </row>
+    <row r="222" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D222" s="37"/>
+      <c r="F222" s="37"/>
+      <c r="H222" s="21"/>
+      <c r="I222" s="37"/>
+      <c r="O222" s="37"/>
+      <c r="P222" s="37"/>
+      <c r="Q222" s="37"/>
+    </row>
+    <row r="223" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D223" s="37"/>
+      <c r="F223" s="37"/>
+      <c r="H223" s="21"/>
+      <c r="I223" s="37"/>
+      <c r="O223" s="37"/>
+      <c r="P223" s="37"/>
+      <c r="Q223" s="37"/>
+    </row>
+    <row r="224" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D224" s="37"/>
+      <c r="F224" s="37"/>
+      <c r="H224" s="21"/>
+      <c r="I224" s="37"/>
+      <c r="O224" s="37"/>
+      <c r="P224" s="37"/>
+      <c r="Q224" s="37"/>
+    </row>
+    <row r="225" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D225" s="37"/>
+      <c r="F225" s="37"/>
+      <c r="H225" s="21"/>
+      <c r="I225" s="37"/>
+      <c r="O225" s="37"/>
+      <c r="P225" s="37"/>
+      <c r="Q225" s="37"/>
+    </row>
+    <row r="226" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D226" s="37"/>
+      <c r="F226" s="37"/>
+      <c r="H226" s="21"/>
+      <c r="I226" s="37"/>
+      <c r="O226" s="37"/>
+      <c r="P226" s="37"/>
+      <c r="Q226" s="37"/>
+    </row>
+    <row r="227" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D227" s="37"/>
+      <c r="F227" s="37"/>
+      <c r="H227" s="21"/>
+      <c r="I227" s="37"/>
+      <c r="O227" s="37"/>
+      <c r="P227" s="37"/>
+      <c r="Q227" s="37"/>
+    </row>
+    <row r="228" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D228" s="37"/>
+      <c r="F228" s="37"/>
+      <c r="H228" s="21"/>
+      <c r="I228" s="37"/>
+      <c r="O228" s="37"/>
+      <c r="P228" s="37"/>
+      <c r="Q228" s="37"/>
+    </row>
+    <row r="229" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D229" s="37"/>
+      <c r="F229" s="37"/>
+      <c r="H229" s="21"/>
+      <c r="I229" s="37"/>
+      <c r="O229" s="37"/>
+      <c r="P229" s="37"/>
+      <c r="Q229" s="37"/>
+    </row>
+    <row r="230" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D230" s="37"/>
+      <c r="F230" s="37"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="37"/>
+      <c r="O230" s="37"/>
+      <c r="P230" s="37"/>
+      <c r="Q230" s="37"/>
+    </row>
+    <row r="231" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D231" s="37"/>
+      <c r="F231" s="37"/>
+      <c r="H231" s="21"/>
+      <c r="I231" s="37"/>
+      <c r="O231" s="37"/>
+      <c r="P231" s="37"/>
+      <c r="Q231" s="37"/>
+    </row>
+    <row r="232" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D232" s="37"/>
+      <c r="F232" s="37"/>
+      <c r="H232" s="21"/>
+      <c r="I232" s="37"/>
+      <c r="O232" s="37"/>
+      <c r="P232" s="37"/>
+      <c r="Q232" s="37"/>
+    </row>
+    <row r="233" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D233" s="37"/>
+      <c r="F233" s="37"/>
+      <c r="H233" s="21"/>
+      <c r="I233" s="37"/>
+      <c r="O233" s="37"/>
+      <c r="P233" s="37"/>
+      <c r="Q233" s="37"/>
+    </row>
+    <row r="234" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D234" s="37"/>
+      <c r="F234" s="37"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="37"/>
+      <c r="O234" s="37"/>
+      <c r="P234" s="37"/>
+      <c r="Q234" s="37"/>
+    </row>
+    <row r="235" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D235" s="37"/>
+      <c r="F235" s="37"/>
+      <c r="H235" s="21"/>
+      <c r="I235" s="37"/>
+      <c r="O235" s="37"/>
+      <c r="P235" s="37"/>
+      <c r="Q235" s="37"/>
+    </row>
+    <row r="236" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D236" s="37"/>
+      <c r="F236" s="37"/>
+      <c r="H236" s="21"/>
+      <c r="I236" s="37"/>
+      <c r="O236" s="37"/>
+      <c r="P236" s="37"/>
+      <c r="Q236" s="37"/>
+    </row>
+    <row r="237" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D237" s="37"/>
+      <c r="F237" s="37"/>
+      <c r="H237" s="21"/>
+      <c r="I237" s="37"/>
+      <c r="O237" s="37"/>
+      <c r="P237" s="37"/>
+      <c r="Q237" s="37"/>
+    </row>
+    <row r="238" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D238" s="37"/>
+      <c r="F238" s="37"/>
+      <c r="H238" s="21"/>
+      <c r="I238" s="37"/>
+      <c r="O238" s="37"/>
+      <c r="P238" s="37"/>
+      <c r="Q238" s="37"/>
+    </row>
+    <row r="239" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D239" s="37"/>
+      <c r="F239" s="37"/>
+      <c r="H239" s="21"/>
+      <c r="I239" s="37"/>
+      <c r="O239" s="37"/>
+      <c r="P239" s="37"/>
+      <c r="Q239" s="37"/>
+    </row>
+    <row r="240" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D240" s="37"/>
+      <c r="F240" s="37"/>
+      <c r="H240" s="21"/>
+      <c r="I240" s="37"/>
+      <c r="O240" s="37"/>
+      <c r="P240" s="37"/>
+      <c r="Q240" s="37"/>
+    </row>
+    <row r="241" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D241" s="37"/>
+      <c r="F241" s="37"/>
+      <c r="H241" s="21"/>
+      <c r="I241" s="37"/>
+      <c r="O241" s="37"/>
+      <c r="P241" s="37"/>
+      <c r="Q241" s="37"/>
+    </row>
+    <row r="242" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D242" s="37"/>
+      <c r="F242" s="37"/>
+      <c r="H242" s="21"/>
+      <c r="I242" s="37"/>
+      <c r="O242" s="37"/>
+      <c r="P242" s="37"/>
+      <c r="Q242" s="37"/>
+    </row>
+    <row r="243" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D243" s="37"/>
+      <c r="F243" s="37"/>
+      <c r="H243" s="21"/>
+      <c r="I243" s="37"/>
+      <c r="O243" s="37"/>
+      <c r="P243" s="37"/>
+      <c r="Q243" s="37"/>
+    </row>
+    <row r="244" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D244" s="37"/>
+      <c r="F244" s="37"/>
+      <c r="H244" s="21"/>
+      <c r="I244" s="37"/>
+      <c r="O244" s="37"/>
+      <c r="P244" s="37"/>
+      <c r="Q244" s="37"/>
+    </row>
+    <row r="245" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D245" s="37"/>
+      <c r="F245" s="37"/>
+      <c r="H245" s="21"/>
+      <c r="I245" s="37"/>
+      <c r="O245" s="37"/>
+      <c r="P245" s="37"/>
+      <c r="Q245" s="37"/>
+    </row>
+    <row r="246" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D246" s="37"/>
+      <c r="F246" s="37"/>
+      <c r="H246" s="21"/>
+      <c r="I246" s="37"/>
+      <c r="O246" s="37"/>
+      <c r="P246" s="37"/>
+      <c r="Q246" s="37"/>
+    </row>
+    <row r="247" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D247" s="37"/>
+      <c r="F247" s="37"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="37"/>
+      <c r="O247" s="37"/>
+      <c r="P247" s="37"/>
+      <c r="Q247" s="37"/>
+    </row>
+    <row r="248" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D248" s="37"/>
+      <c r="F248" s="37"/>
+      <c r="H248" s="21"/>
+      <c r="I248" s="37"/>
+      <c r="O248" s="37"/>
+      <c r="P248" s="37"/>
+      <c r="Q248" s="37"/>
+    </row>
+    <row r="249" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D249" s="37"/>
+      <c r="F249" s="37"/>
+      <c r="H249" s="21"/>
+      <c r="I249" s="37"/>
+      <c r="O249" s="37"/>
+      <c r="P249" s="37"/>
+      <c r="Q249" s="37"/>
+    </row>
+    <row r="250" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D250" s="37"/>
+      <c r="F250" s="37"/>
+      <c r="H250" s="21"/>
+      <c r="I250" s="37"/>
+      <c r="O250" s="37"/>
+      <c r="P250" s="37"/>
+      <c r="Q250" s="37"/>
+    </row>
+    <row r="251" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D251" s="37"/>
+      <c r="F251" s="37"/>
+      <c r="H251" s="21"/>
+      <c r="I251" s="37"/>
+      <c r="O251" s="37"/>
+      <c r="P251" s="37"/>
+      <c r="Q251" s="37"/>
+    </row>
+    <row r="252" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D252" s="37"/>
+      <c r="F252" s="37"/>
+      <c r="H252" s="21"/>
+      <c r="I252" s="37"/>
+      <c r="O252" s="37"/>
+      <c r="P252" s="37"/>
+      <c r="Q252" s="37"/>
+    </row>
+    <row r="253" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D253" s="37"/>
+      <c r="F253" s="37"/>
+      <c r="H253" s="21"/>
+      <c r="I253" s="37"/>
+      <c r="O253" s="37"/>
+      <c r="P253" s="37"/>
+      <c r="Q253" s="37"/>
+    </row>
+    <row r="254" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D254" s="37"/>
+      <c r="F254" s="37"/>
+      <c r="H254" s="21"/>
+      <c r="I254" s="37"/>
+      <c r="O254" s="37"/>
+      <c r="P254" s="37"/>
+      <c r="Q254" s="37"/>
+    </row>
+    <row r="255" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D255" s="37"/>
+      <c r="F255" s="37"/>
+      <c r="H255" s="21"/>
+      <c r="I255" s="37"/>
+      <c r="O255" s="37"/>
+      <c r="P255" s="37"/>
+      <c r="Q255" s="37"/>
+    </row>
+    <row r="256" spans="4:17" x14ac:dyDescent="0.5">
+      <c r="D256" s="37"/>
+      <c r="F256" s="37"/>
+      <c r="H256" s="21"/>
+      <c r="I256" s="37"/>
+      <c r="O256" s="37"/>
+      <c r="P256" s="37"/>
+      <c r="Q256" s="37"/>
+    </row>
+    <row r="257" spans="4:22" x14ac:dyDescent="0.5">
+      <c r="D257" s="37"/>
+      <c r="F257" s="37"/>
+      <c r="H257" s="21"/>
+      <c r="I257" s="37"/>
+      <c r="O257" s="37"/>
+      <c r="P257" s="37"/>
+      <c r="Q257" s="37"/>
+    </row>
+    <row r="258" spans="4:22" x14ac:dyDescent="0.5">
+      <c r="D258" s="37"/>
+      <c r="F258" s="37"/>
+      <c r="H258" s="21"/>
+      <c r="I258" s="37"/>
+      <c r="O258" s="37"/>
+      <c r="P258" s="37"/>
+      <c r="Q258" s="37"/>
+    </row>
+    <row r="266" spans="4:22" x14ac:dyDescent="0.5">
+      <c r="P266" s="65"/>
+      <c r="Q266" s="65"/>
+      <c r="R266" s="65"/>
+      <c r="S266" s="65"/>
+      <c r="T266" s="65"/>
+      <c r="U266" s="65"/>
+      <c r="V266" s="65"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6347,6 +6315,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6397,27 +6371,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.3984375" style="1"/>
+    <col min="14" max="14" width="24.265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6434,7 +6408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6458,7 +6432,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6477,7 +6451,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -6496,7 +6470,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -6512,7 +6486,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -6529,7 +6503,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -6546,7 +6520,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -6561,7 +6535,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -6576,7 +6550,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6591,7 +6565,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6606,7 +6580,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6621,7 +6595,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -6636,7 +6610,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6651,7 +6625,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6666,7 +6640,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6681,7 +6655,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -6695,7 +6669,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -6709,7 +6683,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -6723,7 +6697,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -6737,7 +6711,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6752,7 +6726,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6767,7 +6741,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6782,7 +6756,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -6797,7 +6771,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -6812,7 +6786,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -6827,7 +6801,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -6842,7 +6816,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6857,7 +6831,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -6872,7 +6846,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -6887,7 +6861,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -6902,7 +6876,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -6917,7 +6891,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -6932,7 +6906,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -6947,7 +6921,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -6962,7 +6936,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -6977,7 +6951,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -6992,7 +6966,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -7007,7 +6981,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -7022,7 +6996,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -7037,7 +7011,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -7052,7 +7026,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -7067,7 +7041,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -7082,7 +7056,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -7097,7 +7071,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -7112,7 +7086,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -7127,7 +7101,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -7142,7 +7116,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -7157,7 +7131,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -7169,7 +7143,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -7181,7 +7155,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -7194,7 +7168,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -7207,7 +7181,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -7220,7 +7194,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -7233,7 +7207,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -7246,7 +7220,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -7259,7 +7233,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -7272,7 +7246,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -7285,7 +7259,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -7298,7 +7272,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -7311,7 +7285,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -7324,7 +7298,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -7337,7 +7311,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -7350,7 +7324,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -7363,7 +7337,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -7376,7 +7350,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -7389,7 +7363,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -7402,7 +7376,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -7415,7 +7389,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -7428,7 +7402,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -7441,7 +7415,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7455,7 +7429,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7469,7 +7443,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7483,7 +7457,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7497,7 +7471,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7511,7 +7485,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7525,7 +7499,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7539,7 +7513,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7553,7 +7527,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7567,7 +7541,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7581,7 +7555,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7595,7 +7569,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7609,7 +7583,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7623,7 +7597,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7637,7 +7611,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7651,7 +7625,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7665,7 +7639,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7679,7 +7653,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7693,7 +7667,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7707,7 +7681,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7721,7 +7695,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7735,7 +7709,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7749,7 +7723,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7763,7 +7737,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7777,7 +7751,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7791,7 +7765,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7805,7 +7779,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7819,7 +7793,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7833,7 +7807,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7847,7 +7821,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7861,7 +7835,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7875,7 +7849,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7889,7 +7863,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7903,7 +7877,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7917,7 +7891,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7931,7 +7905,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7945,7 +7919,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7959,7 +7933,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -7973,7 +7947,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -7987,7 +7961,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -8001,7 +7975,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -8015,7 +7989,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -8029,7 +8003,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -8043,7 +8017,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -8057,7 +8031,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -8071,7 +8045,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -8085,7 +8059,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -8099,7 +8073,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -8113,7 +8087,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -8127,7 +8101,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -8141,7 +8115,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -8155,7 +8129,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -8169,7 +8143,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8183,7 +8157,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8197,7 +8171,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8211,7 +8185,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -8225,7 +8199,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -8239,7 +8213,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8253,7 +8227,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8267,7 +8241,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8281,7 +8255,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8295,7 +8269,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8309,7 +8283,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado08/guion07/Escaleta_LE_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/Escaleta_LE_08_07_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado08\guion07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19172" windowHeight="8157"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -1281,83 +1281,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1387,6 +1312,81 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1693,127 +1693,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H44"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3:P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="17.46484375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="35.86328125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="36.265625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="26.1328125" style="64" customWidth="1"/>
-    <col min="7" max="7" width="41.73046875" style="37" customWidth="1"/>
-    <col min="8" max="8" width="9.73046875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.3984375" style="64" customWidth="1"/>
-    <col min="10" max="10" width="41.86328125" style="37" customWidth="1"/>
-    <col min="11" max="11" width="16.1328125" style="37" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" style="37" customWidth="1"/>
-    <col min="13" max="14" width="9.265625" style="37" customWidth="1"/>
-    <col min="15" max="15" width="39.265625" style="64" customWidth="1"/>
-    <col min="16" max="16" width="16.59765625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="20.3984375" style="64" customWidth="1"/>
-    <col min="18" max="18" width="23" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.86328125" style="37" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.73046875" style="37" customWidth="1"/>
-    <col min="22" max="16384" width="11.3984375" style="37"/>
+    <col min="1" max="1" width="9.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="41.85546875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="24" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="39.28515625" style="39" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="39" customWidth="1"/>
+    <col min="18" max="18" width="23" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="24" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="60" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="46" t="s">
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="48"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.25" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="26" t="s">
         <v>214</v>
       </c>
       <c r="H3" s="22">
@@ -1837,7 +1837,7 @@
       <c r="I3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="27" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -1850,11 +1850,11 @@
       <c r="N3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="28" t="s">
         <v>316</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="19">
         <v>6</v>
@@ -1865,14 +1865,14 @@
       <c r="S3" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="T3" s="29" t="s">
         <v>285</v>
       </c>
       <c r="U3" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1885,9 +1885,9 @@
       <c r="D4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="51" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="26" t="s">
         <v>139</v>
       </c>
       <c r="H4" s="16">
@@ -1896,7 +1896,7 @@
       <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="32" t="s">
         <v>215</v>
       </c>
       <c r="K4" s="12" t="s">
@@ -1909,11 +1909,11 @@
       <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="31" t="s">
         <v>206</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="19">
         <v>6</v>
@@ -1924,14 +1924,14 @@
       <c r="S4" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T4" s="54" t="s">
+      <c r="T4" s="29" t="s">
         <v>287</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1944,9 +1944,9 @@
       <c r="D5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="51" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="26" t="s">
         <v>207</v>
       </c>
       <c r="H5" s="16">
@@ -1955,7 +1955,7 @@
       <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="32" t="s">
         <v>276</v>
       </c>
       <c r="K5" s="12" t="s">
@@ -1968,11 +1968,11 @@
       <c r="N5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="31" t="s">
         <v>281</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="19">
         <v>6</v>
@@ -1983,14 +1983,14 @@
       <c r="S5" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="T5" s="29" t="s">
         <v>288</v>
       </c>
       <c r="U5" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2003,9 +2003,9 @@
       <c r="D6" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="51" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="26" t="s">
         <v>216</v>
       </c>
       <c r="H6" s="22">
@@ -2014,7 +2014,7 @@
       <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="32" t="s">
         <v>229</v>
       </c>
       <c r="K6" s="12" t="s">
@@ -2027,11 +2027,11 @@
       <c r="N6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="31" t="s">
         <v>230</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="19">
         <v>6</v>
@@ -2042,14 +2042,14 @@
       <c r="S6" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T6" s="54" t="s">
+      <c r="T6" s="29" t="s">
         <v>289</v>
       </c>
       <c r="U6" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2062,9 +2062,9 @@
       <c r="D7" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="51" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="26" t="s">
         <v>145</v>
       </c>
       <c r="H7" s="16">
@@ -2073,7 +2073,7 @@
       <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="32" t="s">
         <v>231</v>
       </c>
       <c r="K7" s="12" t="s">
@@ -2086,11 +2086,11 @@
       <c r="N7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="56" t="s">
+      <c r="O7" s="31" t="s">
         <v>232</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="19">
         <v>6</v>
@@ -2101,14 +2101,14 @@
       <c r="S7" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T7" s="54" t="s">
+      <c r="T7" s="29" t="s">
         <v>290</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2121,9 +2121,9 @@
       <c r="D8" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="51" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="26" t="s">
         <v>262</v>
       </c>
       <c r="H8" s="16">
@@ -2132,7 +2132,7 @@
       <c r="I8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="32" t="s">
         <v>233</v>
       </c>
       <c r="K8" s="12" t="s">
@@ -2145,11 +2145,11 @@
       <c r="N8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="31" t="s">
         <v>234</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="19">
         <v>6</v>
@@ -2160,14 +2160,14 @@
       <c r="S8" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T8" s="54" t="s">
+      <c r="T8" s="29" t="s">
         <v>295</v>
       </c>
       <c r="U8" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -2180,11 +2180,11 @@
       <c r="D9" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="26" t="s">
         <v>219</v>
       </c>
       <c r="H9" s="22">
@@ -2193,7 +2193,7 @@
       <c r="I9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="32" t="s">
         <v>220</v>
       </c>
       <c r="K9" s="12" t="s">
@@ -2206,11 +2206,11 @@
       <c r="N9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="56" t="s">
+      <c r="O9" s="31" t="s">
         <v>317</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="19">
         <v>6</v>
@@ -2221,14 +2221,14 @@
       <c r="S9" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T9" s="54" t="s">
+      <c r="T9" s="29" t="s">
         <v>297</v>
       </c>
       <c r="U9" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2241,11 +2241,11 @@
       <c r="D10" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="26" t="s">
         <v>218</v>
       </c>
       <c r="H10" s="16">
@@ -2254,7 +2254,7 @@
       <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="32" t="s">
         <v>221</v>
       </c>
       <c r="K10" s="12" t="s">
@@ -2267,11 +2267,11 @@
         <v>56</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="56" t="s">
+      <c r="O10" s="31" t="s">
         <v>318</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="19">
         <v>6</v>
@@ -2282,14 +2282,14 @@
       <c r="S10" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="T10" s="54" t="s">
+      <c r="T10" s="29" t="s">
         <v>300</v>
       </c>
       <c r="U10" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2302,11 +2302,11 @@
       <c r="D11" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="26" t="s">
         <v>222</v>
       </c>
       <c r="H11" s="16">
@@ -2315,7 +2315,7 @@
       <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="32" t="s">
         <v>223</v>
       </c>
       <c r="K11" s="12" t="s">
@@ -2328,11 +2328,11 @@
       <c r="N11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="58" t="s">
+      <c r="O11" s="33" t="s">
         <v>277</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="19">
         <v>6</v>
@@ -2343,14 +2343,14 @@
       <c r="S11" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T11" s="54" t="s">
+      <c r="T11" s="29" t="s">
         <v>302</v>
       </c>
       <c r="U11" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2363,11 +2363,11 @@
       <c r="D12" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="26" t="s">
         <v>224</v>
       </c>
       <c r="H12" s="22">
@@ -2376,7 +2376,7 @@
       <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="32" t="s">
         <v>225</v>
       </c>
       <c r="K12" s="12" t="s">
@@ -2389,11 +2389,11 @@
       <c r="N12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="56" t="s">
+      <c r="O12" s="31" t="s">
         <v>282</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="19">
         <v>6</v>
@@ -2404,14 +2404,14 @@
       <c r="S12" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T12" s="54" t="s">
+      <c r="T12" s="29" t="s">
         <v>304</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -2424,11 +2424,11 @@
       <c r="D13" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="26" t="s">
         <v>226</v>
       </c>
       <c r="H13" s="16">
@@ -2437,7 +2437,7 @@
       <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="32" t="s">
         <v>227</v>
       </c>
       <c r="K13" s="12" t="s">
@@ -2450,11 +2450,11 @@
       <c r="N13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="56" t="s">
+      <c r="O13" s="31" t="s">
         <v>322</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="19">
         <v>6</v>
@@ -2465,14 +2465,14 @@
       <c r="S13" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T13" s="54" t="s">
+      <c r="T13" s="29" t="s">
         <v>307</v>
       </c>
       <c r="U13" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2485,11 +2485,11 @@
       <c r="D14" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="31"/>
+      <c r="G14" s="26" t="s">
         <v>228</v>
       </c>
       <c r="H14" s="16">
@@ -2498,7 +2498,7 @@
       <c r="I14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="32" t="s">
         <v>235</v>
       </c>
       <c r="K14" s="12" t="s">
@@ -2511,11 +2511,11 @@
       <c r="N14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O14" s="56" t="s">
+      <c r="O14" s="31" t="s">
         <v>236</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="19">
         <v>6</v>
@@ -2526,14 +2526,14 @@
       <c r="S14" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T14" s="54" t="s">
+      <c r="T14" s="29" t="s">
         <v>291</v>
       </c>
       <c r="U14" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -2546,11 +2546,11 @@
       <c r="D15" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="26" t="s">
         <v>129</v>
       </c>
       <c r="H15" s="22">
@@ -2559,7 +2559,7 @@
       <c r="I15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="32" t="s">
         <v>237</v>
       </c>
       <c r="K15" s="12" t="s">
@@ -2572,11 +2572,11 @@
         <v>55</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="56" t="s">
+      <c r="O15" s="31" t="s">
         <v>321</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="19">
         <v>6</v>
@@ -2587,14 +2587,14 @@
       <c r="S15" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="T15" s="54" t="s">
+      <c r="T15" s="29" t="s">
         <v>308</v>
       </c>
       <c r="U15" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2607,11 +2607,11 @@
       <c r="D16" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="31"/>
+      <c r="G16" s="26" t="s">
         <v>162</v>
       </c>
       <c r="H16" s="16">
@@ -2620,7 +2620,7 @@
       <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="57" t="s">
+      <c r="J16" s="32" t="s">
         <v>163</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="56" t="s">
+      <c r="O16" s="31" t="s">
         <v>128</v>
       </c>
       <c r="P16" s="16" t="s">
@@ -2646,14 +2646,14 @@
       <c r="S16" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="T16" s="54" t="s">
+      <c r="T16" s="29" t="s">
         <v>162</v>
       </c>
       <c r="U16" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -2666,13 +2666,13 @@
       <c r="D17" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="26" t="s">
         <v>238</v>
       </c>
       <c r="H17" s="16">
@@ -2681,7 +2681,7 @@
       <c r="I17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="32" t="s">
         <v>239</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -2694,7 +2694,7 @@
       <c r="N17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="56" t="s">
+      <c r="O17" s="31" t="s">
         <v>324</v>
       </c>
       <c r="P17" s="16" t="s">
@@ -2709,14 +2709,14 @@
       <c r="S17" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T17" s="54" t="s">
+      <c r="T17" s="29" t="s">
         <v>323</v>
       </c>
       <c r="U17" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2729,11 +2729,11 @@
       <c r="D18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="31"/>
+      <c r="G18" s="26" t="s">
         <v>165</v>
       </c>
       <c r="H18" s="22">
@@ -2742,7 +2742,7 @@
       <c r="I18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="57" t="s">
+      <c r="J18" s="32" t="s">
         <v>167</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="56" t="s">
+      <c r="O18" s="31" t="s">
         <v>128</v>
       </c>
       <c r="P18" s="16" t="s">
@@ -2768,14 +2768,14 @@
       <c r="S18" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="T18" s="54" t="s">
+      <c r="T18" s="29" t="s">
         <v>165</v>
       </c>
       <c r="U18" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2788,11 +2788,11 @@
       <c r="D19" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="51" t="s">
+      <c r="F19" s="31"/>
+      <c r="G19" s="26" t="s">
         <v>172</v>
       </c>
       <c r="H19" s="16">
@@ -2801,7 +2801,7 @@
       <c r="I19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="57" t="s">
+      <c r="J19" s="32" t="s">
         <v>173</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="56" t="s">
+      <c r="O19" s="31" t="s">
         <v>128</v>
       </c>
       <c r="P19" s="16" t="s">
@@ -2827,14 +2827,14 @@
       <c r="S19" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="T19" s="54" t="s">
+      <c r="T19" s="29" t="s">
         <v>175</v>
       </c>
       <c r="U19" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -2847,13 +2847,13 @@
       <c r="D20" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="26" t="s">
         <v>240</v>
       </c>
       <c r="H20" s="16">
@@ -2862,7 +2862,7 @@
       <c r="I20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="57" t="s">
+      <c r="J20" s="32" t="s">
         <v>241</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -2875,7 +2875,7 @@
       <c r="N20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="56" t="s">
+      <c r="O20" s="31" t="s">
         <v>242</v>
       </c>
       <c r="P20" s="16" t="s">
@@ -2890,14 +2890,14 @@
       <c r="S20" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T20" s="54" t="s">
+      <c r="T20" s="29" t="s">
         <v>326</v>
       </c>
       <c r="U20" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
@@ -2910,11 +2910,11 @@
       <c r="D21" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="51" t="s">
+      <c r="F21" s="31"/>
+      <c r="G21" s="26" t="s">
         <v>168</v>
       </c>
       <c r="H21" s="22">
@@ -2923,7 +2923,7 @@
       <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="32" t="s">
         <v>208</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="56" t="s">
+      <c r="O21" s="31" t="s">
         <v>128</v>
       </c>
       <c r="P21" s="16" t="s">
@@ -2949,14 +2949,14 @@
       <c r="S21" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="T21" s="54" t="s">
+      <c r="T21" s="29" t="s">
         <v>170</v>
       </c>
       <c r="U21" s="19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -2969,11 +2969,11 @@
       <c r="D22" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="59" t="s">
+      <c r="F22" s="31"/>
+      <c r="G22" s="34" t="s">
         <v>177</v>
       </c>
       <c r="H22" s="16">
@@ -2982,7 +2982,7 @@
       <c r="I22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="35" t="s">
         <v>181</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -2993,11 +2993,11 @@
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="56" t="s">
+      <c r="O22" s="31" t="s">
         <v>128</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="19">
         <v>9</v>
@@ -3008,14 +3008,14 @@
       <c r="S22" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="T22" s="54" t="s">
+      <c r="T22" s="29" t="s">
         <v>179</v>
       </c>
       <c r="U22" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -3028,11 +3028,11 @@
       <c r="D23" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="59" t="s">
+      <c r="F23" s="31"/>
+      <c r="G23" s="34" t="s">
         <v>209</v>
       </c>
       <c r="H23" s="16">
@@ -3041,7 +3041,7 @@
       <c r="I23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="60" t="s">
+      <c r="J23" s="35" t="s">
         <v>210</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -3052,11 +3052,11 @@
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="56" t="s">
+      <c r="O23" s="31" t="s">
         <v>128</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="19">
         <v>9</v>
@@ -3067,14 +3067,14 @@
       <c r="S23" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="T23" s="54" t="s">
+      <c r="T23" s="29" t="s">
         <v>182</v>
       </c>
       <c r="U23" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3087,11 +3087,11 @@
       <c r="D24" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="59" t="s">
+      <c r="F24" s="31"/>
+      <c r="G24" s="34" t="s">
         <v>245</v>
       </c>
       <c r="H24" s="22">
@@ -3100,7 +3100,7 @@
       <c r="I24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="60" t="s">
+      <c r="J24" s="35" t="s">
         <v>246</v>
       </c>
       <c r="K24" s="5" t="s">
@@ -3113,7 +3113,7 @@
       <c r="N24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O24" s="56" t="s">
+      <c r="O24" s="31" t="s">
         <v>263</v>
       </c>
       <c r="P24" s="16" t="s">
@@ -3128,14 +3128,14 @@
       <c r="S24" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T24" s="54" t="s">
+      <c r="T24" s="29" t="s">
         <v>292</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -3145,12 +3145,12 @@
       <c r="C25" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="59" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="34" t="s">
         <v>184</v>
       </c>
       <c r="H25" s="16">
@@ -3159,7 +3159,7 @@
       <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="57" t="s">
+      <c r="J25" s="32" t="s">
         <v>185</v>
       </c>
       <c r="K25" s="5" t="s">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="56" t="s">
+      <c r="O25" s="31" t="s">
         <v>128</v>
       </c>
       <c r="P25" s="16" t="s">
@@ -3185,14 +3185,14 @@
       <c r="S25" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="54" t="s">
+      <c r="T25" s="29" t="s">
         <v>184</v>
       </c>
       <c r="U25" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
@@ -3202,14 +3202,14 @@
       <c r="C26" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="51" t="s">
+      <c r="F26" s="31"/>
+      <c r="G26" s="26" t="s">
         <v>243</v>
       </c>
       <c r="H26" s="16">
@@ -3218,7 +3218,7 @@
       <c r="I26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="57" t="s">
+      <c r="J26" s="32" t="s">
         <v>244</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -3231,11 +3231,11 @@
       <c r="N26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="56" t="s">
+      <c r="O26" s="31" t="s">
         <v>264</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="19">
         <v>6</v>
@@ -3246,14 +3246,14 @@
       <c r="S26" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T26" s="54" t="s">
+      <c r="T26" s="29" t="s">
         <v>309</v>
       </c>
       <c r="U26" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
@@ -3263,14 +3263,14 @@
       <c r="C27" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="51" t="s">
+      <c r="F27" s="31"/>
+      <c r="G27" s="26" t="s">
         <v>265</v>
       </c>
       <c r="H27" s="22">
@@ -3279,7 +3279,7 @@
       <c r="I27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="57" t="s">
+      <c r="J27" s="32" t="s">
         <v>266</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -3292,7 +3292,7 @@
       <c r="N27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="56" t="s">
+      <c r="O27" s="31" t="s">
         <v>267</v>
       </c>
       <c r="P27" s="16" t="s">
@@ -3307,14 +3307,14 @@
       <c r="S27" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T27" s="54" t="s">
+      <c r="T27" s="29" t="s">
         <v>325</v>
       </c>
       <c r="U27" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
@@ -3324,14 +3324,14 @@
       <c r="C28" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="51" t="s">
+      <c r="F28" s="31"/>
+      <c r="G28" s="26" t="s">
         <v>189</v>
       </c>
       <c r="H28" s="16">
@@ -3340,7 +3340,7 @@
       <c r="I28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="57" t="s">
+      <c r="J28" s="32" t="s">
         <v>190</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="56" t="s">
+      <c r="O28" s="31" t="s">
         <v>128</v>
       </c>
       <c r="P28" s="16" t="s">
@@ -3366,14 +3366,14 @@
       <c r="S28" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="T28" s="54" t="s">
+      <c r="T28" s="29" t="s">
         <v>188</v>
       </c>
       <c r="U28" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -3383,14 +3383,14 @@
       <c r="C29" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="51" t="s">
+      <c r="F29" s="31"/>
+      <c r="G29" s="26" t="s">
         <v>201</v>
       </c>
       <c r="H29" s="16">
@@ -3399,7 +3399,7 @@
       <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="57" t="s">
+      <c r="J29" s="32" t="s">
         <v>212</v>
       </c>
       <c r="K29" s="5" t="s">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="56" t="s">
+      <c r="O29" s="31" t="s">
         <v>128</v>
       </c>
       <c r="P29" s="16" t="s">
@@ -3425,14 +3425,14 @@
       <c r="S29" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="T29" s="54" t="s">
+      <c r="T29" s="29" t="s">
         <v>203</v>
       </c>
       <c r="U29" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
@@ -3445,11 +3445,11 @@
       <c r="D30" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="51" t="s">
+      <c r="F30" s="31"/>
+      <c r="G30" s="26" t="s">
         <v>247</v>
       </c>
       <c r="H30" s="22">
@@ -3458,7 +3458,7 @@
       <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="32" t="s">
         <v>268</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -3471,11 +3471,11 @@
       <c r="N30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="56" t="s">
+      <c r="O30" s="31" t="s">
         <v>269</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="19">
         <v>6</v>
@@ -3486,14 +3486,14 @@
       <c r="S30" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T30" s="54" t="s">
+      <c r="T30" s="29" t="s">
         <v>310</v>
       </c>
       <c r="U30" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
@@ -3506,11 +3506,11 @@
       <c r="D31" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="51" t="s">
+      <c r="F31" s="31"/>
+      <c r="G31" s="26" t="s">
         <v>250</v>
       </c>
       <c r="H31" s="16">
@@ -3519,7 +3519,7 @@
       <c r="I31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="57" t="s">
+      <c r="J31" s="32" t="s">
         <v>270</v>
       </c>
       <c r="K31" s="5" t="s">
@@ -3532,11 +3532,11 @@
       <c r="N31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="56" t="s">
+      <c r="O31" s="31" t="s">
         <v>271</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="19">
         <v>6</v>
@@ -3547,14 +3547,14 @@
       <c r="S31" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T31" s="54" t="s">
+      <c r="T31" s="29" t="s">
         <v>305</v>
       </c>
       <c r="U31" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
@@ -3567,11 +3567,11 @@
       <c r="D32" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="51" t="s">
+      <c r="F32" s="31"/>
+      <c r="G32" s="26" t="s">
         <v>248</v>
       </c>
       <c r="H32" s="16">
@@ -3580,7 +3580,7 @@
       <c r="I32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="57" t="s">
+      <c r="J32" s="32" t="s">
         <v>249</v>
       </c>
       <c r="K32" s="5" t="s">
@@ -3593,7 +3593,7 @@
         <v>59</v>
       </c>
       <c r="N32" s="6"/>
-      <c r="O32" s="56" t="s">
+      <c r="O32" s="31" t="s">
         <v>272</v>
       </c>
       <c r="P32" s="16" t="s">
@@ -3608,14 +3608,14 @@
       <c r="S32" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="T32" s="54" t="s">
+      <c r="T32" s="29" t="s">
         <v>314</v>
       </c>
       <c r="U32" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
@@ -3628,11 +3628,11 @@
       <c r="D33" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="51" t="s">
+      <c r="F33" s="31"/>
+      <c r="G33" s="26" t="s">
         <v>152</v>
       </c>
       <c r="H33" s="22">
@@ -3641,7 +3641,7 @@
       <c r="I33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="57" t="s">
+      <c r="J33" s="32" t="s">
         <v>251</v>
       </c>
       <c r="K33" s="5" t="s">
@@ -3654,7 +3654,7 @@
       <c r="N33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O33" s="56" t="s">
+      <c r="O33" s="31" t="s">
         <v>252</v>
       </c>
       <c r="P33" s="16" t="s">
@@ -3669,14 +3669,14 @@
       <c r="S33" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T33" s="54" t="s">
+      <c r="T33" s="29" t="s">
         <v>293</v>
       </c>
       <c r="U33" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -3689,11 +3689,11 @@
       <c r="D34" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="51" t="s">
+      <c r="F34" s="31"/>
+      <c r="G34" s="26" t="s">
         <v>198</v>
       </c>
       <c r="H34" s="16">
@@ -3702,7 +3702,7 @@
       <c r="I34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="57" t="s">
+      <c r="J34" s="32" t="s">
         <v>200</v>
       </c>
       <c r="K34" s="5" t="s">
@@ -3713,11 +3713,11 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="56" t="s">
+      <c r="O34" s="31" t="s">
         <v>319</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="19">
         <v>9</v>
@@ -3728,14 +3728,14 @@
       <c r="S34" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="T34" s="54" t="s">
+      <c r="T34" s="29" t="s">
         <v>198</v>
       </c>
       <c r="U34" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -3748,11 +3748,11 @@
       <c r="D35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="62" t="s">
+      <c r="F35" s="31"/>
+      <c r="G35" s="37" t="s">
         <v>131</v>
       </c>
       <c r="H35" s="16">
@@ -3761,7 +3761,7 @@
       <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="57" t="s">
+      <c r="J35" s="32" t="s">
         <v>253</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -3774,7 +3774,7 @@
         <v>64</v>
       </c>
       <c r="N35" s="6"/>
-      <c r="O35" s="56" t="s">
+      <c r="O35" s="31" t="s">
         <v>320</v>
       </c>
       <c r="P35" s="16" t="s">
@@ -3789,14 +3789,14 @@
       <c r="S35" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="T35" s="54" t="s">
+      <c r="T35" s="29" t="s">
         <v>315</v>
       </c>
       <c r="U35" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3809,11 +3809,11 @@
       <c r="D36" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="51" t="s">
+      <c r="F36" s="31"/>
+      <c r="G36" s="26" t="s">
         <v>273</v>
       </c>
       <c r="H36" s="22">
@@ -3822,7 +3822,7 @@
       <c r="I36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="57" t="s">
+      <c r="J36" s="32" t="s">
         <v>254</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -3835,7 +3835,7 @@
       <c r="N36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O36" s="56" t="s">
+      <c r="O36" s="31" t="s">
         <v>274</v>
       </c>
       <c r="P36" s="16" t="s">
@@ -3850,14 +3850,14 @@
       <c r="S36" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T36" s="54" t="s">
+      <c r="T36" s="29" t="s">
         <v>294</v>
       </c>
       <c r="U36" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>16</v>
       </c>
@@ -3870,9 +3870,9 @@
       <c r="D37" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="51" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="26" t="s">
         <v>255</v>
       </c>
       <c r="H37" s="16">
@@ -3881,7 +3881,7 @@
       <c r="I37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="57" t="s">
+      <c r="J37" s="32" t="s">
         <v>256</v>
       </c>
       <c r="K37" s="5" t="s">
@@ -3894,7 +3894,7 @@
       <c r="N37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="56" t="s">
+      <c r="O37" s="31" t="s">
         <v>279</v>
       </c>
       <c r="P37" s="16" t="s">
@@ -3909,14 +3909,14 @@
       <c r="S37" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T37" s="54" t="s">
+      <c r="T37" s="29" t="s">
         <v>296</v>
       </c>
       <c r="U37" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -3929,9 +3929,9 @@
       <c r="D38" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="51" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="26" t="s">
         <v>258</v>
       </c>
       <c r="H38" s="16">
@@ -3940,7 +3940,7 @@
       <c r="I38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="57" t="s">
+      <c r="J38" s="32" t="s">
         <v>259</v>
       </c>
       <c r="K38" s="5" t="s">
@@ -3953,7 +3953,7 @@
       <c r="N38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O38" s="56" t="s">
+      <c r="O38" s="31" t="s">
         <v>278</v>
       </c>
       <c r="P38" s="16" t="s">
@@ -3968,14 +3968,14 @@
       <c r="S38" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T38" s="54" t="s">
+      <c r="T38" s="29" t="s">
         <v>312</v>
       </c>
       <c r="U38" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>16</v>
       </c>
@@ -3988,9 +3988,9 @@
       <c r="D39" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="51" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="26" t="s">
         <v>191</v>
       </c>
       <c r="H39" s="22">
@@ -3999,7 +3999,7 @@
       <c r="I39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="57" t="s">
+      <c r="J39" s="32" t="s">
         <v>196</v>
       </c>
       <c r="K39" s="5" t="s">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="56" t="s">
+      <c r="O39" s="31" t="s">
         <v>195</v>
       </c>
       <c r="P39" s="16" t="s">
@@ -4025,14 +4025,14 @@
       <c r="S39" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="T39" s="54" t="s">
+      <c r="T39" s="29" t="s">
         <v>193</v>
       </c>
       <c r="U39" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
@@ -4045,9 +4045,9 @@
       <c r="D40" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="51" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="26" t="s">
         <v>145</v>
       </c>
       <c r="H40" s="16">
@@ -4056,7 +4056,7 @@
       <c r="I40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="57" t="s">
+      <c r="J40" s="32" t="s">
         <v>260</v>
       </c>
       <c r="K40" s="5" t="s">
@@ -4069,7 +4069,7 @@
       <c r="N40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="56" t="s">
+      <c r="O40" s="31" t="s">
         <v>280</v>
       </c>
       <c r="P40" s="16" t="s">
@@ -4084,14 +4084,14 @@
       <c r="S40" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T40" s="54" t="s">
+      <c r="T40" s="29" t="s">
         <v>311</v>
       </c>
       <c r="U40" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
@@ -4104,9 +4104,9 @@
       <c r="D41" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="51" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="26" t="s">
         <v>153</v>
       </c>
       <c r="H41" s="16">
@@ -4115,7 +4115,7 @@
       <c r="I41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="57" t="s">
+      <c r="J41" s="32" t="s">
         <v>257</v>
       </c>
       <c r="K41" s="5" t="s">
@@ -4128,7 +4128,7 @@
       <c r="N41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O41" s="56" t="s">
+      <c r="O41" s="31" t="s">
         <v>261</v>
       </c>
       <c r="P41" s="16" t="s">
@@ -4143,14 +4143,14 @@
       <c r="S41" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T41" s="54" t="s">
+      <c r="T41" s="29" t="s">
         <v>306</v>
       </c>
       <c r="U41" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>16</v>
       </c>
@@ -4163,9 +4163,9 @@
       <c r="D42" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="51" t="s">
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="26" t="s">
         <v>124</v>
       </c>
       <c r="H42" s="22">
@@ -4174,7 +4174,7 @@
       <c r="I42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="57" t="s">
+      <c r="J42" s="32" t="s">
         <v>155</v>
       </c>
       <c r="K42" s="5" t="s">
@@ -4185,17 +4185,17 @@
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="56"/>
+      <c r="O42" s="31"/>
       <c r="P42" s="16" t="s">
         <v>19</v>
       </c>
       <c r="Q42" s="19"/>
       <c r="R42" s="20"/>
       <c r="S42" s="19"/>
-      <c r="T42" s="54"/>
+      <c r="T42" s="29"/>
       <c r="U42" s="19"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>16</v>
       </c>
@@ -4208,9 +4208,9 @@
       <c r="D43" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="63" t="s">
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="38" t="s">
         <v>125</v>
       </c>
       <c r="H43" s="16">
@@ -4219,7 +4219,7 @@
       <c r="I43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="57" t="s">
+      <c r="J43" s="32" t="s">
         <v>156</v>
       </c>
       <c r="K43" s="5" t="s">
@@ -4232,7 +4232,7 @@
       <c r="N43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="56" t="s">
+      <c r="O43" s="31" t="s">
         <v>158</v>
       </c>
       <c r="P43" s="16" t="s">
@@ -4247,14 +4247,14 @@
       <c r="S43" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T43" s="54" t="s">
+      <c r="T43" s="29" t="s">
         <v>303</v>
       </c>
       <c r="U43" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>16</v>
       </c>
@@ -4267,9 +4267,9 @@
       <c r="D44" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="51" t="s">
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="26" t="s">
         <v>154</v>
       </c>
       <c r="H44" s="16">
@@ -4278,7 +4278,7 @@
       <c r="I44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="57" t="s">
+      <c r="J44" s="32" t="s">
         <v>157</v>
       </c>
       <c r="K44" s="5" t="s">
@@ -4291,7 +4291,7 @@
       <c r="N44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O44" s="56" t="s">
+      <c r="O44" s="31" t="s">
         <v>213</v>
       </c>
       <c r="P44" s="16" t="s">
@@ -4306,2001 +4306,2007 @@
       <c r="S44" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="T44" s="54" t="s">
+      <c r="T44" s="29" t="s">
         <v>313</v>
       </c>
       <c r="U44" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="D52" s="37"/>
-      <c r="F52" s="37"/>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D52" s="24"/>
+      <c r="F52" s="24"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="D53" s="37"/>
-      <c r="F53" s="37"/>
+      <c r="I52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D53" s="24"/>
+      <c r="F53" s="24"/>
       <c r="H53" s="21"/>
-      <c r="I53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="D54" s="37"/>
-      <c r="F54" s="37"/>
+      <c r="I53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D54" s="24"/>
+      <c r="F54" s="24"/>
       <c r="H54" s="21"/>
-      <c r="I54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="D55" s="37"/>
-      <c r="F55" s="37"/>
+      <c r="I54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D55" s="24"/>
+      <c r="F55" s="24"/>
       <c r="H55" s="21"/>
-      <c r="I55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="D56" s="37"/>
-      <c r="F56" s="37"/>
+      <c r="I55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D56" s="24"/>
+      <c r="F56" s="24"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="D57" s="37"/>
-      <c r="F57" s="37"/>
+      <c r="I56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D57" s="24"/>
+      <c r="F57" s="24"/>
       <c r="H57" s="21"/>
-      <c r="I57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="D58" s="37"/>
-      <c r="F58" s="37"/>
+      <c r="I57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D58" s="24"/>
+      <c r="F58" s="24"/>
       <c r="H58" s="21"/>
-      <c r="I58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A59" s="37" t="s">
+      <c r="I58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="F59" s="37"/>
+      <c r="D59" s="24"/>
+      <c r="F59" s="24"/>
       <c r="H59" s="21"/>
-      <c r="I59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A60" s="37" t="s">
+      <c r="I59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="37"/>
-      <c r="F60" s="37"/>
+      <c r="D60" s="24"/>
+      <c r="F60" s="24"/>
       <c r="H60" s="21"/>
-      <c r="I60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A61" s="37" t="s">
+      <c r="I60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="F61" s="37"/>
+      <c r="D61" s="24"/>
+      <c r="F61" s="24"/>
       <c r="H61" s="21"/>
-      <c r="I61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A62" s="37" t="s">
+      <c r="I61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="37"/>
-      <c r="F62" s="37"/>
+      <c r="D62" s="24"/>
+      <c r="F62" s="24"/>
       <c r="H62" s="21"/>
-      <c r="I62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A63" s="37" t="s">
+      <c r="I62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="37"/>
-      <c r="F63" s="37"/>
+      <c r="D63" s="24"/>
+      <c r="F63" s="24"/>
       <c r="H63" s="21"/>
-      <c r="I63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A64" s="37" t="s">
+      <c r="I63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="F64" s="37"/>
+      <c r="D64" s="24"/>
+      <c r="F64" s="24"/>
       <c r="H64" s="21"/>
-      <c r="I64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A65" s="37" t="s">
+      <c r="I64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="F65" s="37"/>
+      <c r="D65" s="24"/>
+      <c r="F65" s="24"/>
       <c r="H65" s="21"/>
-      <c r="I65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A66" s="37" t="s">
+      <c r="I65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="F66" s="37"/>
+      <c r="D66" s="24"/>
+      <c r="F66" s="24"/>
       <c r="H66" s="21"/>
-      <c r="I66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A67" s="37" t="s">
+      <c r="I66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="F67" s="37"/>
+      <c r="D67" s="24"/>
+      <c r="F67" s="24"/>
       <c r="H67" s="21"/>
-      <c r="I67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A68" s="37" t="s">
+      <c r="I67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="37"/>
-      <c r="F68" s="37"/>
+      <c r="D68" s="24"/>
+      <c r="F68" s="24"/>
       <c r="H68" s="21"/>
-      <c r="I68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A69" s="37" t="s">
+      <c r="I68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="F69" s="37"/>
+      <c r="D69" s="24"/>
+      <c r="F69" s="24"/>
       <c r="H69" s="21"/>
-      <c r="I69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A70" s="37" t="s">
+      <c r="I69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="37"/>
-      <c r="F70" s="37"/>
+      <c r="D70" s="24"/>
+      <c r="F70" s="24"/>
       <c r="H70" s="21"/>
-      <c r="I70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A71" s="37" t="s">
+      <c r="I70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="F71" s="37"/>
+      <c r="D71" s="24"/>
+      <c r="F71" s="24"/>
       <c r="H71" s="21"/>
-      <c r="I71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A72" s="37" t="s">
+      <c r="I71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D72" s="37"/>
-      <c r="F72" s="37"/>
+      <c r="D72" s="24"/>
+      <c r="F72" s="24"/>
       <c r="H72" s="21"/>
-      <c r="I72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A73" s="37" t="s">
+      <c r="I72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="F73" s="37"/>
+      <c r="D73" s="24"/>
+      <c r="F73" s="24"/>
       <c r="H73" s="21"/>
-      <c r="I73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A74" s="37" t="s">
+      <c r="I73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="F74" s="37"/>
+      <c r="D74" s="24"/>
+      <c r="F74" s="24"/>
       <c r="H74" s="21"/>
-      <c r="I74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A75" s="37" t="s">
+      <c r="I74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="F75" s="37"/>
+      <c r="D75" s="24"/>
+      <c r="F75" s="24"/>
       <c r="H75" s="21"/>
-      <c r="I75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A76" s="37" t="s">
+      <c r="I75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="F76" s="37"/>
+      <c r="D76" s="24"/>
+      <c r="F76" s="24"/>
       <c r="H76" s="21"/>
-      <c r="I76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A77" s="37" t="s">
+      <c r="I76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="37"/>
-      <c r="F77" s="37"/>
+      <c r="D77" s="24"/>
+      <c r="F77" s="24"/>
       <c r="H77" s="21"/>
-      <c r="I77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A78" s="37" t="s">
+      <c r="I77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="37"/>
-      <c r="F78" s="37"/>
+      <c r="D78" s="24"/>
+      <c r="F78" s="24"/>
       <c r="H78" s="21"/>
-      <c r="I78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A79" s="37" t="s">
+      <c r="I78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="37"/>
-      <c r="F79" s="37"/>
+      <c r="D79" s="24"/>
+      <c r="F79" s="24"/>
       <c r="H79" s="21"/>
-      <c r="I79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A80" s="37" t="s">
+      <c r="I79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="F80" s="37"/>
+      <c r="D80" s="24"/>
+      <c r="F80" s="24"/>
       <c r="H80" s="21"/>
-      <c r="I80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A81" s="37" t="s">
+      <c r="I80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="37"/>
-      <c r="F81" s="37"/>
+      <c r="D81" s="24"/>
+      <c r="F81" s="24"/>
       <c r="H81" s="21"/>
-      <c r="I81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A82" s="37" t="s">
+      <c r="I81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="37"/>
-      <c r="F82" s="37"/>
+      <c r="D82" s="24"/>
+      <c r="F82" s="24"/>
       <c r="H82" s="21"/>
-      <c r="I82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A83" s="37" t="s">
+      <c r="I82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="F83" s="37"/>
+      <c r="D83" s="24"/>
+      <c r="F83" s="24"/>
       <c r="H83" s="21"/>
-      <c r="I83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="37"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A84" s="37" t="s">
+      <c r="I83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="F84" s="37"/>
+      <c r="D84" s="24"/>
+      <c r="F84" s="24"/>
       <c r="H84" s="21"/>
-      <c r="I84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A85" s="37" t="s">
+      <c r="I84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="F85" s="37"/>
+      <c r="D85" s="24"/>
+      <c r="F85" s="24"/>
       <c r="H85" s="21"/>
-      <c r="I85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A86" s="37" t="s">
+      <c r="I85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="37"/>
-      <c r="F86" s="37"/>
+      <c r="D86" s="24"/>
+      <c r="F86" s="24"/>
       <c r="H86" s="21"/>
-      <c r="I86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A87" s="37" t="s">
+      <c r="I86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="37"/>
-      <c r="F87" s="37"/>
+      <c r="D87" s="24"/>
+      <c r="F87" s="24"/>
       <c r="H87" s="21"/>
-      <c r="I87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="37"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A88" s="37" t="s">
+      <c r="I87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="37"/>
-      <c r="F88" s="37"/>
+      <c r="D88" s="24"/>
+      <c r="F88" s="24"/>
       <c r="H88" s="21"/>
-      <c r="I88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A89" s="37" t="s">
+      <c r="I88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D89" s="37"/>
-      <c r="F89" s="37"/>
+      <c r="D89" s="24"/>
+      <c r="F89" s="24"/>
       <c r="H89" s="21"/>
-      <c r="I89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A90" s="37" t="s">
+      <c r="I89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D90" s="37"/>
-      <c r="F90" s="37"/>
+      <c r="D90" s="24"/>
+      <c r="F90" s="24"/>
       <c r="H90" s="21"/>
-      <c r="I90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="37"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A91" s="37" t="s">
+      <c r="I90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="37"/>
-      <c r="F91" s="37"/>
+      <c r="D91" s="24"/>
+      <c r="F91" s="24"/>
       <c r="H91" s="21"/>
-      <c r="I91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A92" s="37" t="s">
+      <c r="I91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="F92" s="37"/>
+      <c r="D92" s="24"/>
+      <c r="F92" s="24"/>
       <c r="H92" s="21"/>
-      <c r="I92" s="37"/>
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
-      <c r="Q92" s="37"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A93" s="37" t="s">
+      <c r="I92" s="24"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="F93" s="37"/>
+      <c r="D93" s="24"/>
+      <c r="F93" s="24"/>
       <c r="H93" s="21"/>
-      <c r="I93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A94" s="37" t="s">
+      <c r="I93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="F94" s="37"/>
+      <c r="D94" s="24"/>
+      <c r="F94" s="24"/>
       <c r="H94" s="21"/>
-      <c r="I94" s="37"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A95" s="37" t="s">
+      <c r="I94" s="24"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D95" s="37"/>
-      <c r="F95" s="37"/>
+      <c r="D95" s="24"/>
+      <c r="F95" s="24"/>
       <c r="H95" s="21"/>
-      <c r="I95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
-      <c r="Q95" s="37"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="D96" s="37"/>
-      <c r="F96" s="37"/>
+      <c r="I95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D96" s="24"/>
+      <c r="F96" s="24"/>
       <c r="H96" s="21"/>
-      <c r="I96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-    </row>
-    <row r="97" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D97" s="37"/>
-      <c r="F97" s="37"/>
+      <c r="I96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+    </row>
+    <row r="97" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D97" s="24"/>
+      <c r="F97" s="24"/>
       <c r="H97" s="21"/>
-      <c r="I97" s="37"/>
-      <c r="O97" s="37"/>
-      <c r="P97" s="37"/>
-      <c r="Q97" s="37"/>
-    </row>
-    <row r="98" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D98" s="37"/>
-      <c r="F98" s="37"/>
+      <c r="I97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+    </row>
+    <row r="98" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D98" s="24"/>
+      <c r="F98" s="24"/>
       <c r="H98" s="21"/>
-      <c r="I98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
-    </row>
-    <row r="99" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D99" s="37"/>
-      <c r="F99" s="37"/>
+      <c r="I98" s="24"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="24"/>
+      <c r="Q98" s="24"/>
+    </row>
+    <row r="99" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D99" s="24"/>
+      <c r="F99" s="24"/>
       <c r="H99" s="21"/>
-      <c r="I99" s="37"/>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="37"/>
-    </row>
-    <row r="100" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D100" s="37"/>
-      <c r="F100" s="37"/>
+      <c r="I99" s="24"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="24"/>
+      <c r="Q99" s="24"/>
+    </row>
+    <row r="100" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D100" s="24"/>
+      <c r="F100" s="24"/>
       <c r="H100" s="21"/>
-      <c r="I100" s="37"/>
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="37"/>
-    </row>
-    <row r="101" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D101" s="37"/>
-      <c r="F101" s="37"/>
+      <c r="I100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+    </row>
+    <row r="101" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D101" s="24"/>
+      <c r="F101" s="24"/>
       <c r="H101" s="21"/>
-      <c r="I101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="37"/>
-    </row>
-    <row r="102" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D102" s="37"/>
-      <c r="F102" s="37"/>
+      <c r="I101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+    </row>
+    <row r="102" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D102" s="24"/>
+      <c r="F102" s="24"/>
       <c r="H102" s="21"/>
-      <c r="I102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="37"/>
-    </row>
-    <row r="103" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D103" s="37"/>
-      <c r="F103" s="37"/>
+      <c r="I102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+    </row>
+    <row r="103" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D103" s="24"/>
+      <c r="F103" s="24"/>
       <c r="H103" s="21"/>
-      <c r="I103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-    </row>
-    <row r="104" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D104" s="37"/>
-      <c r="F104" s="37"/>
+      <c r="I103" s="24"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+    </row>
+    <row r="104" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D104" s="24"/>
+      <c r="F104" s="24"/>
       <c r="H104" s="21"/>
-      <c r="I104" s="37"/>
-      <c r="O104" s="37"/>
-      <c r="P104" s="37"/>
-      <c r="Q104" s="37"/>
-    </row>
-    <row r="105" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D105" s="37"/>
-      <c r="F105" s="37"/>
+      <c r="I104" s="24"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="24"/>
+      <c r="Q104" s="24"/>
+    </row>
+    <row r="105" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D105" s="24"/>
+      <c r="F105" s="24"/>
       <c r="H105" s="21"/>
-      <c r="I105" s="37"/>
-      <c r="O105" s="37"/>
-      <c r="P105" s="37"/>
-      <c r="Q105" s="37"/>
-    </row>
-    <row r="106" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D106" s="37"/>
-      <c r="F106" s="37"/>
+      <c r="I105" s="24"/>
+      <c r="O105" s="24"/>
+      <c r="P105" s="24"/>
+      <c r="Q105" s="24"/>
+    </row>
+    <row r="106" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D106" s="24"/>
+      <c r="F106" s="24"/>
       <c r="H106" s="21"/>
-      <c r="I106" s="37"/>
-      <c r="O106" s="37"/>
-      <c r="P106" s="37"/>
-      <c r="Q106" s="37"/>
-    </row>
-    <row r="107" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D107" s="37"/>
-      <c r="F107" s="37"/>
+      <c r="I106" s="24"/>
+      <c r="O106" s="24"/>
+      <c r="P106" s="24"/>
+      <c r="Q106" s="24"/>
+    </row>
+    <row r="107" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D107" s="24"/>
+      <c r="F107" s="24"/>
       <c r="H107" s="21"/>
-      <c r="I107" s="37"/>
-      <c r="O107" s="37"/>
-      <c r="P107" s="37"/>
-      <c r="Q107" s="37"/>
-    </row>
-    <row r="108" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D108" s="37"/>
-      <c r="F108" s="37"/>
+      <c r="I107" s="24"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="24"/>
+      <c r="Q107" s="24"/>
+    </row>
+    <row r="108" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D108" s="24"/>
+      <c r="F108" s="24"/>
       <c r="H108" s="21"/>
-      <c r="I108" s="37"/>
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
-      <c r="Q108" s="37"/>
-    </row>
-    <row r="109" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D109" s="37"/>
-      <c r="F109" s="37"/>
+      <c r="I108" s="24"/>
+      <c r="O108" s="24"/>
+      <c r="P108" s="24"/>
+      <c r="Q108" s="24"/>
+    </row>
+    <row r="109" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D109" s="24"/>
+      <c r="F109" s="24"/>
       <c r="H109" s="21"/>
-      <c r="I109" s="37"/>
-      <c r="O109" s="37"/>
-      <c r="P109" s="37"/>
-      <c r="Q109" s="37"/>
-    </row>
-    <row r="110" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D110" s="37"/>
-      <c r="F110" s="37"/>
+      <c r="I109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
+    </row>
+    <row r="110" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D110" s="24"/>
+      <c r="F110" s="24"/>
       <c r="H110" s="21"/>
-      <c r="I110" s="37"/>
-      <c r="O110" s="37"/>
-      <c r="P110" s="37"/>
-      <c r="Q110" s="37"/>
-    </row>
-    <row r="111" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D111" s="37"/>
-      <c r="F111" s="37"/>
+      <c r="I110" s="24"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="24"/>
+      <c r="Q110" s="24"/>
+    </row>
+    <row r="111" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D111" s="24"/>
+      <c r="F111" s="24"/>
       <c r="H111" s="21"/>
-      <c r="I111" s="37"/>
-      <c r="O111" s="37"/>
-      <c r="P111" s="37"/>
-      <c r="Q111" s="37"/>
-    </row>
-    <row r="112" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D112" s="37"/>
-      <c r="F112" s="37"/>
+      <c r="I111" s="24"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
+    </row>
+    <row r="112" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D112" s="24"/>
+      <c r="F112" s="24"/>
       <c r="H112" s="21"/>
-      <c r="I112" s="37"/>
-      <c r="O112" s="37"/>
-      <c r="P112" s="37"/>
-      <c r="Q112" s="37"/>
-    </row>
-    <row r="113" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D113" s="37"/>
-      <c r="F113" s="37"/>
+      <c r="I112" s="24"/>
+      <c r="O112" s="24"/>
+      <c r="P112" s="24"/>
+      <c r="Q112" s="24"/>
+    </row>
+    <row r="113" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D113" s="24"/>
+      <c r="F113" s="24"/>
       <c r="H113" s="21"/>
-      <c r="I113" s="37"/>
-      <c r="O113" s="37"/>
-      <c r="P113" s="37"/>
-      <c r="Q113" s="37"/>
-    </row>
-    <row r="114" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D114" s="37"/>
-      <c r="F114" s="37"/>
+      <c r="I113" s="24"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="24"/>
+      <c r="Q113" s="24"/>
+    </row>
+    <row r="114" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D114" s="24"/>
+      <c r="F114" s="24"/>
       <c r="H114" s="21"/>
-      <c r="I114" s="37"/>
-      <c r="O114" s="37"/>
-      <c r="P114" s="37"/>
-      <c r="Q114" s="37"/>
-    </row>
-    <row r="115" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D115" s="37"/>
-      <c r="F115" s="37"/>
+      <c r="I114" s="24"/>
+      <c r="O114" s="24"/>
+      <c r="P114" s="24"/>
+      <c r="Q114" s="24"/>
+    </row>
+    <row r="115" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D115" s="24"/>
+      <c r="F115" s="24"/>
       <c r="H115" s="21"/>
-      <c r="I115" s="37"/>
-      <c r="O115" s="37"/>
-      <c r="P115" s="37"/>
-      <c r="Q115" s="37"/>
-    </row>
-    <row r="116" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D116" s="37"/>
-      <c r="F116" s="37"/>
+      <c r="I115" s="24"/>
+      <c r="O115" s="24"/>
+      <c r="P115" s="24"/>
+      <c r="Q115" s="24"/>
+    </row>
+    <row r="116" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D116" s="24"/>
+      <c r="F116" s="24"/>
       <c r="H116" s="21"/>
-      <c r="I116" s="37"/>
-      <c r="O116" s="37"/>
-      <c r="P116" s="37"/>
-      <c r="Q116" s="37"/>
-    </row>
-    <row r="117" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D117" s="37"/>
-      <c r="F117" s="37"/>
+      <c r="I116" s="24"/>
+      <c r="O116" s="24"/>
+      <c r="P116" s="24"/>
+      <c r="Q116" s="24"/>
+    </row>
+    <row r="117" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D117" s="24"/>
+      <c r="F117" s="24"/>
       <c r="H117" s="21"/>
-      <c r="I117" s="37"/>
-      <c r="O117" s="37"/>
-      <c r="P117" s="37"/>
-      <c r="Q117" s="37"/>
-    </row>
-    <row r="118" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D118" s="37"/>
-      <c r="F118" s="37"/>
+      <c r="I117" s="24"/>
+      <c r="O117" s="24"/>
+      <c r="P117" s="24"/>
+      <c r="Q117" s="24"/>
+    </row>
+    <row r="118" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D118" s="24"/>
+      <c r="F118" s="24"/>
       <c r="H118" s="21"/>
-      <c r="I118" s="37"/>
-      <c r="O118" s="37"/>
-      <c r="P118" s="37"/>
-      <c r="Q118" s="37"/>
-    </row>
-    <row r="119" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D119" s="37"/>
-      <c r="F119" s="37"/>
+      <c r="I118" s="24"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="24"/>
+    </row>
+    <row r="119" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D119" s="24"/>
+      <c r="F119" s="24"/>
       <c r="H119" s="21"/>
-      <c r="I119" s="37"/>
-      <c r="O119" s="37"/>
-      <c r="P119" s="37"/>
-      <c r="Q119" s="37"/>
-    </row>
-    <row r="120" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D120" s="37"/>
-      <c r="F120" s="37"/>
+      <c r="I119" s="24"/>
+      <c r="O119" s="24"/>
+      <c r="P119" s="24"/>
+      <c r="Q119" s="24"/>
+    </row>
+    <row r="120" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D120" s="24"/>
+      <c r="F120" s="24"/>
       <c r="H120" s="21"/>
-      <c r="I120" s="37"/>
-      <c r="O120" s="37"/>
-      <c r="P120" s="37"/>
-      <c r="Q120" s="37"/>
-    </row>
-    <row r="121" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D121" s="37"/>
-      <c r="F121" s="37"/>
+      <c r="I120" s="24"/>
+      <c r="O120" s="24"/>
+      <c r="P120" s="24"/>
+      <c r="Q120" s="24"/>
+    </row>
+    <row r="121" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D121" s="24"/>
+      <c r="F121" s="24"/>
       <c r="H121" s="21"/>
-      <c r="I121" s="37"/>
-      <c r="O121" s="37"/>
-      <c r="P121" s="37"/>
-      <c r="Q121" s="37"/>
-    </row>
-    <row r="122" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D122" s="37"/>
-      <c r="F122" s="37"/>
+      <c r="I121" s="24"/>
+      <c r="O121" s="24"/>
+      <c r="P121" s="24"/>
+      <c r="Q121" s="24"/>
+    </row>
+    <row r="122" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D122" s="24"/>
+      <c r="F122" s="24"/>
       <c r="H122" s="21"/>
-      <c r="I122" s="37"/>
-      <c r="O122" s="37"/>
-      <c r="P122" s="37"/>
-      <c r="Q122" s="37"/>
-    </row>
-    <row r="123" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D123" s="37"/>
-      <c r="F123" s="37"/>
+      <c r="I122" s="24"/>
+      <c r="O122" s="24"/>
+      <c r="P122" s="24"/>
+      <c r="Q122" s="24"/>
+    </row>
+    <row r="123" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D123" s="24"/>
+      <c r="F123" s="24"/>
       <c r="H123" s="21"/>
-      <c r="I123" s="37"/>
-      <c r="O123" s="37"/>
-      <c r="P123" s="37"/>
-      <c r="Q123" s="37"/>
-    </row>
-    <row r="124" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D124" s="37"/>
-      <c r="F124" s="37"/>
+      <c r="I123" s="24"/>
+      <c r="O123" s="24"/>
+      <c r="P123" s="24"/>
+      <c r="Q123" s="24"/>
+    </row>
+    <row r="124" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D124" s="24"/>
+      <c r="F124" s="24"/>
       <c r="H124" s="21"/>
-      <c r="I124" s="37"/>
-      <c r="O124" s="37"/>
-      <c r="P124" s="37"/>
-      <c r="Q124" s="37"/>
-    </row>
-    <row r="125" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D125" s="37"/>
-      <c r="F125" s="37"/>
+      <c r="I124" s="24"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="24"/>
+      <c r="Q124" s="24"/>
+    </row>
+    <row r="125" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D125" s="24"/>
+      <c r="F125" s="24"/>
       <c r="H125" s="21"/>
-      <c r="I125" s="37"/>
-      <c r="O125" s="37"/>
-      <c r="P125" s="37"/>
-      <c r="Q125" s="37"/>
-    </row>
-    <row r="126" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D126" s="37"/>
-      <c r="F126" s="37"/>
+      <c r="I125" s="24"/>
+      <c r="O125" s="24"/>
+      <c r="P125" s="24"/>
+      <c r="Q125" s="24"/>
+    </row>
+    <row r="126" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D126" s="24"/>
+      <c r="F126" s="24"/>
       <c r="H126" s="21"/>
-      <c r="I126" s="37"/>
-      <c r="O126" s="37"/>
-      <c r="P126" s="37"/>
-      <c r="Q126" s="37"/>
-    </row>
-    <row r="127" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D127" s="37"/>
-      <c r="F127" s="37"/>
+      <c r="I126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="24"/>
+    </row>
+    <row r="127" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D127" s="24"/>
+      <c r="F127" s="24"/>
       <c r="H127" s="21"/>
-      <c r="I127" s="37"/>
-      <c r="O127" s="37"/>
-      <c r="P127" s="37"/>
-      <c r="Q127" s="37"/>
-    </row>
-    <row r="128" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D128" s="37"/>
-      <c r="F128" s="37"/>
+      <c r="I127" s="24"/>
+      <c r="O127" s="24"/>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="24"/>
+    </row>
+    <row r="128" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D128" s="24"/>
+      <c r="F128" s="24"/>
       <c r="H128" s="21"/>
-      <c r="I128" s="37"/>
-      <c r="O128" s="37"/>
-      <c r="P128" s="37"/>
-      <c r="Q128" s="37"/>
-    </row>
-    <row r="129" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D129" s="37"/>
-      <c r="F129" s="37"/>
+      <c r="I128" s="24"/>
+      <c r="O128" s="24"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="24"/>
+    </row>
+    <row r="129" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D129" s="24"/>
+      <c r="F129" s="24"/>
       <c r="H129" s="21"/>
-      <c r="I129" s="37"/>
-      <c r="O129" s="37"/>
-      <c r="P129" s="37"/>
-      <c r="Q129" s="37"/>
-    </row>
-    <row r="130" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D130" s="37"/>
-      <c r="F130" s="37"/>
+      <c r="I129" s="24"/>
+      <c r="O129" s="24"/>
+      <c r="P129" s="24"/>
+      <c r="Q129" s="24"/>
+    </row>
+    <row r="130" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D130" s="24"/>
+      <c r="F130" s="24"/>
       <c r="H130" s="21"/>
-      <c r="I130" s="37"/>
-      <c r="O130" s="37"/>
-      <c r="P130" s="37"/>
-      <c r="Q130" s="37"/>
-    </row>
-    <row r="131" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D131" s="37"/>
-      <c r="F131" s="37"/>
+      <c r="I130" s="24"/>
+      <c r="O130" s="24"/>
+      <c r="P130" s="24"/>
+      <c r="Q130" s="24"/>
+    </row>
+    <row r="131" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D131" s="24"/>
+      <c r="F131" s="24"/>
       <c r="H131" s="21"/>
-      <c r="I131" s="37"/>
-      <c r="O131" s="37"/>
-      <c r="P131" s="37"/>
-      <c r="Q131" s="37"/>
-    </row>
-    <row r="132" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D132" s="37"/>
-      <c r="F132" s="37"/>
+      <c r="I131" s="24"/>
+      <c r="O131" s="24"/>
+      <c r="P131" s="24"/>
+      <c r="Q131" s="24"/>
+    </row>
+    <row r="132" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D132" s="24"/>
+      <c r="F132" s="24"/>
       <c r="H132" s="21"/>
-      <c r="I132" s="37"/>
-      <c r="O132" s="37"/>
-      <c r="P132" s="37"/>
-      <c r="Q132" s="37"/>
-    </row>
-    <row r="133" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D133" s="37"/>
-      <c r="F133" s="37"/>
+      <c r="I132" s="24"/>
+      <c r="O132" s="24"/>
+      <c r="P132" s="24"/>
+      <c r="Q132" s="24"/>
+    </row>
+    <row r="133" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D133" s="24"/>
+      <c r="F133" s="24"/>
       <c r="H133" s="21"/>
-      <c r="I133" s="37"/>
-      <c r="O133" s="37"/>
-      <c r="P133" s="37"/>
-      <c r="Q133" s="37"/>
-    </row>
-    <row r="134" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D134" s="37"/>
-      <c r="F134" s="37"/>
+      <c r="I133" s="24"/>
+      <c r="O133" s="24"/>
+      <c r="P133" s="24"/>
+      <c r="Q133" s="24"/>
+    </row>
+    <row r="134" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D134" s="24"/>
+      <c r="F134" s="24"/>
       <c r="H134" s="21"/>
-      <c r="I134" s="37"/>
-      <c r="O134" s="37"/>
-      <c r="P134" s="37"/>
-      <c r="Q134" s="37"/>
-    </row>
-    <row r="135" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D135" s="37"/>
-      <c r="F135" s="37"/>
+      <c r="I134" s="24"/>
+      <c r="O134" s="24"/>
+      <c r="P134" s="24"/>
+      <c r="Q134" s="24"/>
+    </row>
+    <row r="135" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D135" s="24"/>
+      <c r="F135" s="24"/>
       <c r="H135" s="21"/>
-      <c r="I135" s="37"/>
-      <c r="O135" s="37"/>
-      <c r="P135" s="37"/>
-      <c r="Q135" s="37"/>
-    </row>
-    <row r="136" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D136" s="37"/>
-      <c r="F136" s="37"/>
+      <c r="I135" s="24"/>
+      <c r="O135" s="24"/>
+      <c r="P135" s="24"/>
+      <c r="Q135" s="24"/>
+    </row>
+    <row r="136" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D136" s="24"/>
+      <c r="F136" s="24"/>
       <c r="H136" s="21"/>
-      <c r="I136" s="37"/>
-      <c r="O136" s="37"/>
-      <c r="P136" s="37"/>
-      <c r="Q136" s="37"/>
-    </row>
-    <row r="137" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D137" s="37"/>
-      <c r="F137" s="37"/>
+      <c r="I136" s="24"/>
+      <c r="O136" s="24"/>
+      <c r="P136" s="24"/>
+      <c r="Q136" s="24"/>
+    </row>
+    <row r="137" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D137" s="24"/>
+      <c r="F137" s="24"/>
       <c r="H137" s="21"/>
-      <c r="I137" s="37"/>
-      <c r="O137" s="37"/>
-      <c r="P137" s="37"/>
-      <c r="Q137" s="37"/>
-    </row>
-    <row r="138" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D138" s="37"/>
-      <c r="F138" s="37"/>
+      <c r="I137" s="24"/>
+      <c r="O137" s="24"/>
+      <c r="P137" s="24"/>
+      <c r="Q137" s="24"/>
+    </row>
+    <row r="138" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D138" s="24"/>
+      <c r="F138" s="24"/>
       <c r="H138" s="21"/>
-      <c r="I138" s="37"/>
-      <c r="O138" s="37"/>
-      <c r="P138" s="37"/>
-      <c r="Q138" s="37"/>
-    </row>
-    <row r="139" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D139" s="37"/>
-      <c r="F139" s="37"/>
+      <c r="I138" s="24"/>
+      <c r="O138" s="24"/>
+      <c r="P138" s="24"/>
+      <c r="Q138" s="24"/>
+    </row>
+    <row r="139" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D139" s="24"/>
+      <c r="F139" s="24"/>
       <c r="H139" s="21"/>
-      <c r="I139" s="37"/>
-      <c r="O139" s="37"/>
-      <c r="P139" s="37"/>
-      <c r="Q139" s="37"/>
-    </row>
-    <row r="140" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D140" s="37"/>
-      <c r="F140" s="37"/>
+      <c r="I139" s="24"/>
+      <c r="O139" s="24"/>
+      <c r="P139" s="24"/>
+      <c r="Q139" s="24"/>
+    </row>
+    <row r="140" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D140" s="24"/>
+      <c r="F140" s="24"/>
       <c r="H140" s="21"/>
-      <c r="I140" s="37"/>
-      <c r="O140" s="37"/>
-      <c r="P140" s="37"/>
-      <c r="Q140" s="37"/>
-    </row>
-    <row r="141" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D141" s="37"/>
-      <c r="F141" s="37"/>
+      <c r="I140" s="24"/>
+      <c r="O140" s="24"/>
+      <c r="P140" s="24"/>
+      <c r="Q140" s="24"/>
+    </row>
+    <row r="141" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D141" s="24"/>
+      <c r="F141" s="24"/>
       <c r="H141" s="21"/>
-      <c r="I141" s="37"/>
-      <c r="O141" s="37"/>
-      <c r="P141" s="37"/>
-      <c r="Q141" s="37"/>
-    </row>
-    <row r="142" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D142" s="37"/>
-      <c r="F142" s="37"/>
+      <c r="I141" s="24"/>
+      <c r="O141" s="24"/>
+      <c r="P141" s="24"/>
+      <c r="Q141" s="24"/>
+    </row>
+    <row r="142" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D142" s="24"/>
+      <c r="F142" s="24"/>
       <c r="H142" s="21"/>
-      <c r="I142" s="37"/>
-      <c r="O142" s="37"/>
-      <c r="P142" s="37"/>
-      <c r="Q142" s="37"/>
-    </row>
-    <row r="143" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D143" s="37"/>
-      <c r="F143" s="37"/>
+      <c r="I142" s="24"/>
+      <c r="O142" s="24"/>
+      <c r="P142" s="24"/>
+      <c r="Q142" s="24"/>
+    </row>
+    <row r="143" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D143" s="24"/>
+      <c r="F143" s="24"/>
       <c r="H143" s="21"/>
-      <c r="I143" s="37"/>
-      <c r="O143" s="37"/>
-      <c r="P143" s="37"/>
-      <c r="Q143" s="37"/>
-    </row>
-    <row r="144" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D144" s="37"/>
-      <c r="F144" s="37"/>
+      <c r="I143" s="24"/>
+      <c r="O143" s="24"/>
+      <c r="P143" s="24"/>
+      <c r="Q143" s="24"/>
+    </row>
+    <row r="144" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D144" s="24"/>
+      <c r="F144" s="24"/>
       <c r="H144" s="21"/>
-      <c r="I144" s="37"/>
-      <c r="O144" s="37"/>
-      <c r="P144" s="37"/>
-      <c r="Q144" s="37"/>
-    </row>
-    <row r="145" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D145" s="37"/>
-      <c r="F145" s="37"/>
+      <c r="I144" s="24"/>
+      <c r="O144" s="24"/>
+      <c r="P144" s="24"/>
+      <c r="Q144" s="24"/>
+    </row>
+    <row r="145" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D145" s="24"/>
+      <c r="F145" s="24"/>
       <c r="H145" s="21"/>
-      <c r="I145" s="37"/>
-      <c r="O145" s="37"/>
-      <c r="P145" s="37"/>
-      <c r="Q145" s="37"/>
-    </row>
-    <row r="146" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D146" s="37"/>
-      <c r="F146" s="37"/>
+      <c r="I145" s="24"/>
+      <c r="O145" s="24"/>
+      <c r="P145" s="24"/>
+      <c r="Q145" s="24"/>
+    </row>
+    <row r="146" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D146" s="24"/>
+      <c r="F146" s="24"/>
       <c r="H146" s="21"/>
-      <c r="I146" s="37"/>
-      <c r="O146" s="37"/>
-      <c r="P146" s="37"/>
-      <c r="Q146" s="37"/>
-    </row>
-    <row r="147" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D147" s="37"/>
-      <c r="F147" s="37"/>
+      <c r="I146" s="24"/>
+      <c r="O146" s="24"/>
+      <c r="P146" s="24"/>
+      <c r="Q146" s="24"/>
+    </row>
+    <row r="147" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D147" s="24"/>
+      <c r="F147" s="24"/>
       <c r="H147" s="21"/>
-      <c r="I147" s="37"/>
-      <c r="O147" s="37"/>
-      <c r="P147" s="37"/>
-      <c r="Q147" s="37"/>
-    </row>
-    <row r="148" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D148" s="37"/>
-      <c r="F148" s="37"/>
+      <c r="I147" s="24"/>
+      <c r="O147" s="24"/>
+      <c r="P147" s="24"/>
+      <c r="Q147" s="24"/>
+    </row>
+    <row r="148" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D148" s="24"/>
+      <c r="F148" s="24"/>
       <c r="H148" s="21"/>
-      <c r="I148" s="37"/>
-      <c r="O148" s="37"/>
-      <c r="P148" s="37"/>
-      <c r="Q148" s="37"/>
-    </row>
-    <row r="149" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D149" s="37"/>
-      <c r="F149" s="37"/>
+      <c r="I148" s="24"/>
+      <c r="O148" s="24"/>
+      <c r="P148" s="24"/>
+      <c r="Q148" s="24"/>
+    </row>
+    <row r="149" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D149" s="24"/>
+      <c r="F149" s="24"/>
       <c r="H149" s="21"/>
-      <c r="I149" s="37"/>
-      <c r="O149" s="37"/>
-      <c r="P149" s="37"/>
-      <c r="Q149" s="37"/>
-    </row>
-    <row r="150" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D150" s="37"/>
-      <c r="F150" s="37"/>
+      <c r="I149" s="24"/>
+      <c r="O149" s="24"/>
+      <c r="P149" s="24"/>
+      <c r="Q149" s="24"/>
+    </row>
+    <row r="150" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D150" s="24"/>
+      <c r="F150" s="24"/>
       <c r="H150" s="21"/>
-      <c r="I150" s="37"/>
-      <c r="O150" s="37"/>
-      <c r="P150" s="37"/>
-      <c r="Q150" s="37"/>
-    </row>
-    <row r="151" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D151" s="37"/>
-      <c r="F151" s="37"/>
+      <c r="I150" s="24"/>
+      <c r="O150" s="24"/>
+      <c r="P150" s="24"/>
+      <c r="Q150" s="24"/>
+    </row>
+    <row r="151" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D151" s="24"/>
+      <c r="F151" s="24"/>
       <c r="H151" s="21"/>
-      <c r="I151" s="37"/>
-      <c r="O151" s="37"/>
-      <c r="P151" s="37"/>
-      <c r="Q151" s="37"/>
-    </row>
-    <row r="152" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D152" s="37"/>
-      <c r="F152" s="37"/>
+      <c r="I151" s="24"/>
+      <c r="O151" s="24"/>
+      <c r="P151" s="24"/>
+      <c r="Q151" s="24"/>
+    </row>
+    <row r="152" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D152" s="24"/>
+      <c r="F152" s="24"/>
       <c r="H152" s="21"/>
-      <c r="I152" s="37"/>
-      <c r="O152" s="37"/>
-      <c r="P152" s="37"/>
-      <c r="Q152" s="37"/>
-    </row>
-    <row r="153" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D153" s="37"/>
-      <c r="F153" s="37"/>
+      <c r="I152" s="24"/>
+      <c r="O152" s="24"/>
+      <c r="P152" s="24"/>
+      <c r="Q152" s="24"/>
+    </row>
+    <row r="153" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D153" s="24"/>
+      <c r="F153" s="24"/>
       <c r="H153" s="21"/>
-      <c r="I153" s="37"/>
-      <c r="O153" s="37"/>
-      <c r="P153" s="37"/>
-      <c r="Q153" s="37"/>
-    </row>
-    <row r="154" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D154" s="37"/>
-      <c r="F154" s="37"/>
+      <c r="I153" s="24"/>
+      <c r="O153" s="24"/>
+      <c r="P153" s="24"/>
+      <c r="Q153" s="24"/>
+    </row>
+    <row r="154" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D154" s="24"/>
+      <c r="F154" s="24"/>
       <c r="H154" s="21"/>
-      <c r="I154" s="37"/>
-      <c r="O154" s="37"/>
-      <c r="P154" s="37"/>
-      <c r="Q154" s="37"/>
-    </row>
-    <row r="155" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D155" s="37"/>
-      <c r="F155" s="37"/>
+      <c r="I154" s="24"/>
+      <c r="O154" s="24"/>
+      <c r="P154" s="24"/>
+      <c r="Q154" s="24"/>
+    </row>
+    <row r="155" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D155" s="24"/>
+      <c r="F155" s="24"/>
       <c r="H155" s="21"/>
-      <c r="I155" s="37"/>
-      <c r="O155" s="37"/>
-      <c r="P155" s="37"/>
-      <c r="Q155" s="37"/>
-    </row>
-    <row r="156" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D156" s="37"/>
-      <c r="F156" s="37"/>
+      <c r="I155" s="24"/>
+      <c r="O155" s="24"/>
+      <c r="P155" s="24"/>
+      <c r="Q155" s="24"/>
+    </row>
+    <row r="156" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D156" s="24"/>
+      <c r="F156" s="24"/>
       <c r="H156" s="21"/>
-      <c r="I156" s="37"/>
-      <c r="O156" s="37"/>
-      <c r="P156" s="37"/>
-      <c r="Q156" s="37"/>
-    </row>
-    <row r="157" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D157" s="37"/>
-      <c r="F157" s="37"/>
+      <c r="I156" s="24"/>
+      <c r="O156" s="24"/>
+      <c r="P156" s="24"/>
+      <c r="Q156" s="24"/>
+    </row>
+    <row r="157" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D157" s="24"/>
+      <c r="F157" s="24"/>
       <c r="H157" s="21"/>
-      <c r="I157" s="37"/>
-      <c r="O157" s="37"/>
-      <c r="P157" s="37"/>
-      <c r="Q157" s="37"/>
-    </row>
-    <row r="158" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D158" s="37"/>
-      <c r="F158" s="37"/>
+      <c r="I157" s="24"/>
+      <c r="O157" s="24"/>
+      <c r="P157" s="24"/>
+      <c r="Q157" s="24"/>
+    </row>
+    <row r="158" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D158" s="24"/>
+      <c r="F158" s="24"/>
       <c r="H158" s="21"/>
-      <c r="I158" s="37"/>
-      <c r="O158" s="37"/>
-      <c r="P158" s="37"/>
-      <c r="Q158" s="37"/>
-    </row>
-    <row r="159" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D159" s="37"/>
-      <c r="F159" s="37"/>
+      <c r="I158" s="24"/>
+      <c r="O158" s="24"/>
+      <c r="P158" s="24"/>
+      <c r="Q158" s="24"/>
+    </row>
+    <row r="159" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D159" s="24"/>
+      <c r="F159" s="24"/>
       <c r="H159" s="21"/>
-      <c r="I159" s="37"/>
-      <c r="O159" s="37"/>
-      <c r="P159" s="37"/>
-      <c r="Q159" s="37"/>
-    </row>
-    <row r="160" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D160" s="37"/>
-      <c r="F160" s="37"/>
+      <c r="I159" s="24"/>
+      <c r="O159" s="24"/>
+      <c r="P159" s="24"/>
+      <c r="Q159" s="24"/>
+    </row>
+    <row r="160" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D160" s="24"/>
+      <c r="F160" s="24"/>
       <c r="H160" s="21"/>
-      <c r="I160" s="37"/>
-      <c r="O160" s="37"/>
-      <c r="P160" s="37"/>
-      <c r="Q160" s="37"/>
-    </row>
-    <row r="161" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D161" s="37"/>
-      <c r="F161" s="37"/>
+      <c r="I160" s="24"/>
+      <c r="O160" s="24"/>
+      <c r="P160" s="24"/>
+      <c r="Q160" s="24"/>
+    </row>
+    <row r="161" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D161" s="24"/>
+      <c r="F161" s="24"/>
       <c r="H161" s="21"/>
-      <c r="I161" s="37"/>
-      <c r="O161" s="37"/>
-      <c r="P161" s="37"/>
-      <c r="Q161" s="37"/>
-    </row>
-    <row r="162" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D162" s="37"/>
-      <c r="F162" s="37"/>
+      <c r="I161" s="24"/>
+      <c r="O161" s="24"/>
+      <c r="P161" s="24"/>
+      <c r="Q161" s="24"/>
+    </row>
+    <row r="162" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D162" s="24"/>
+      <c r="F162" s="24"/>
       <c r="H162" s="21"/>
-      <c r="I162" s="37"/>
-      <c r="O162" s="37"/>
-      <c r="P162" s="37"/>
-      <c r="Q162" s="37"/>
-    </row>
-    <row r="163" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D163" s="37"/>
-      <c r="F163" s="37"/>
+      <c r="I162" s="24"/>
+      <c r="O162" s="24"/>
+      <c r="P162" s="24"/>
+      <c r="Q162" s="24"/>
+    </row>
+    <row r="163" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D163" s="24"/>
+      <c r="F163" s="24"/>
       <c r="H163" s="21"/>
-      <c r="I163" s="37"/>
-      <c r="O163" s="37"/>
-      <c r="P163" s="37"/>
-      <c r="Q163" s="37"/>
-    </row>
-    <row r="164" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D164" s="37"/>
-      <c r="F164" s="37"/>
+      <c r="I163" s="24"/>
+      <c r="O163" s="24"/>
+      <c r="P163" s="24"/>
+      <c r="Q163" s="24"/>
+    </row>
+    <row r="164" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D164" s="24"/>
+      <c r="F164" s="24"/>
       <c r="H164" s="21"/>
-      <c r="I164" s="37"/>
-      <c r="O164" s="37"/>
-      <c r="P164" s="37"/>
-      <c r="Q164" s="37"/>
-    </row>
-    <row r="165" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D165" s="37"/>
-      <c r="F165" s="37"/>
+      <c r="I164" s="24"/>
+      <c r="O164" s="24"/>
+      <c r="P164" s="24"/>
+      <c r="Q164" s="24"/>
+    </row>
+    <row r="165" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D165" s="24"/>
+      <c r="F165" s="24"/>
       <c r="H165" s="21"/>
-      <c r="I165" s="37"/>
-      <c r="O165" s="37"/>
-      <c r="P165" s="37"/>
-      <c r="Q165" s="37"/>
-    </row>
-    <row r="166" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D166" s="37"/>
-      <c r="F166" s="37"/>
+      <c r="I165" s="24"/>
+      <c r="O165" s="24"/>
+      <c r="P165" s="24"/>
+      <c r="Q165" s="24"/>
+    </row>
+    <row r="166" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D166" s="24"/>
+      <c r="F166" s="24"/>
       <c r="H166" s="21"/>
-      <c r="I166" s="37"/>
-      <c r="O166" s="37"/>
-      <c r="P166" s="37"/>
-      <c r="Q166" s="37"/>
-    </row>
-    <row r="167" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D167" s="37"/>
-      <c r="F167" s="37"/>
+      <c r="I166" s="24"/>
+      <c r="O166" s="24"/>
+      <c r="P166" s="24"/>
+      <c r="Q166" s="24"/>
+    </row>
+    <row r="167" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D167" s="24"/>
+      <c r="F167" s="24"/>
       <c r="H167" s="21"/>
-      <c r="I167" s="37"/>
-      <c r="O167" s="37"/>
-      <c r="P167" s="37"/>
-      <c r="Q167" s="37"/>
-    </row>
-    <row r="168" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D168" s="37"/>
-      <c r="F168" s="37"/>
+      <c r="I167" s="24"/>
+      <c r="O167" s="24"/>
+      <c r="P167" s="24"/>
+      <c r="Q167" s="24"/>
+    </row>
+    <row r="168" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D168" s="24"/>
+      <c r="F168" s="24"/>
       <c r="H168" s="21"/>
-      <c r="I168" s="37"/>
-      <c r="O168" s="37"/>
-      <c r="P168" s="37"/>
-      <c r="Q168" s="37"/>
-    </row>
-    <row r="169" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D169" s="37"/>
-      <c r="F169" s="37"/>
+      <c r="I168" s="24"/>
+      <c r="O168" s="24"/>
+      <c r="P168" s="24"/>
+      <c r="Q168" s="24"/>
+    </row>
+    <row r="169" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D169" s="24"/>
+      <c r="F169" s="24"/>
       <c r="H169" s="21"/>
-      <c r="I169" s="37"/>
-      <c r="O169" s="37"/>
-      <c r="P169" s="37"/>
-      <c r="Q169" s="37"/>
-    </row>
-    <row r="170" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D170" s="37"/>
-      <c r="F170" s="37"/>
+      <c r="I169" s="24"/>
+      <c r="O169" s="24"/>
+      <c r="P169" s="24"/>
+      <c r="Q169" s="24"/>
+    </row>
+    <row r="170" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D170" s="24"/>
+      <c r="F170" s="24"/>
       <c r="H170" s="21"/>
-      <c r="I170" s="37"/>
-      <c r="O170" s="37"/>
-      <c r="P170" s="37"/>
-      <c r="Q170" s="37"/>
-    </row>
-    <row r="171" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D171" s="37"/>
-      <c r="F171" s="37"/>
+      <c r="I170" s="24"/>
+      <c r="O170" s="24"/>
+      <c r="P170" s="24"/>
+      <c r="Q170" s="24"/>
+    </row>
+    <row r="171" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D171" s="24"/>
+      <c r="F171" s="24"/>
       <c r="H171" s="21"/>
-      <c r="I171" s="37"/>
-      <c r="O171" s="37"/>
-      <c r="P171" s="37"/>
-      <c r="Q171" s="37"/>
-    </row>
-    <row r="172" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D172" s="37"/>
-      <c r="F172" s="37"/>
+      <c r="I171" s="24"/>
+      <c r="O171" s="24"/>
+      <c r="P171" s="24"/>
+      <c r="Q171" s="24"/>
+    </row>
+    <row r="172" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D172" s="24"/>
+      <c r="F172" s="24"/>
       <c r="H172" s="21"/>
-      <c r="I172" s="37"/>
-      <c r="O172" s="37"/>
-      <c r="P172" s="37"/>
-      <c r="Q172" s="37"/>
-    </row>
-    <row r="173" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D173" s="37"/>
-      <c r="F173" s="37"/>
+      <c r="I172" s="24"/>
+      <c r="O172" s="24"/>
+      <c r="P172" s="24"/>
+      <c r="Q172" s="24"/>
+    </row>
+    <row r="173" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D173" s="24"/>
+      <c r="F173" s="24"/>
       <c r="H173" s="21"/>
-      <c r="I173" s="37"/>
-      <c r="O173" s="37"/>
-      <c r="P173" s="37"/>
-      <c r="Q173" s="37"/>
-    </row>
-    <row r="174" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D174" s="37"/>
-      <c r="F174" s="37"/>
+      <c r="I173" s="24"/>
+      <c r="O173" s="24"/>
+      <c r="P173" s="24"/>
+      <c r="Q173" s="24"/>
+    </row>
+    <row r="174" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D174" s="24"/>
+      <c r="F174" s="24"/>
       <c r="H174" s="21"/>
-      <c r="I174" s="37"/>
-      <c r="O174" s="37"/>
-      <c r="P174" s="37"/>
-      <c r="Q174" s="37"/>
-    </row>
-    <row r="175" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D175" s="37"/>
-      <c r="F175" s="37"/>
+      <c r="I174" s="24"/>
+      <c r="O174" s="24"/>
+      <c r="P174" s="24"/>
+      <c r="Q174" s="24"/>
+    </row>
+    <row r="175" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D175" s="24"/>
+      <c r="F175" s="24"/>
       <c r="H175" s="21"/>
-      <c r="I175" s="37"/>
-      <c r="O175" s="37"/>
-      <c r="P175" s="37"/>
-      <c r="Q175" s="37"/>
-    </row>
-    <row r="176" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D176" s="37"/>
-      <c r="F176" s="37"/>
+      <c r="I175" s="24"/>
+      <c r="O175" s="24"/>
+      <c r="P175" s="24"/>
+      <c r="Q175" s="24"/>
+    </row>
+    <row r="176" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D176" s="24"/>
+      <c r="F176" s="24"/>
       <c r="H176" s="21"/>
-      <c r="I176" s="37"/>
-      <c r="O176" s="37"/>
-      <c r="P176" s="37"/>
-      <c r="Q176" s="37"/>
-    </row>
-    <row r="177" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D177" s="37"/>
-      <c r="F177" s="37"/>
+      <c r="I176" s="24"/>
+      <c r="O176" s="24"/>
+      <c r="P176" s="24"/>
+      <c r="Q176" s="24"/>
+    </row>
+    <row r="177" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D177" s="24"/>
+      <c r="F177" s="24"/>
       <c r="H177" s="21"/>
-      <c r="I177" s="37"/>
-      <c r="O177" s="37"/>
-      <c r="P177" s="37"/>
-      <c r="Q177" s="37"/>
-    </row>
-    <row r="178" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D178" s="37"/>
-      <c r="F178" s="37"/>
+      <c r="I177" s="24"/>
+      <c r="O177" s="24"/>
+      <c r="P177" s="24"/>
+      <c r="Q177" s="24"/>
+    </row>
+    <row r="178" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D178" s="24"/>
+      <c r="F178" s="24"/>
       <c r="H178" s="21"/>
-      <c r="I178" s="37"/>
-      <c r="O178" s="37"/>
-      <c r="P178" s="37"/>
-      <c r="Q178" s="37"/>
-    </row>
-    <row r="179" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D179" s="37"/>
-      <c r="F179" s="37"/>
+      <c r="I178" s="24"/>
+      <c r="O178" s="24"/>
+      <c r="P178" s="24"/>
+      <c r="Q178" s="24"/>
+    </row>
+    <row r="179" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D179" s="24"/>
+      <c r="F179" s="24"/>
       <c r="H179" s="21"/>
-      <c r="I179" s="37"/>
-      <c r="O179" s="37"/>
-      <c r="P179" s="37"/>
-      <c r="Q179" s="37"/>
-    </row>
-    <row r="180" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D180" s="37"/>
-      <c r="F180" s="37"/>
+      <c r="I179" s="24"/>
+      <c r="O179" s="24"/>
+      <c r="P179" s="24"/>
+      <c r="Q179" s="24"/>
+    </row>
+    <row r="180" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D180" s="24"/>
+      <c r="F180" s="24"/>
       <c r="H180" s="21"/>
-      <c r="I180" s="37"/>
-      <c r="O180" s="37"/>
-      <c r="P180" s="37"/>
-      <c r="Q180" s="37"/>
-    </row>
-    <row r="181" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D181" s="37"/>
-      <c r="F181" s="37"/>
+      <c r="I180" s="24"/>
+      <c r="O180" s="24"/>
+      <c r="P180" s="24"/>
+      <c r="Q180" s="24"/>
+    </row>
+    <row r="181" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D181" s="24"/>
+      <c r="F181" s="24"/>
       <c r="H181" s="21"/>
-      <c r="I181" s="37"/>
-      <c r="O181" s="37"/>
-      <c r="P181" s="37"/>
-      <c r="Q181" s="37"/>
-    </row>
-    <row r="182" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D182" s="37"/>
-      <c r="F182" s="37"/>
+      <c r="I181" s="24"/>
+      <c r="O181" s="24"/>
+      <c r="P181" s="24"/>
+      <c r="Q181" s="24"/>
+    </row>
+    <row r="182" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D182" s="24"/>
+      <c r="F182" s="24"/>
       <c r="H182" s="21"/>
-      <c r="I182" s="37"/>
-      <c r="O182" s="37"/>
-      <c r="P182" s="37"/>
-      <c r="Q182" s="37"/>
-    </row>
-    <row r="183" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D183" s="37"/>
-      <c r="F183" s="37"/>
+      <c r="I182" s="24"/>
+      <c r="O182" s="24"/>
+      <c r="P182" s="24"/>
+      <c r="Q182" s="24"/>
+    </row>
+    <row r="183" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D183" s="24"/>
+      <c r="F183" s="24"/>
       <c r="H183" s="21"/>
-      <c r="I183" s="37"/>
-      <c r="O183" s="37"/>
-      <c r="P183" s="37"/>
-      <c r="Q183" s="37"/>
-    </row>
-    <row r="184" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D184" s="37"/>
-      <c r="F184" s="37"/>
+      <c r="I183" s="24"/>
+      <c r="O183" s="24"/>
+      <c r="P183" s="24"/>
+      <c r="Q183" s="24"/>
+    </row>
+    <row r="184" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D184" s="24"/>
+      <c r="F184" s="24"/>
       <c r="H184" s="21"/>
-      <c r="I184" s="37"/>
-      <c r="O184" s="37"/>
-      <c r="P184" s="37"/>
-      <c r="Q184" s="37"/>
-    </row>
-    <row r="185" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D185" s="37"/>
-      <c r="F185" s="37"/>
+      <c r="I184" s="24"/>
+      <c r="O184" s="24"/>
+      <c r="P184" s="24"/>
+      <c r="Q184" s="24"/>
+    </row>
+    <row r="185" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D185" s="24"/>
+      <c r="F185" s="24"/>
       <c r="H185" s="21"/>
-      <c r="I185" s="37"/>
-      <c r="O185" s="37"/>
-      <c r="P185" s="37"/>
-      <c r="Q185" s="37"/>
-    </row>
-    <row r="186" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D186" s="37"/>
-      <c r="F186" s="37"/>
+      <c r="I185" s="24"/>
+      <c r="O185" s="24"/>
+      <c r="P185" s="24"/>
+      <c r="Q185" s="24"/>
+    </row>
+    <row r="186" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D186" s="24"/>
+      <c r="F186" s="24"/>
       <c r="H186" s="21"/>
-      <c r="I186" s="37"/>
-      <c r="O186" s="37"/>
-      <c r="P186" s="37"/>
-      <c r="Q186" s="37"/>
-    </row>
-    <row r="187" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D187" s="37"/>
-      <c r="F187" s="37"/>
+      <c r="I186" s="24"/>
+      <c r="O186" s="24"/>
+      <c r="P186" s="24"/>
+      <c r="Q186" s="24"/>
+    </row>
+    <row r="187" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D187" s="24"/>
+      <c r="F187" s="24"/>
       <c r="H187" s="21"/>
-      <c r="I187" s="37"/>
-      <c r="O187" s="37"/>
-      <c r="P187" s="37"/>
-      <c r="Q187" s="37"/>
-    </row>
-    <row r="188" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D188" s="37"/>
-      <c r="F188" s="37"/>
+      <c r="I187" s="24"/>
+      <c r="O187" s="24"/>
+      <c r="P187" s="24"/>
+      <c r="Q187" s="24"/>
+    </row>
+    <row r="188" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D188" s="24"/>
+      <c r="F188" s="24"/>
       <c r="H188" s="21"/>
-      <c r="I188" s="37"/>
-      <c r="O188" s="37"/>
-      <c r="P188" s="37"/>
-      <c r="Q188" s="37"/>
-    </row>
-    <row r="189" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D189" s="37"/>
-      <c r="F189" s="37"/>
+      <c r="I188" s="24"/>
+      <c r="O188" s="24"/>
+      <c r="P188" s="24"/>
+      <c r="Q188" s="24"/>
+    </row>
+    <row r="189" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D189" s="24"/>
+      <c r="F189" s="24"/>
       <c r="H189" s="21"/>
-      <c r="I189" s="37"/>
-      <c r="O189" s="37"/>
-      <c r="P189" s="37"/>
-      <c r="Q189" s="37"/>
-    </row>
-    <row r="190" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D190" s="37"/>
-      <c r="F190" s="37"/>
+      <c r="I189" s="24"/>
+      <c r="O189" s="24"/>
+      <c r="P189" s="24"/>
+      <c r="Q189" s="24"/>
+    </row>
+    <row r="190" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D190" s="24"/>
+      <c r="F190" s="24"/>
       <c r="H190" s="21"/>
-      <c r="I190" s="37"/>
-      <c r="O190" s="37"/>
-      <c r="P190" s="37"/>
-      <c r="Q190" s="37"/>
-    </row>
-    <row r="191" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D191" s="37"/>
-      <c r="F191" s="37"/>
+      <c r="I190" s="24"/>
+      <c r="O190" s="24"/>
+      <c r="P190" s="24"/>
+      <c r="Q190" s="24"/>
+    </row>
+    <row r="191" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D191" s="24"/>
+      <c r="F191" s="24"/>
       <c r="H191" s="21"/>
-      <c r="I191" s="37"/>
-      <c r="O191" s="37"/>
-      <c r="P191" s="37"/>
-      <c r="Q191" s="37"/>
-    </row>
-    <row r="192" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D192" s="37"/>
-      <c r="F192" s="37"/>
+      <c r="I191" s="24"/>
+      <c r="O191" s="24"/>
+      <c r="P191" s="24"/>
+      <c r="Q191" s="24"/>
+    </row>
+    <row r="192" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D192" s="24"/>
+      <c r="F192" s="24"/>
       <c r="H192" s="21"/>
-      <c r="I192" s="37"/>
-      <c r="O192" s="37"/>
-      <c r="P192" s="37"/>
-      <c r="Q192" s="37"/>
-    </row>
-    <row r="193" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D193" s="37"/>
-      <c r="F193" s="37"/>
+      <c r="I192" s="24"/>
+      <c r="O192" s="24"/>
+      <c r="P192" s="24"/>
+      <c r="Q192" s="24"/>
+    </row>
+    <row r="193" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D193" s="24"/>
+      <c r="F193" s="24"/>
       <c r="H193" s="21"/>
-      <c r="I193" s="37"/>
-      <c r="O193" s="37"/>
-      <c r="P193" s="37"/>
-      <c r="Q193" s="37"/>
-    </row>
-    <row r="194" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D194" s="37"/>
-      <c r="F194" s="37"/>
+      <c r="I193" s="24"/>
+      <c r="O193" s="24"/>
+      <c r="P193" s="24"/>
+      <c r="Q193" s="24"/>
+    </row>
+    <row r="194" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D194" s="24"/>
+      <c r="F194" s="24"/>
       <c r="H194" s="21"/>
-      <c r="I194" s="37"/>
-      <c r="O194" s="37"/>
-      <c r="P194" s="37"/>
-      <c r="Q194" s="37"/>
-    </row>
-    <row r="195" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D195" s="37"/>
-      <c r="F195" s="37"/>
+      <c r="I194" s="24"/>
+      <c r="O194" s="24"/>
+      <c r="P194" s="24"/>
+      <c r="Q194" s="24"/>
+    </row>
+    <row r="195" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D195" s="24"/>
+      <c r="F195" s="24"/>
       <c r="H195" s="21"/>
-      <c r="I195" s="37"/>
-      <c r="O195" s="37"/>
-      <c r="P195" s="37"/>
-      <c r="Q195" s="37"/>
-    </row>
-    <row r="196" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D196" s="37"/>
-      <c r="F196" s="37"/>
+      <c r="I195" s="24"/>
+      <c r="O195" s="24"/>
+      <c r="P195" s="24"/>
+      <c r="Q195" s="24"/>
+    </row>
+    <row r="196" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D196" s="24"/>
+      <c r="F196" s="24"/>
       <c r="H196" s="21"/>
-      <c r="I196" s="37"/>
-      <c r="O196" s="37"/>
-      <c r="P196" s="37"/>
-      <c r="Q196" s="37"/>
-    </row>
-    <row r="197" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D197" s="37"/>
-      <c r="F197" s="37"/>
+      <c r="I196" s="24"/>
+      <c r="O196" s="24"/>
+      <c r="P196" s="24"/>
+      <c r="Q196" s="24"/>
+    </row>
+    <row r="197" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D197" s="24"/>
+      <c r="F197" s="24"/>
       <c r="H197" s="21"/>
-      <c r="I197" s="37"/>
-      <c r="O197" s="37"/>
-      <c r="P197" s="37"/>
-      <c r="Q197" s="37"/>
-    </row>
-    <row r="198" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D198" s="37"/>
-      <c r="F198" s="37"/>
+      <c r="I197" s="24"/>
+      <c r="O197" s="24"/>
+      <c r="P197" s="24"/>
+      <c r="Q197" s="24"/>
+    </row>
+    <row r="198" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D198" s="24"/>
+      <c r="F198" s="24"/>
       <c r="H198" s="21"/>
-      <c r="I198" s="37"/>
-      <c r="O198" s="37"/>
-      <c r="P198" s="37"/>
-      <c r="Q198" s="37"/>
-    </row>
-    <row r="199" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D199" s="37"/>
-      <c r="F199" s="37"/>
+      <c r="I198" s="24"/>
+      <c r="O198" s="24"/>
+      <c r="P198" s="24"/>
+      <c r="Q198" s="24"/>
+    </row>
+    <row r="199" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D199" s="24"/>
+      <c r="F199" s="24"/>
       <c r="H199" s="21"/>
-      <c r="I199" s="37"/>
-      <c r="O199" s="37"/>
-      <c r="P199" s="37"/>
-      <c r="Q199" s="37"/>
-    </row>
-    <row r="200" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D200" s="37"/>
-      <c r="F200" s="37"/>
+      <c r="I199" s="24"/>
+      <c r="O199" s="24"/>
+      <c r="P199" s="24"/>
+      <c r="Q199" s="24"/>
+    </row>
+    <row r="200" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D200" s="24"/>
+      <c r="F200" s="24"/>
       <c r="H200" s="21"/>
-      <c r="I200" s="37"/>
-      <c r="O200" s="37"/>
-      <c r="P200" s="37"/>
-      <c r="Q200" s="37"/>
-    </row>
-    <row r="201" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D201" s="37"/>
-      <c r="F201" s="37"/>
+      <c r="I200" s="24"/>
+      <c r="O200" s="24"/>
+      <c r="P200" s="24"/>
+      <c r="Q200" s="24"/>
+    </row>
+    <row r="201" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D201" s="24"/>
+      <c r="F201" s="24"/>
       <c r="H201" s="21"/>
-      <c r="I201" s="37"/>
-      <c r="O201" s="37"/>
-      <c r="P201" s="37"/>
-      <c r="Q201" s="37"/>
-    </row>
-    <row r="202" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D202" s="37"/>
-      <c r="F202" s="37"/>
+      <c r="I201" s="24"/>
+      <c r="O201" s="24"/>
+      <c r="P201" s="24"/>
+      <c r="Q201" s="24"/>
+    </row>
+    <row r="202" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D202" s="24"/>
+      <c r="F202" s="24"/>
       <c r="H202" s="21"/>
-      <c r="I202" s="37"/>
-      <c r="O202" s="37"/>
-      <c r="P202" s="37"/>
-      <c r="Q202" s="37"/>
-    </row>
-    <row r="203" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D203" s="37"/>
-      <c r="F203" s="37"/>
+      <c r="I202" s="24"/>
+      <c r="O202" s="24"/>
+      <c r="P202" s="24"/>
+      <c r="Q202" s="24"/>
+    </row>
+    <row r="203" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D203" s="24"/>
+      <c r="F203" s="24"/>
       <c r="H203" s="21"/>
-      <c r="I203" s="37"/>
-      <c r="O203" s="37"/>
-      <c r="P203" s="37"/>
-      <c r="Q203" s="37"/>
-    </row>
-    <row r="204" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D204" s="37"/>
-      <c r="F204" s="37"/>
+      <c r="I203" s="24"/>
+      <c r="O203" s="24"/>
+      <c r="P203" s="24"/>
+      <c r="Q203" s="24"/>
+    </row>
+    <row r="204" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D204" s="24"/>
+      <c r="F204" s="24"/>
       <c r="H204" s="21"/>
-      <c r="I204" s="37"/>
-      <c r="O204" s="37"/>
-      <c r="P204" s="37"/>
-      <c r="Q204" s="37"/>
-    </row>
-    <row r="205" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D205" s="37"/>
-      <c r="F205" s="37"/>
+      <c r="I204" s="24"/>
+      <c r="O204" s="24"/>
+      <c r="P204" s="24"/>
+      <c r="Q204" s="24"/>
+    </row>
+    <row r="205" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D205" s="24"/>
+      <c r="F205" s="24"/>
       <c r="H205" s="21"/>
-      <c r="I205" s="37"/>
-      <c r="O205" s="37"/>
-      <c r="P205" s="37"/>
-      <c r="Q205" s="37"/>
-    </row>
-    <row r="206" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D206" s="37"/>
-      <c r="F206" s="37"/>
+      <c r="I205" s="24"/>
+      <c r="O205" s="24"/>
+      <c r="P205" s="24"/>
+      <c r="Q205" s="24"/>
+    </row>
+    <row r="206" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D206" s="24"/>
+      <c r="F206" s="24"/>
       <c r="H206" s="21"/>
-      <c r="I206" s="37"/>
-      <c r="O206" s="37"/>
-      <c r="P206" s="37"/>
-      <c r="Q206" s="37"/>
-    </row>
-    <row r="207" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D207" s="37"/>
-      <c r="F207" s="37"/>
+      <c r="I206" s="24"/>
+      <c r="O206" s="24"/>
+      <c r="P206" s="24"/>
+      <c r="Q206" s="24"/>
+    </row>
+    <row r="207" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D207" s="24"/>
+      <c r="F207" s="24"/>
       <c r="H207" s="21"/>
-      <c r="I207" s="37"/>
-      <c r="O207" s="37"/>
-      <c r="P207" s="37"/>
-      <c r="Q207" s="37"/>
-    </row>
-    <row r="208" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D208" s="37"/>
-      <c r="F208" s="37"/>
+      <c r="I207" s="24"/>
+      <c r="O207" s="24"/>
+      <c r="P207" s="24"/>
+      <c r="Q207" s="24"/>
+    </row>
+    <row r="208" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D208" s="24"/>
+      <c r="F208" s="24"/>
       <c r="H208" s="21"/>
-      <c r="I208" s="37"/>
-      <c r="O208" s="37"/>
-      <c r="P208" s="37"/>
-      <c r="Q208" s="37"/>
-    </row>
-    <row r="209" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D209" s="37"/>
-      <c r="F209" s="37"/>
+      <c r="I208" s="24"/>
+      <c r="O208" s="24"/>
+      <c r="P208" s="24"/>
+      <c r="Q208" s="24"/>
+    </row>
+    <row r="209" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D209" s="24"/>
+      <c r="F209" s="24"/>
       <c r="H209" s="21"/>
-      <c r="I209" s="37"/>
-      <c r="O209" s="37"/>
-      <c r="P209" s="37"/>
-      <c r="Q209" s="37"/>
-    </row>
-    <row r="210" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D210" s="37"/>
-      <c r="F210" s="37"/>
+      <c r="I209" s="24"/>
+      <c r="O209" s="24"/>
+      <c r="P209" s="24"/>
+      <c r="Q209" s="24"/>
+    </row>
+    <row r="210" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D210" s="24"/>
+      <c r="F210" s="24"/>
       <c r="H210" s="21"/>
-      <c r="I210" s="37"/>
-      <c r="O210" s="37"/>
-      <c r="P210" s="37"/>
-      <c r="Q210" s="37"/>
-    </row>
-    <row r="211" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D211" s="37"/>
-      <c r="F211" s="37"/>
+      <c r="I210" s="24"/>
+      <c r="O210" s="24"/>
+      <c r="P210" s="24"/>
+      <c r="Q210" s="24"/>
+    </row>
+    <row r="211" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D211" s="24"/>
+      <c r="F211" s="24"/>
       <c r="H211" s="21"/>
-      <c r="I211" s="37"/>
-      <c r="O211" s="37"/>
-      <c r="P211" s="37"/>
-      <c r="Q211" s="37"/>
-    </row>
-    <row r="212" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D212" s="37"/>
-      <c r="F212" s="37"/>
+      <c r="I211" s="24"/>
+      <c r="O211" s="24"/>
+      <c r="P211" s="24"/>
+      <c r="Q211" s="24"/>
+    </row>
+    <row r="212" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D212" s="24"/>
+      <c r="F212" s="24"/>
       <c r="H212" s="21"/>
-      <c r="I212" s="37"/>
-      <c r="O212" s="37"/>
-      <c r="P212" s="37"/>
-      <c r="Q212" s="37"/>
-    </row>
-    <row r="213" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D213" s="37"/>
-      <c r="F213" s="37"/>
+      <c r="I212" s="24"/>
+      <c r="O212" s="24"/>
+      <c r="P212" s="24"/>
+      <c r="Q212" s="24"/>
+    </row>
+    <row r="213" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D213" s="24"/>
+      <c r="F213" s="24"/>
       <c r="H213" s="21"/>
-      <c r="I213" s="37"/>
-      <c r="O213" s="37"/>
-      <c r="P213" s="37"/>
-      <c r="Q213" s="37"/>
-    </row>
-    <row r="214" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D214" s="37"/>
-      <c r="F214" s="37"/>
+      <c r="I213" s="24"/>
+      <c r="O213" s="24"/>
+      <c r="P213" s="24"/>
+      <c r="Q213" s="24"/>
+    </row>
+    <row r="214" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D214" s="24"/>
+      <c r="F214" s="24"/>
       <c r="H214" s="21"/>
-      <c r="I214" s="37"/>
-      <c r="O214" s="37"/>
-      <c r="P214" s="37"/>
-      <c r="Q214" s="37"/>
-    </row>
-    <row r="215" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D215" s="37"/>
-      <c r="F215" s="37"/>
+      <c r="I214" s="24"/>
+      <c r="O214" s="24"/>
+      <c r="P214" s="24"/>
+      <c r="Q214" s="24"/>
+    </row>
+    <row r="215" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D215" s="24"/>
+      <c r="F215" s="24"/>
       <c r="H215" s="21"/>
-      <c r="I215" s="37"/>
-      <c r="O215" s="37"/>
-      <c r="P215" s="37"/>
-      <c r="Q215" s="37"/>
-    </row>
-    <row r="216" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D216" s="37"/>
-      <c r="F216" s="37"/>
+      <c r="I215" s="24"/>
+      <c r="O215" s="24"/>
+      <c r="P215" s="24"/>
+      <c r="Q215" s="24"/>
+    </row>
+    <row r="216" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D216" s="24"/>
+      <c r="F216" s="24"/>
       <c r="H216" s="21"/>
-      <c r="I216" s="37"/>
-      <c r="O216" s="37"/>
-      <c r="P216" s="37"/>
-      <c r="Q216" s="37"/>
-    </row>
-    <row r="217" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D217" s="37"/>
-      <c r="F217" s="37"/>
+      <c r="I216" s="24"/>
+      <c r="O216" s="24"/>
+      <c r="P216" s="24"/>
+      <c r="Q216" s="24"/>
+    </row>
+    <row r="217" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D217" s="24"/>
+      <c r="F217" s="24"/>
       <c r="H217" s="21"/>
-      <c r="I217" s="37"/>
-      <c r="O217" s="37"/>
-      <c r="P217" s="37"/>
-      <c r="Q217" s="37"/>
-    </row>
-    <row r="218" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D218" s="37"/>
-      <c r="F218" s="37"/>
+      <c r="I217" s="24"/>
+      <c r="O217" s="24"/>
+      <c r="P217" s="24"/>
+      <c r="Q217" s="24"/>
+    </row>
+    <row r="218" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D218" s="24"/>
+      <c r="F218" s="24"/>
       <c r="H218" s="21"/>
-      <c r="I218" s="37"/>
-      <c r="O218" s="37"/>
-      <c r="P218" s="37"/>
-      <c r="Q218" s="37"/>
-    </row>
-    <row r="219" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D219" s="37"/>
-      <c r="F219" s="37"/>
+      <c r="I218" s="24"/>
+      <c r="O218" s="24"/>
+      <c r="P218" s="24"/>
+      <c r="Q218" s="24"/>
+    </row>
+    <row r="219" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D219" s="24"/>
+      <c r="F219" s="24"/>
       <c r="H219" s="21"/>
-      <c r="I219" s="37"/>
-      <c r="O219" s="37"/>
-      <c r="P219" s="37"/>
-      <c r="Q219" s="37"/>
-    </row>
-    <row r="220" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D220" s="37"/>
-      <c r="F220" s="37"/>
+      <c r="I219" s="24"/>
+      <c r="O219" s="24"/>
+      <c r="P219" s="24"/>
+      <c r="Q219" s="24"/>
+    </row>
+    <row r="220" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D220" s="24"/>
+      <c r="F220" s="24"/>
       <c r="H220" s="21"/>
-      <c r="I220" s="37"/>
-      <c r="O220" s="37"/>
-      <c r="P220" s="37"/>
-      <c r="Q220" s="37"/>
-    </row>
-    <row r="221" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D221" s="37"/>
-      <c r="F221" s="37"/>
+      <c r="I220" s="24"/>
+      <c r="O220" s="24"/>
+      <c r="P220" s="24"/>
+      <c r="Q220" s="24"/>
+    </row>
+    <row r="221" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D221" s="24"/>
+      <c r="F221" s="24"/>
       <c r="H221" s="21"/>
-      <c r="I221" s="37"/>
-      <c r="O221" s="37"/>
-      <c r="P221" s="37"/>
-      <c r="Q221" s="37"/>
-    </row>
-    <row r="222" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D222" s="37"/>
-      <c r="F222" s="37"/>
+      <c r="I221" s="24"/>
+      <c r="O221" s="24"/>
+      <c r="P221" s="24"/>
+      <c r="Q221" s="24"/>
+    </row>
+    <row r="222" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D222" s="24"/>
+      <c r="F222" s="24"/>
       <c r="H222" s="21"/>
-      <c r="I222" s="37"/>
-      <c r="O222" s="37"/>
-      <c r="P222" s="37"/>
-      <c r="Q222" s="37"/>
-    </row>
-    <row r="223" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D223" s="37"/>
-      <c r="F223" s="37"/>
+      <c r="I222" s="24"/>
+      <c r="O222" s="24"/>
+      <c r="P222" s="24"/>
+      <c r="Q222" s="24"/>
+    </row>
+    <row r="223" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D223" s="24"/>
+      <c r="F223" s="24"/>
       <c r="H223" s="21"/>
-      <c r="I223" s="37"/>
-      <c r="O223" s="37"/>
-      <c r="P223" s="37"/>
-      <c r="Q223" s="37"/>
-    </row>
-    <row r="224" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D224" s="37"/>
-      <c r="F224" s="37"/>
+      <c r="I223" s="24"/>
+      <c r="O223" s="24"/>
+      <c r="P223" s="24"/>
+      <c r="Q223" s="24"/>
+    </row>
+    <row r="224" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D224" s="24"/>
+      <c r="F224" s="24"/>
       <c r="H224" s="21"/>
-      <c r="I224" s="37"/>
-      <c r="O224" s="37"/>
-      <c r="P224" s="37"/>
-      <c r="Q224" s="37"/>
-    </row>
-    <row r="225" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D225" s="37"/>
-      <c r="F225" s="37"/>
+      <c r="I224" s="24"/>
+      <c r="O224" s="24"/>
+      <c r="P224" s="24"/>
+      <c r="Q224" s="24"/>
+    </row>
+    <row r="225" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D225" s="24"/>
+      <c r="F225" s="24"/>
       <c r="H225" s="21"/>
-      <c r="I225" s="37"/>
-      <c r="O225" s="37"/>
-      <c r="P225" s="37"/>
-      <c r="Q225" s="37"/>
-    </row>
-    <row r="226" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D226" s="37"/>
-      <c r="F226" s="37"/>
+      <c r="I225" s="24"/>
+      <c r="O225" s="24"/>
+      <c r="P225" s="24"/>
+      <c r="Q225" s="24"/>
+    </row>
+    <row r="226" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D226" s="24"/>
+      <c r="F226" s="24"/>
       <c r="H226" s="21"/>
-      <c r="I226" s="37"/>
-      <c r="O226" s="37"/>
-      <c r="P226" s="37"/>
-      <c r="Q226" s="37"/>
-    </row>
-    <row r="227" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D227" s="37"/>
-      <c r="F227" s="37"/>
+      <c r="I226" s="24"/>
+      <c r="O226" s="24"/>
+      <c r="P226" s="24"/>
+      <c r="Q226" s="24"/>
+    </row>
+    <row r="227" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D227" s="24"/>
+      <c r="F227" s="24"/>
       <c r="H227" s="21"/>
-      <c r="I227" s="37"/>
-      <c r="O227" s="37"/>
-      <c r="P227" s="37"/>
-      <c r="Q227" s="37"/>
-    </row>
-    <row r="228" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D228" s="37"/>
-      <c r="F228" s="37"/>
+      <c r="I227" s="24"/>
+      <c r="O227" s="24"/>
+      <c r="P227" s="24"/>
+      <c r="Q227" s="24"/>
+    </row>
+    <row r="228" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D228" s="24"/>
+      <c r="F228" s="24"/>
       <c r="H228" s="21"/>
-      <c r="I228" s="37"/>
-      <c r="O228" s="37"/>
-      <c r="P228" s="37"/>
-      <c r="Q228" s="37"/>
-    </row>
-    <row r="229" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D229" s="37"/>
-      <c r="F229" s="37"/>
+      <c r="I228" s="24"/>
+      <c r="O228" s="24"/>
+      <c r="P228" s="24"/>
+      <c r="Q228" s="24"/>
+    </row>
+    <row r="229" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D229" s="24"/>
+      <c r="F229" s="24"/>
       <c r="H229" s="21"/>
-      <c r="I229" s="37"/>
-      <c r="O229" s="37"/>
-      <c r="P229" s="37"/>
-      <c r="Q229" s="37"/>
-    </row>
-    <row r="230" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D230" s="37"/>
-      <c r="F230" s="37"/>
+      <c r="I229" s="24"/>
+      <c r="O229" s="24"/>
+      <c r="P229" s="24"/>
+      <c r="Q229" s="24"/>
+    </row>
+    <row r="230" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D230" s="24"/>
+      <c r="F230" s="24"/>
       <c r="H230" s="21"/>
-      <c r="I230" s="37"/>
-      <c r="O230" s="37"/>
-      <c r="P230" s="37"/>
-      <c r="Q230" s="37"/>
-    </row>
-    <row r="231" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D231" s="37"/>
-      <c r="F231" s="37"/>
+      <c r="I230" s="24"/>
+      <c r="O230" s="24"/>
+      <c r="P230" s="24"/>
+      <c r="Q230" s="24"/>
+    </row>
+    <row r="231" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D231" s="24"/>
+      <c r="F231" s="24"/>
       <c r="H231" s="21"/>
-      <c r="I231" s="37"/>
-      <c r="O231" s="37"/>
-      <c r="P231" s="37"/>
-      <c r="Q231" s="37"/>
-    </row>
-    <row r="232" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D232" s="37"/>
-      <c r="F232" s="37"/>
+      <c r="I231" s="24"/>
+      <c r="O231" s="24"/>
+      <c r="P231" s="24"/>
+      <c r="Q231" s="24"/>
+    </row>
+    <row r="232" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D232" s="24"/>
+      <c r="F232" s="24"/>
       <c r="H232" s="21"/>
-      <c r="I232" s="37"/>
-      <c r="O232" s="37"/>
-      <c r="P232" s="37"/>
-      <c r="Q232" s="37"/>
-    </row>
-    <row r="233" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D233" s="37"/>
-      <c r="F233" s="37"/>
+      <c r="I232" s="24"/>
+      <c r="O232" s="24"/>
+      <c r="P232" s="24"/>
+      <c r="Q232" s="24"/>
+    </row>
+    <row r="233" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D233" s="24"/>
+      <c r="F233" s="24"/>
       <c r="H233" s="21"/>
-      <c r="I233" s="37"/>
-      <c r="O233" s="37"/>
-      <c r="P233" s="37"/>
-      <c r="Q233" s="37"/>
-    </row>
-    <row r="234" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D234" s="37"/>
-      <c r="F234" s="37"/>
+      <c r="I233" s="24"/>
+      <c r="O233" s="24"/>
+      <c r="P233" s="24"/>
+      <c r="Q233" s="24"/>
+    </row>
+    <row r="234" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D234" s="24"/>
+      <c r="F234" s="24"/>
       <c r="H234" s="21"/>
-      <c r="I234" s="37"/>
-      <c r="O234" s="37"/>
-      <c r="P234" s="37"/>
-      <c r="Q234" s="37"/>
-    </row>
-    <row r="235" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D235" s="37"/>
-      <c r="F235" s="37"/>
+      <c r="I234" s="24"/>
+      <c r="O234" s="24"/>
+      <c r="P234" s="24"/>
+      <c r="Q234" s="24"/>
+    </row>
+    <row r="235" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D235" s="24"/>
+      <c r="F235" s="24"/>
       <c r="H235" s="21"/>
-      <c r="I235" s="37"/>
-      <c r="O235" s="37"/>
-      <c r="P235" s="37"/>
-      <c r="Q235" s="37"/>
-    </row>
-    <row r="236" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D236" s="37"/>
-      <c r="F236" s="37"/>
+      <c r="I235" s="24"/>
+      <c r="O235" s="24"/>
+      <c r="P235" s="24"/>
+      <c r="Q235" s="24"/>
+    </row>
+    <row r="236" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D236" s="24"/>
+      <c r="F236" s="24"/>
       <c r="H236" s="21"/>
-      <c r="I236" s="37"/>
-      <c r="O236" s="37"/>
-      <c r="P236" s="37"/>
-      <c r="Q236" s="37"/>
-    </row>
-    <row r="237" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D237" s="37"/>
-      <c r="F237" s="37"/>
+      <c r="I236" s="24"/>
+      <c r="O236" s="24"/>
+      <c r="P236" s="24"/>
+      <c r="Q236" s="24"/>
+    </row>
+    <row r="237" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D237" s="24"/>
+      <c r="F237" s="24"/>
       <c r="H237" s="21"/>
-      <c r="I237" s="37"/>
-      <c r="O237" s="37"/>
-      <c r="P237" s="37"/>
-      <c r="Q237" s="37"/>
-    </row>
-    <row r="238" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D238" s="37"/>
-      <c r="F238" s="37"/>
+      <c r="I237" s="24"/>
+      <c r="O237" s="24"/>
+      <c r="P237" s="24"/>
+      <c r="Q237" s="24"/>
+    </row>
+    <row r="238" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D238" s="24"/>
+      <c r="F238" s="24"/>
       <c r="H238" s="21"/>
-      <c r="I238" s="37"/>
-      <c r="O238" s="37"/>
-      <c r="P238" s="37"/>
-      <c r="Q238" s="37"/>
-    </row>
-    <row r="239" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D239" s="37"/>
-      <c r="F239" s="37"/>
+      <c r="I238" s="24"/>
+      <c r="O238" s="24"/>
+      <c r="P238" s="24"/>
+      <c r="Q238" s="24"/>
+    </row>
+    <row r="239" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D239" s="24"/>
+      <c r="F239" s="24"/>
       <c r="H239" s="21"/>
-      <c r="I239" s="37"/>
-      <c r="O239" s="37"/>
-      <c r="P239" s="37"/>
-      <c r="Q239" s="37"/>
-    </row>
-    <row r="240" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D240" s="37"/>
-      <c r="F240" s="37"/>
+      <c r="I239" s="24"/>
+      <c r="O239" s="24"/>
+      <c r="P239" s="24"/>
+      <c r="Q239" s="24"/>
+    </row>
+    <row r="240" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D240" s="24"/>
+      <c r="F240" s="24"/>
       <c r="H240" s="21"/>
-      <c r="I240" s="37"/>
-      <c r="O240" s="37"/>
-      <c r="P240" s="37"/>
-      <c r="Q240" s="37"/>
-    </row>
-    <row r="241" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D241" s="37"/>
-      <c r="F241" s="37"/>
+      <c r="I240" s="24"/>
+      <c r="O240" s="24"/>
+      <c r="P240" s="24"/>
+      <c r="Q240" s="24"/>
+    </row>
+    <row r="241" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D241" s="24"/>
+      <c r="F241" s="24"/>
       <c r="H241" s="21"/>
-      <c r="I241" s="37"/>
-      <c r="O241" s="37"/>
-      <c r="P241" s="37"/>
-      <c r="Q241" s="37"/>
-    </row>
-    <row r="242" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D242" s="37"/>
-      <c r="F242" s="37"/>
+      <c r="I241" s="24"/>
+      <c r="O241" s="24"/>
+      <c r="P241" s="24"/>
+      <c r="Q241" s="24"/>
+    </row>
+    <row r="242" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D242" s="24"/>
+      <c r="F242" s="24"/>
       <c r="H242" s="21"/>
-      <c r="I242" s="37"/>
-      <c r="O242" s="37"/>
-      <c r="P242" s="37"/>
-      <c r="Q242" s="37"/>
-    </row>
-    <row r="243" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D243" s="37"/>
-      <c r="F243" s="37"/>
+      <c r="I242" s="24"/>
+      <c r="O242" s="24"/>
+      <c r="P242" s="24"/>
+      <c r="Q242" s="24"/>
+    </row>
+    <row r="243" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D243" s="24"/>
+      <c r="F243" s="24"/>
       <c r="H243" s="21"/>
-      <c r="I243" s="37"/>
-      <c r="O243" s="37"/>
-      <c r="P243" s="37"/>
-      <c r="Q243" s="37"/>
-    </row>
-    <row r="244" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D244" s="37"/>
-      <c r="F244" s="37"/>
+      <c r="I243" s="24"/>
+      <c r="O243" s="24"/>
+      <c r="P243" s="24"/>
+      <c r="Q243" s="24"/>
+    </row>
+    <row r="244" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D244" s="24"/>
+      <c r="F244" s="24"/>
       <c r="H244" s="21"/>
-      <c r="I244" s="37"/>
-      <c r="O244" s="37"/>
-      <c r="P244" s="37"/>
-      <c r="Q244" s="37"/>
-    </row>
-    <row r="245" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D245" s="37"/>
-      <c r="F245" s="37"/>
+      <c r="I244" s="24"/>
+      <c r="O244" s="24"/>
+      <c r="P244" s="24"/>
+      <c r="Q244" s="24"/>
+    </row>
+    <row r="245" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D245" s="24"/>
+      <c r="F245" s="24"/>
       <c r="H245" s="21"/>
-      <c r="I245" s="37"/>
-      <c r="O245" s="37"/>
-      <c r="P245" s="37"/>
-      <c r="Q245" s="37"/>
-    </row>
-    <row r="246" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D246" s="37"/>
-      <c r="F246" s="37"/>
+      <c r="I245" s="24"/>
+      <c r="O245" s="24"/>
+      <c r="P245" s="24"/>
+      <c r="Q245" s="24"/>
+    </row>
+    <row r="246" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D246" s="24"/>
+      <c r="F246" s="24"/>
       <c r="H246" s="21"/>
-      <c r="I246" s="37"/>
-      <c r="O246" s="37"/>
-      <c r="P246" s="37"/>
-      <c r="Q246" s="37"/>
-    </row>
-    <row r="247" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D247" s="37"/>
-      <c r="F247" s="37"/>
+      <c r="I246" s="24"/>
+      <c r="O246" s="24"/>
+      <c r="P246" s="24"/>
+      <c r="Q246" s="24"/>
+    </row>
+    <row r="247" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D247" s="24"/>
+      <c r="F247" s="24"/>
       <c r="H247" s="21"/>
-      <c r="I247" s="37"/>
-      <c r="O247" s="37"/>
-      <c r="P247" s="37"/>
-      <c r="Q247" s="37"/>
-    </row>
-    <row r="248" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D248" s="37"/>
-      <c r="F248" s="37"/>
+      <c r="I247" s="24"/>
+      <c r="O247" s="24"/>
+      <c r="P247" s="24"/>
+      <c r="Q247" s="24"/>
+    </row>
+    <row r="248" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D248" s="24"/>
+      <c r="F248" s="24"/>
       <c r="H248" s="21"/>
-      <c r="I248" s="37"/>
-      <c r="O248" s="37"/>
-      <c r="P248" s="37"/>
-      <c r="Q248" s="37"/>
-    </row>
-    <row r="249" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D249" s="37"/>
-      <c r="F249" s="37"/>
+      <c r="I248" s="24"/>
+      <c r="O248" s="24"/>
+      <c r="P248" s="24"/>
+      <c r="Q248" s="24"/>
+    </row>
+    <row r="249" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D249" s="24"/>
+      <c r="F249" s="24"/>
       <c r="H249" s="21"/>
-      <c r="I249" s="37"/>
-      <c r="O249" s="37"/>
-      <c r="P249" s="37"/>
-      <c r="Q249" s="37"/>
-    </row>
-    <row r="250" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D250" s="37"/>
-      <c r="F250" s="37"/>
+      <c r="I249" s="24"/>
+      <c r="O249" s="24"/>
+      <c r="P249" s="24"/>
+      <c r="Q249" s="24"/>
+    </row>
+    <row r="250" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D250" s="24"/>
+      <c r="F250" s="24"/>
       <c r="H250" s="21"/>
-      <c r="I250" s="37"/>
-      <c r="O250" s="37"/>
-      <c r="P250" s="37"/>
-      <c r="Q250" s="37"/>
-    </row>
-    <row r="251" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D251" s="37"/>
-      <c r="F251" s="37"/>
+      <c r="I250" s="24"/>
+      <c r="O250" s="24"/>
+      <c r="P250" s="24"/>
+      <c r="Q250" s="24"/>
+    </row>
+    <row r="251" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D251" s="24"/>
+      <c r="F251" s="24"/>
       <c r="H251" s="21"/>
-      <c r="I251" s="37"/>
-      <c r="O251" s="37"/>
-      <c r="P251" s="37"/>
-      <c r="Q251" s="37"/>
-    </row>
-    <row r="252" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D252" s="37"/>
-      <c r="F252" s="37"/>
+      <c r="I251" s="24"/>
+      <c r="O251" s="24"/>
+      <c r="P251" s="24"/>
+      <c r="Q251" s="24"/>
+    </row>
+    <row r="252" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D252" s="24"/>
+      <c r="F252" s="24"/>
       <c r="H252" s="21"/>
-      <c r="I252" s="37"/>
-      <c r="O252" s="37"/>
-      <c r="P252" s="37"/>
-      <c r="Q252" s="37"/>
-    </row>
-    <row r="253" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D253" s="37"/>
-      <c r="F253" s="37"/>
+      <c r="I252" s="24"/>
+      <c r="O252" s="24"/>
+      <c r="P252" s="24"/>
+      <c r="Q252" s="24"/>
+    </row>
+    <row r="253" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D253" s="24"/>
+      <c r="F253" s="24"/>
       <c r="H253" s="21"/>
-      <c r="I253" s="37"/>
-      <c r="O253" s="37"/>
-      <c r="P253" s="37"/>
-      <c r="Q253" s="37"/>
-    </row>
-    <row r="254" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D254" s="37"/>
-      <c r="F254" s="37"/>
+      <c r="I253" s="24"/>
+      <c r="O253" s="24"/>
+      <c r="P253" s="24"/>
+      <c r="Q253" s="24"/>
+    </row>
+    <row r="254" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D254" s="24"/>
+      <c r="F254" s="24"/>
       <c r="H254" s="21"/>
-      <c r="I254" s="37"/>
-      <c r="O254" s="37"/>
-      <c r="P254" s="37"/>
-      <c r="Q254" s="37"/>
-    </row>
-    <row r="255" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D255" s="37"/>
-      <c r="F255" s="37"/>
+      <c r="I254" s="24"/>
+      <c r="O254" s="24"/>
+      <c r="P254" s="24"/>
+      <c r="Q254" s="24"/>
+    </row>
+    <row r="255" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D255" s="24"/>
+      <c r="F255" s="24"/>
       <c r="H255" s="21"/>
-      <c r="I255" s="37"/>
-      <c r="O255" s="37"/>
-      <c r="P255" s="37"/>
-      <c r="Q255" s="37"/>
-    </row>
-    <row r="256" spans="4:17" x14ac:dyDescent="0.5">
-      <c r="D256" s="37"/>
-      <c r="F256" s="37"/>
+      <c r="I255" s="24"/>
+      <c r="O255" s="24"/>
+      <c r="P255" s="24"/>
+      <c r="Q255" s="24"/>
+    </row>
+    <row r="256" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D256" s="24"/>
+      <c r="F256" s="24"/>
       <c r="H256" s="21"/>
-      <c r="I256" s="37"/>
-      <c r="O256" s="37"/>
-      <c r="P256" s="37"/>
-      <c r="Q256" s="37"/>
-    </row>
-    <row r="257" spans="4:22" x14ac:dyDescent="0.5">
-      <c r="D257" s="37"/>
-      <c r="F257" s="37"/>
+      <c r="I256" s="24"/>
+      <c r="O256" s="24"/>
+      <c r="P256" s="24"/>
+      <c r="Q256" s="24"/>
+    </row>
+    <row r="257" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D257" s="24"/>
+      <c r="F257" s="24"/>
       <c r="H257" s="21"/>
-      <c r="I257" s="37"/>
-      <c r="O257" s="37"/>
-      <c r="P257" s="37"/>
-      <c r="Q257" s="37"/>
-    </row>
-    <row r="258" spans="4:22" x14ac:dyDescent="0.5">
-      <c r="D258" s="37"/>
-      <c r="F258" s="37"/>
+      <c r="I257" s="24"/>
+      <c r="O257" s="24"/>
+      <c r="P257" s="24"/>
+      <c r="Q257" s="24"/>
+    </row>
+    <row r="258" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D258" s="24"/>
+      <c r="F258" s="24"/>
       <c r="H258" s="21"/>
-      <c r="I258" s="37"/>
-      <c r="O258" s="37"/>
-      <c r="P258" s="37"/>
-      <c r="Q258" s="37"/>
-    </row>
-    <row r="266" spans="4:22" x14ac:dyDescent="0.5">
-      <c r="P266" s="65"/>
-      <c r="Q266" s="65"/>
-      <c r="R266" s="65"/>
-      <c r="S266" s="65"/>
-      <c r="T266" s="65"/>
-      <c r="U266" s="65"/>
-      <c r="V266" s="65"/>
+      <c r="I258" s="24"/>
+      <c r="O258" s="24"/>
+      <c r="P258" s="24"/>
+      <c r="Q258" s="24"/>
+    </row>
+    <row r="266" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="P266" s="40"/>
+      <c r="Q266" s="40"/>
+      <c r="R266" s="40"/>
+      <c r="S266" s="40"/>
+      <c r="T266" s="40"/>
+      <c r="U266" s="40"/>
+      <c r="V266" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6315,12 +6321,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6337,7 +6337,7 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P29 K3:K44 I3:I44 P31:P44</xm:sqref>
+          <xm:sqref>P31:P44 K3:K44 I3:I44 P3:P29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6371,27 +6371,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="1"/>
-    <col min="14" max="14" width="24.265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6432,7 +6432,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -6470,7 +6470,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -6486,7 +6486,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -6503,7 +6503,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -6535,7 +6535,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -6550,7 +6550,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6565,7 +6565,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6580,7 +6580,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6595,7 +6595,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -6610,7 +6610,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6625,7 +6625,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6640,7 +6640,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6655,7 +6655,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -6669,7 +6669,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -6683,7 +6683,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -6697,7 +6697,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -6711,7 +6711,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6726,7 +6726,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6741,7 +6741,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6756,7 +6756,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -6771,7 +6771,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -6786,7 +6786,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -6801,7 +6801,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -6816,7 +6816,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6831,7 +6831,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -6846,7 +6846,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -6861,7 +6861,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -6876,7 +6876,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -6891,7 +6891,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -6906,7 +6906,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -6921,7 +6921,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -6936,7 +6936,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -6951,7 +6951,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -6966,7 +6966,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -6981,7 +6981,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -6996,7 +6996,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -7011,7 +7011,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -7026,7 +7026,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -7041,7 +7041,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -7056,7 +7056,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -7071,7 +7071,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -7086,7 +7086,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -7101,7 +7101,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -7116,7 +7116,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -7131,7 +7131,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -7143,7 +7143,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -7155,7 +7155,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -7168,7 +7168,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -7181,7 +7181,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -7194,7 +7194,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -7207,7 +7207,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -7220,7 +7220,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -7233,7 +7233,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -7246,7 +7246,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -7259,7 +7259,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -7272,7 +7272,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -7285,7 +7285,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -7298,7 +7298,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -7311,7 +7311,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -7324,7 +7324,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -7337,7 +7337,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -7350,7 +7350,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -7363,7 +7363,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -7376,7 +7376,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -7389,7 +7389,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -7402,7 +7402,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -7415,7 +7415,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7429,7 +7429,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7443,7 +7443,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7457,7 +7457,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7471,7 +7471,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7485,7 +7485,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7499,7 +7499,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7513,7 +7513,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7527,7 +7527,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7541,7 +7541,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7555,7 +7555,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7569,7 +7569,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7583,7 +7583,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7597,7 +7597,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7611,7 +7611,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7625,7 +7625,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7639,7 +7639,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7653,7 +7653,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7667,7 +7667,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7681,7 +7681,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7695,7 +7695,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7709,7 +7709,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7723,7 +7723,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7737,7 +7737,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7751,7 +7751,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7765,7 +7765,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7779,7 +7779,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7793,7 +7793,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7807,7 +7807,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7821,7 +7821,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7835,7 +7835,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7849,7 +7849,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7863,7 +7863,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7877,7 +7877,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7891,7 +7891,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7905,7 +7905,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7919,7 +7919,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7933,7 +7933,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -7947,7 +7947,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -7961,7 +7961,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -7975,7 +7975,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -7989,7 +7989,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -8003,7 +8003,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -8017,7 +8017,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -8031,7 +8031,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -8045,7 +8045,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -8059,7 +8059,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -8073,7 +8073,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -8087,7 +8087,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -8101,7 +8101,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -8115,7 +8115,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -8129,7 +8129,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -8143,7 +8143,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8157,7 +8157,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8171,7 +8171,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8185,7 +8185,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -8199,7 +8199,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -8213,7 +8213,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8227,7 +8227,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8241,7 +8241,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8255,7 +8255,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8269,7 +8269,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8283,7 +8283,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado08/guion07/Escaleta_LE_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/Escaleta_LE_08_07_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="330">
   <si>
     <t>Asignatura</t>
   </si>
@@ -482,15 +482,6 @@
     <t>Escribe un ensayo</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: el ensayo</t>
-  </si>
-  <si>
-    <t>Producción textual: Ordena los argumentos de un ensayo</t>
-  </si>
-  <si>
-    <t>Banco de actividades: El ensayo</t>
-  </si>
-  <si>
     <t>Mapa conceptual del tema El ensayo</t>
   </si>
   <si>
@@ -527,12 +518,6 @@
     <t>LC_10_10</t>
   </si>
   <si>
-    <t>Interactivo que sirve para esquematizar los pasos a realizar en el análisis de oraciones compuestas</t>
-  </si>
-  <si>
-    <t>Identifica los nexos de las oraciones compuestas</t>
-  </si>
-  <si>
     <t>Los medios de comunicación</t>
   </si>
   <si>
@@ -557,9 +542,6 @@
     <t>LC_09_18</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Identifica el tipo de oración compuesta</t>
-  </si>
-  <si>
     <t>La literatura medieval</t>
   </si>
   <si>
@@ -569,9 +551,6 @@
     <t>LC_09_04</t>
   </si>
   <si>
-    <t>Actividad para analizar e identificar el tipo de oración compuesta</t>
-  </si>
-  <si>
     <t>Ordena oraciones compuestas según nexos y signos de puntuación</t>
   </si>
   <si>
@@ -581,9 +560,6 @@
     <t>El paréntesis, el guion y la raya</t>
   </si>
   <si>
-    <t>Interactivo que expone el uso de lo signos de puntuación</t>
-  </si>
-  <si>
     <t>La ortografía</t>
   </si>
   <si>
@@ -593,15 +569,6 @@
     <t>Practica los usos del paréntesis, del guion y la raya</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Practica los usos del paréntesis, del guion y la raya</t>
-  </si>
-  <si>
-    <t>Actividad para practicar el uso correcto de los signos de puntuación</t>
-  </si>
-  <si>
-    <t>Ortografía: Define algunos signos de puntuación</t>
-  </si>
-  <si>
     <t>El reportaje</t>
   </si>
   <si>
@@ -614,9 +581,6 @@
     <t xml:space="preserve">Revisar el recurso y ajustar el vocabulario y el lenguaje a nuestro contexto. Si considera pertinente ampliarlo lo puede hacer. Remplazar la definición de comillas por el signo faltante de acuerdo al tema visto. </t>
   </si>
   <si>
-    <t>Actividad para distinguir los signos de puntuación</t>
-  </si>
-  <si>
     <t>Los textos formales</t>
   </si>
   <si>
@@ -626,9 +590,6 @@
     <t>LC_09_25</t>
   </si>
   <si>
-    <t>Interactivo que estudia paso a paso las características que presenta un ensayo</t>
-  </si>
-  <si>
     <t>Ordena las intervenciones de los personajes</t>
   </si>
   <si>
@@ -641,62 +602,357 @@
     <t>LC_08_11</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para identificar el estilo de Márquez </t>
-  </si>
-  <si>
     <t>5 oraciones compuestas para completar, relacionadas con el tema literario visto.</t>
   </si>
   <si>
-    <t>Ortografía: los signos de puntuación</t>
-  </si>
-  <si>
-    <t>Actividad para repasar los nexos que introducen oraciones coordinadas y subordinadas</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Ordena oraciones compuestas según nexos</t>
-  </si>
-  <si>
-    <t>Actividad para trabajar las oraciones compuestas mediante nexos</t>
-  </si>
-  <si>
     <t xml:space="preserve">El paréntesis </t>
   </si>
   <si>
-    <t>Actividad para prestar atención a los signos de puntuación de un fragmento teatral, especialmente por lo que respecta al guion y los paréntesis</t>
-  </si>
-  <si>
     <t>Debe incluirse 10 preguntas abiertas:3 sobre literatura; 2 sobre oración compuesta, 3 sobre ortografía (raya, guion, paréntesis) 2 sobre el ensayo. Debe marcarse en el greco Gestor de actividades como actividad didáctica.</t>
   </si>
   <si>
-    <t>Literatura: el Realismo mágico</t>
-  </si>
-  <si>
-    <t>Actividad para construir oraciones compuestas</t>
-  </si>
-  <si>
-    <t>Ortografía: ubica paréntesis</t>
-  </si>
-  <si>
     <t>Cuatro años a bordo de mí mismo</t>
   </si>
   <si>
-    <t xml:space="preserve">El sello literario de Márquez </t>
-  </si>
-  <si>
-    <t>Determina las características literarias</t>
-  </si>
-  <si>
-    <t>Actividad para identificar el enfoque literario de Márquez</t>
-  </si>
-  <si>
-    <t>Interactivo para distinguir el desarrollo literario</t>
-  </si>
-  <si>
-    <t>Analiza la obra</t>
+    <t>Refuerza tu aprendizaje: La novela colombiana del siglo XX</t>
+  </si>
+  <si>
+    <t>Seleccionar 6 frases de textos literarios o periodísticos en donde sea necesario el uso del paréntesis para que los estudiantes los relacionen a nivel de significado y contexto.</t>
+  </si>
+  <si>
+    <t>Actividad para comprender la intencionalidad de los ensayos</t>
+  </si>
+  <si>
+    <t>6 preguntas que guíen al estudiante a identificar la intencionalidad de los ensayos.</t>
+  </si>
+  <si>
+    <t>Actividad para identificar las hipótesis de los ensayos</t>
+  </si>
+  <si>
+    <t>6 imágenes acompañadas de preguntas que permitan inferir títulos de ensayos.</t>
+  </si>
+  <si>
+    <t>8 preguntas relacionadas con el desarrollo de la novela del siglo XX a partir de los autores vistos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 o 6 parejas de oraciones compuestas. </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La oración compuesta</t>
+  </si>
+  <si>
+    <t>Actividad para analizar oraciones compuestas</t>
+  </si>
+  <si>
+    <t>Determina la intención comunicativa</t>
+  </si>
+  <si>
+    <t>Cómo leer un ensayo</t>
+  </si>
+  <si>
+    <t>Interactivo que expone estrategias para analizar un ensayo</t>
+  </si>
+  <si>
+    <t>8 preguntas relacionadas con los elementos, la estructura y las claves de un ensayo.</t>
+  </si>
+  <si>
+    <t>Interactivo para planear la escritura de un ensayo</t>
+  </si>
+  <si>
+    <t>Actividad para distinguir las pautas para escribir un ensayo</t>
+  </si>
+  <si>
+    <t>Actividad para determinar el desarrollo de la novela en Colombia</t>
+  </si>
+  <si>
+    <t>Gramática: clasifica las  oraciones compuestas</t>
+  </si>
+  <si>
+    <t>Se invita a los estudiantes a ordenar una secuencia de sugerencias para organizar y redactar un ensayo.</t>
+  </si>
+  <si>
+    <t>Exposición e oraciones y preguntas que guíen al análisis sintáctico de las oraciones compuestas.</t>
+  </si>
+  <si>
+    <t>Un fragmento literario para que los estudiantes seleccionen de la lista desplegable la raya o el guion según corresponda.</t>
+  </si>
+  <si>
+    <t>Fragmentos literarios, periodísticos, científicos que tengan el uso de paréntesis para que los estudiantes por medio de preguntas infieran su uso.</t>
+  </si>
+  <si>
+    <t>Actividad para identificar el enfoque comunicativo del ensayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragmento relacionado con la intencionalidad comunicativa de un ensayo, para que los estudiantes lo completen con palabras claves que argumenten su propósito. </t>
+  </si>
+  <si>
+    <t>Actividad para determinar las características de un ensayo</t>
+  </si>
+  <si>
+    <t>Secuencia de características por orden de importancia de un ensayo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expone claves técnicas o metodologías de lectura para comprender, inferir e interpretar un ensayo. </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Características de un ensayo</t>
+  </si>
+  <si>
+    <t>8 preguntas de interpretación en inferencia que guíen al estudiante en la producción de un ensayo.</t>
+  </si>
+  <si>
+    <t>Subsistema (sección 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para identificar el uso de los signos de puntuación </t>
+  </si>
+  <si>
+    <t>Preguntas relacionadas con el contexto, los personajes, el género y el estilo de la obra.</t>
+  </si>
+  <si>
+    <t>Contenedores de oraciones compuestas copulativas, adversativas, disyuntivas y distributivas para que los estudiantes las ubiquen en el lugar que correspondan.</t>
+  </si>
+  <si>
+    <t>Preguntas relacionadas con el desarrollo de la novela en Colombia en el siglo XX.</t>
+  </si>
+  <si>
+    <t>Párrafo que contenga los elementos clave de un ensayo.</t>
+  </si>
+  <si>
+    <t>6 dictados de fragmentos de diferentes géneros literarios con uso de la raya, el guion y el paréntesis.</t>
+  </si>
+  <si>
+    <t>Fragmentos literarios claves del desarrollo de las partes de la obra.</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>Recurso M5D-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M2A-01</t>
+  </si>
+  <si>
+    <t>Recurso M6B-01</t>
+  </si>
+  <si>
+    <t>Recurso M1C-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>Recurso M5A-01</t>
+  </si>
+  <si>
+    <t>Recurso M5A-02</t>
+  </si>
+  <si>
+    <t>Recurso M5D-02</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>Recurso F7-01</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Recurso M4A-02</t>
+  </si>
+  <si>
+    <t>Recurso M12A-01</t>
+  </si>
+  <si>
+    <t>Recurso M12A-02</t>
+  </si>
+  <si>
+    <t>Recurso M12A-03</t>
+  </si>
+  <si>
+    <t>Recurso M6A-01</t>
+  </si>
+  <si>
+    <t>Recurso F6B-01</t>
+  </si>
+  <si>
+    <t>Recurso M2C-01</t>
+  </si>
+  <si>
+    <t>Recurso M2A-02</t>
+  </si>
+  <si>
+    <t>Recurso M2A-03</t>
+  </si>
+  <si>
+    <t>Recurso M10A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Recurso F10-01</t>
+  </si>
+  <si>
+    <t>Recurso F13B-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccionar un fragmento de la obra de Gabriel García Márquez y a partir de él realizar 5 preguntas que determinen las características literarias del autor. </t>
+  </si>
+  <si>
+    <t>Fragmentos de diferentes obras de Gabriel García Márquez con preguntas que guíen al estudiante a determinar las características y el enfoque literario, histórico y cultural . DBA:Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en que se han producido.</t>
+  </si>
+  <si>
+    <t>Interactivo que expone datos biográficos, criticas literarias, una especie de línea de tiempo de las obras de Márquez y mención de Premio Nobel. DBA:Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en que se han producido.</t>
+  </si>
+  <si>
+    <t>Revisar el recurso y ajustar el vocabulario y el lenguaje a nuestro contexto. Si considera pertinente ampliarlo lo puede hacer. DBA: Aplica todas las etapas de la escritura en la elaboración de textos coherentes y cohesionados, con criterios cercanos a los de una publicación.</t>
+  </si>
+  <si>
+    <t>Seguir instrucciones del documento de Word para el desarrollo del motor. DBA: Consulta, sintetiza y evalúa la información extraída de diferentes fuentes para realizar un trabajo académico. DBA: Desarrolla un tema de un área disciplinar, teniendo en cuenta: los hechos relevantes, detalles concretos, citas, referencias y vocabulario específico.</t>
+  </si>
+  <si>
+    <t>Seleccionar fragmentos literarios de los autores vistos de las mismas y de otras obras para enfatizar en los estilos literarios y en su influencia literaria. De ser posible retomar fragmentos de críticos literarios. DBA: Hace un juicio valorativo de un aspecto característico como el tiempo, el lugar o los personajes de un texto literario.           DBA: Aprecia el legado literario colombiano y latinoamericano,
+mediante la lectura de textos de ficción y no ficción, poesía, ensayos y obras periodísticas.</t>
+  </si>
+  <si>
+    <t>Preguntas de análisis e interpretación de los contextos que trata la obra citada, como la música, la ciudad, las drogas, entre otros temas. DBA: Identifica el contexto social, histórico, político y cultural de las obras, para ampliar el análisis y la evaluación del texto.</t>
+  </si>
+  <si>
+    <t>Recurso M5B-01</t>
+  </si>
+  <si>
+    <t>Seleccionar un VIDEO  de Aula planeta y a partir de él crear 6 o 7 preguntas para que los estudiantes seleccionen respuestas que contienen oraciones con sujeto y predicado o solo sujetos o solo predicados o mezclados. Sugiero el video titulado Fisetas de San Juan en Ciudadela http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=VI002097&amp;ruta=Mediateca</t>
+  </si>
+  <si>
+    <t>Recurso M5D-03</t>
+  </si>
+  <si>
+    <t>Recurso M1C-02</t>
+  </si>
+  <si>
+    <t>Literatura: caracteriza el Realismo mágico</t>
+  </si>
+  <si>
+    <t>Gramática: identifica enlaces gramaticales</t>
+  </si>
+  <si>
+    <t>Ortografía: reconoce los signos de puntuación</t>
+  </si>
+  <si>
+    <t>Ortografía: relaciona enunciados</t>
+  </si>
+  <si>
+    <t>Comprensión textual: el propósito de un ensayo</t>
+  </si>
+  <si>
+    <t>Producción textual: identifica títulos de ensayos</t>
+  </si>
+  <si>
+    <t>Reconoce temas literarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sello literario de García Márquez </t>
+  </si>
+  <si>
+    <t>Comprende  la obra Cien años de soledad</t>
+  </si>
+  <si>
+    <t>Determina la secuencia literaria</t>
+  </si>
+  <si>
+    <t>Infiere ideas</t>
+  </si>
+  <si>
+    <t>Reconoce predicados</t>
+  </si>
+  <si>
+    <t>Relaciona oraciones compuestas</t>
+  </si>
+  <si>
+    <t>Clasifica los nexos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Caracteriza las oraciones compuestas</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Ordena oraciones compuestas según el nexo</t>
+  </si>
+  <si>
+    <t>Selecciona el signo ortográfico</t>
+  </si>
+  <si>
+    <t>Analiza  el uso del paréntesis</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Uso del paréntesis, del guion y de la raya</t>
+  </si>
+  <si>
+    <t>Caracteriza un ensayo</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Comprende un ensayo</t>
+  </si>
+  <si>
+    <t>Literatura: la novela colombiana</t>
+  </si>
+  <si>
+    <t>Ortografía: define los signos de ortográficos</t>
+  </si>
+  <si>
+    <t>Comprensión textual: caracteriza un ensayo</t>
+  </si>
+  <si>
+    <t>Producción textual: ordena los pasos de un ensayo</t>
+  </si>
+  <si>
+    <t>Banco de actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para identificar el estilo literario de Gabriel García Márquez </t>
+  </si>
+  <si>
+    <t>Actividad para completar oraciones compuestas a partir de enlaces gramaticales</t>
+  </si>
+  <si>
+    <t>Actividad para determinar el uso del paréntesis de acuerdo al contexto</t>
+  </si>
+  <si>
+    <t>Actividad para identificar las temáticas de algunas obras de Gabriel García Márquez</t>
+  </si>
+  <si>
+    <t>Interactivo para distinguir el desarrollo literario de García Márquez</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Actividad para interpretar </t>
+      <t xml:space="preserve">Actividad para inferir ideas explicitas e implicitas en la obra </t>
     </r>
     <r>
       <rPr>
@@ -711,314 +967,80 @@
     </r>
   </si>
   <si>
-    <t>Secuencia literaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para determinar las etapas de la obra </t>
-  </si>
-  <si>
-    <t>Relaciona contextos</t>
-  </si>
-  <si>
-    <t>Actividad para identificar los temas de la obra</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La novela colombiana del siglo XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para determinar el uso del paréntesis </t>
-  </si>
-  <si>
-    <t>Seleccionar 6 frases de textos literarios o periodísticos en donde sea necesario el uso del paréntesis para que los estudiantes los relacionen a nivel de significado y contexto.</t>
-  </si>
-  <si>
-    <t>Actividad para comprender la intencionalidad de los ensayos</t>
-  </si>
-  <si>
-    <t>6 preguntas que guíen al estudiante a identificar la intencionalidad de los ensayos.</t>
-  </si>
-  <si>
-    <t>Actividad para identificar las hipótesis de los ensayos</t>
-  </si>
-  <si>
-    <t>6 imágenes acompañadas de preguntas que permitan inferir títulos de ensayos.</t>
-  </si>
-  <si>
-    <t>Actividad que distingue las características literarias de la novela</t>
-  </si>
-  <si>
-    <t>8 preguntas relacionadas con el desarrollo de la novela del siglo XX a partir de los autores vistos.</t>
-  </si>
-  <si>
-    <t>Interactivo que expone fragmentos literarios d ella novela colombiana.</t>
-  </si>
-  <si>
-    <t>Ordena secuencia  de predicados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para determinar el uso de predicados </t>
-  </si>
-  <si>
-    <t>Relaciona proposiciones</t>
-  </si>
-  <si>
-    <t>Actividad para asociar proposiciones de oraciones compuestas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 o 6 parejas de oraciones compuestas. </t>
-  </si>
-  <si>
-    <t>Distingue el uso de la raya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para diferenciar el uso de la raya de acuerdo a los contextos </t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La oración compuesta</t>
-  </si>
-  <si>
-    <t>Actividad para analizar oraciones compuestas</t>
-  </si>
-  <si>
-    <t>Determina la intención comunicativa</t>
-  </si>
-  <si>
-    <t>Cómo leer un ensayo</t>
-  </si>
-  <si>
-    <t>Interactivo que expone estrategias para analizar un ensayo</t>
-  </si>
-  <si>
-    <t>Reconoce un ensayo</t>
-  </si>
-  <si>
-    <t>Actividad para determinar los elementos de un ensayo</t>
-  </si>
-  <si>
-    <t>8 preguntas relacionadas con los elementos, la estructura y las claves de un ensayo.</t>
-  </si>
-  <si>
-    <t>Interactivo para planear la escritura de un ensayo</t>
-  </si>
-  <si>
-    <t>Actividad para distinguir las pautas para escribir un ensayo</t>
-  </si>
-  <si>
-    <t>Literatura: La novela colombiana</t>
-  </si>
-  <si>
-    <t>Actividad para determinar el desarrollo de la novela en Colombia</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer las partes de un ensayo</t>
-  </si>
-  <si>
-    <t>Gramática: clasifica las  oraciones compuestas</t>
-  </si>
-  <si>
-    <t>Actividad para distinguir las oraciones compuestas</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer la estructura de un ensayo</t>
-  </si>
-  <si>
-    <t>Se invita a los estudiantes a ordenar una secuencia de sugerencias para organizar y redactar un ensayo.</t>
-  </si>
-  <si>
-    <t>Producción textual: determina títulos de ensayos</t>
-  </si>
-  <si>
-    <t>Exposición e oraciones y preguntas que guíen al análisis sintáctico de las oraciones compuestas.</t>
-  </si>
-  <si>
-    <t>Un fragmento literario para que los estudiantes seleccionen de la lista desplegable la raya o el guion según corresponda.</t>
-  </si>
-  <si>
-    <t>Comprende el uso de paréntesis</t>
-  </si>
-  <si>
-    <t>Actividad para distinguir el significado del uso del paréntesis</t>
-  </si>
-  <si>
-    <t>Fragmentos literarios, periodísticos, científicos que tengan el uso de paréntesis para que los estudiantes por medio de preguntas infieran su uso.</t>
-  </si>
-  <si>
-    <t>Actividad para identificar el enfoque comunicativo del ensayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragmento relacionado con la intencionalidad comunicativa de un ensayo, para que los estudiantes lo completen con palabras claves que argumenten su propósito. </t>
-  </si>
-  <si>
-    <t>Actividad para determinar las características de un ensayo</t>
-  </si>
-  <si>
-    <t>Secuencia de características por orden de importancia de un ensayo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expone claves técnicas o metodologías de lectura para comprender, inferir e interpretar un ensayo. </t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Características de un ensayo</t>
-  </si>
-  <si>
-    <t>8 preguntas de interpretación en inferencia que guíen al estudiante en la producción de un ensayo.</t>
-  </si>
-  <si>
-    <t>Subsistema (sección 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para identificar el uso de los signos de puntuación </t>
-  </si>
-  <si>
-    <t>Preguntas relacionadas con el contexto, los personajes, el género y el estilo de la obra.</t>
-  </si>
-  <si>
-    <t>Contenedores de oraciones compuestas copulativas, adversativas, disyuntivas y distributivas para que los estudiantes las ubiquen en el lugar que correspondan.</t>
-  </si>
-  <si>
-    <t>Preguntas relacionadas con el desarrollo de la novela en Colombia en el siglo XX.</t>
-  </si>
-  <si>
-    <t>Párrafo que contenga los elementos clave de un ensayo.</t>
-  </si>
-  <si>
-    <t>6 dictados de fragmentos de diferentes géneros literarios con uso de la raya, el guion y el paréntesis.</t>
-  </si>
-  <si>
-    <t>Fragmentos literarios claves del desarrollo de las partes de la obra.</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>Recursos M</t>
-  </si>
-  <si>
-    <t>Recurso M5D-01</t>
-  </si>
-  <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso M2A-01</t>
-  </si>
-  <si>
-    <t>Recurso M6B-01</t>
-  </si>
-  <si>
-    <t>Recurso M1C-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
-    <t>Recurso M101A-05</t>
-  </si>
-  <si>
-    <t>Recurso M5A-01</t>
-  </si>
-  <si>
-    <t>Recurso M5A-02</t>
-  </si>
-  <si>
-    <t>Recurso M5D-02</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Recurso F7-01</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Recurso M4A-02</t>
-  </si>
-  <si>
-    <t>Recurso M12A-01</t>
-  </si>
-  <si>
-    <t>Recurso M12A-02</t>
-  </si>
-  <si>
-    <t>Recurso M12A-03</t>
-  </si>
-  <si>
-    <t>Recurso M6A-01</t>
-  </si>
-  <si>
-    <t>Recurso F6B-01</t>
-  </si>
-  <si>
-    <t>Recurso M2C-01</t>
-  </si>
-  <si>
-    <t>Recurso M2A-02</t>
-  </si>
-  <si>
-    <t>Recurso M2A-03</t>
-  </si>
-  <si>
-    <t>Recurso M10A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
-  </si>
-  <si>
-    <t>Recurso F10-01</t>
-  </si>
-  <si>
-    <t>Recurso F13B-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seleccionar un fragmento de la obra de Gabriel García Márquez y a partir de él realizar 5 preguntas que determinen las características literarias del autor. </t>
-  </si>
-  <si>
-    <t>Fragmentos de diferentes obras de Gabriel García Márquez con preguntas que guíen al estudiante a determinar las características y el enfoque literario, histórico y cultural . DBA:Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en que se han producido.</t>
-  </si>
-  <si>
-    <t>Interactivo que expone datos biográficos, criticas literarias, una especie de línea de tiempo de las obras de Márquez y mención de Premio Nobel. DBA:Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en que se han producido.</t>
-  </si>
-  <si>
-    <t>Revisar el recurso y ajustar el vocabulario y el lenguaje a nuestro contexto. Si considera pertinente ampliarlo lo puede hacer. DBA: Aplica todas las etapas de la escritura en la elaboración de textos coherentes y cohesionados, con criterios cercanos a los de una publicación.</t>
-  </si>
-  <si>
-    <t>Seguir instrucciones del documento de Word para el desarrollo del motor. DBA: Consulta, sintetiza y evalúa la información extraída de diferentes fuentes para realizar un trabajo académico. DBA: Desarrolla un tema de un área disciplinar, teniendo en cuenta: los hechos relevantes, detalles concretos, citas, referencias y vocabulario específico.</t>
-  </si>
-  <si>
-    <t>Seleccionar fragmentos literarios de los autores vistos de las mismas y de otras obras para enfatizar en los estilos literarios y en su influencia literaria. De ser posible retomar fragmentos de críticos literarios. DBA: Hace un juicio valorativo de un aspecto característico como el tiempo, el lugar o los personajes de un texto literario.           DBA: Aprecia el legado literario colombiano y latinoamericano,
-mediante la lectura de textos de ficción y no ficción, poesía, ensayos y obras periodísticas.</t>
-  </si>
-  <si>
-    <t>Preguntas de análisis e interpretación de los contextos que trata la obra citada, como la música, la ciudad, las drogas, entre otros temas. DBA: Identifica el contexto social, histórico, político y cultural de las obras, para ampliar el análisis y la evaluación del texto.</t>
-  </si>
-  <si>
-    <t>Recurso M5B-01</t>
-  </si>
-  <si>
-    <t>Seleccionar un VIDEO  de Aula planeta y a partir de él crear 6 o 7 preguntas para que los estudiantes seleccionen respuestas que contienen oraciones con sujeto y predicado o solo sujetos o solo predicados o mezclados. Sugiero el video titulado Fisetas de San Juan en Ciudadela http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=VI002097&amp;ruta=Mediateca</t>
-  </si>
-  <si>
-    <t>Recurso M5D-03</t>
-  </si>
-  <si>
-    <t>Recurso M1C-02</t>
+    <r>
+      <t xml:space="preserve">Actividad para ordenar las acciones de la obra </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El amor en los tiempos del cólera</t>
+    </r>
+  </si>
+  <si>
+    <t>Actividad para deducir ideas de la obra  ¡Que viva la música!</t>
+  </si>
+  <si>
+    <t>Actividad para distinguir las características literarias de la novela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo que expone fragmentos de la novela colombiana </t>
+  </si>
+  <si>
+    <t>Actividad para determinar el uso de predicados de acuerdo al contexto</t>
+  </si>
+  <si>
+    <t>Interactivo que expone los pasos para analizar oraciones compuestas</t>
+  </si>
+  <si>
+    <t>Actividad para asociar oraciones compuestas a partir de los nexos</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer los nexos de las oraciones compuestas</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer el tipo  de oración compuesta</t>
+  </si>
+  <si>
+    <t>Actividad para organizar las oraciones compuestas a partir de nexos y signos ortográficos</t>
+  </si>
+  <si>
+    <t>Interactivo que expone el uso de los signos ortográficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para diferenciar el uso de la raya de otros signos </t>
+  </si>
+  <si>
+    <t>Actividad para distinguir el uso del paréntesis de acuerdo al contexto</t>
+  </si>
+  <si>
+    <t>Actividad para practicar el uso correcto de los signos ortográficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para comprender la secuencia narrativa a partir de los signos de puntuación </t>
+  </si>
+  <si>
+    <t>Actividad para inferir ideas explícitas e implícitas en un ensayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo que explica las partes de un ensayo </t>
+  </si>
+  <si>
+    <t>Actividad para distinguir las oraciones compuestas a partir del nexo</t>
+  </si>
+  <si>
+    <t>Actividad para identificar la definición del guion, la raya y el paréntesis</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer las características de un ensayo</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer las pautas para elaborar un ensayo</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,6 +1180,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1214,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1285,30 +1313,17 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1386,6 +1401,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,9 +1732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3:P44"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1705,17 +1744,17 @@
     <col min="3" max="3" width="13.42578125" style="24" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" style="17" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="32" customWidth="1"/>
     <col min="7" max="7" width="41.7109375" style="24" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="32" customWidth="1"/>
     <col min="10" max="10" width="41.85546875" style="24" customWidth="1"/>
     <col min="11" max="11" width="16.140625" style="24" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="24" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="39.28515625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="39.28515625" style="32" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="18" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="39" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="32" customWidth="1"/>
     <col min="18" max="18" width="23" style="24" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.85546875" style="24" bestFit="1" customWidth="1"/>
@@ -1724,96 +1763,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="51" t="s">
+      <c r="F1" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="53" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="25" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="61"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="54"/>
+    </row>
+    <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1828,8 +1867,8 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="26" t="s">
-        <v>214</v>
+      <c r="G3" s="61" t="s">
+        <v>277</v>
       </c>
       <c r="H3" s="22">
         <v>1</v>
@@ -1837,8 +1876,8 @@
       <c r="I3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="27" t="s">
-        <v>205</v>
+      <c r="J3" s="65" t="s">
+        <v>303</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>20</v>
@@ -1850,8 +1889,8 @@
       <c r="N3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="28" t="s">
-        <v>316</v>
+      <c r="O3" s="26" t="s">
+        <v>266</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>19</v>
@@ -1860,19 +1899,19 @@
         <v>6</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>285</v>
+        <v>234</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>235</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1885,10 +1924,10 @@
       <c r="D4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="26" t="s">
-        <v>139</v>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="61" t="s">
+        <v>278</v>
       </c>
       <c r="H4" s="16">
         <v>2</v>
@@ -1896,8 +1935,8 @@
       <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="32" t="s">
-        <v>215</v>
+      <c r="J4" s="59" t="s">
+        <v>304</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>20</v>
@@ -1909,8 +1948,8 @@
       <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="31" t="s">
-        <v>206</v>
+      <c r="O4" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>19</v>
@@ -1919,19 +1958,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T4" s="29" t="s">
-        <v>287</v>
+        <v>234</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>237</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1944,10 +1983,10 @@
       <c r="D5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="26" t="s">
-        <v>207</v>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="61" t="s">
+        <v>279</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -1955,8 +1994,8 @@
       <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>276</v>
+      <c r="J5" s="59" t="s">
+        <v>226</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>20</v>
@@ -1968,8 +2007,8 @@
       <c r="N5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>281</v>
+      <c r="O5" s="29" t="s">
+        <v>231</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>19</v>
@@ -1978,19 +2017,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T5" s="29" t="s">
-        <v>288</v>
+        <v>234</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>238</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2003,10 +2042,10 @@
       <c r="D6" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="26" t="s">
-        <v>216</v>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="61" t="s">
+        <v>280</v>
       </c>
       <c r="H6" s="22">
         <v>4</v>
@@ -2014,8 +2053,8 @@
       <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="32" t="s">
-        <v>229</v>
+      <c r="J6" s="59" t="s">
+        <v>305</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>20</v>
@@ -2027,8 +2066,8 @@
       <c r="N6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="31" t="s">
-        <v>230</v>
+      <c r="O6" s="29" t="s">
+        <v>197</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>19</v>
@@ -2037,19 +2076,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>289</v>
+        <v>234</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>239</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2062,10 +2101,10 @@
       <c r="D7" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="26" t="s">
-        <v>145</v>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="61" t="s">
+        <v>281</v>
       </c>
       <c r="H7" s="16">
         <v>5</v>
@@ -2073,8 +2112,8 @@
       <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="32" t="s">
-        <v>231</v>
+      <c r="J7" s="59" t="s">
+        <v>198</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>20</v>
@@ -2086,8 +2125,8 @@
       <c r="N7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>232</v>
+      <c r="O7" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>19</v>
@@ -2096,19 +2135,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>290</v>
+        <v>234</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2121,10 +2160,10 @@
       <c r="D8" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="26" t="s">
-        <v>262</v>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="61" t="s">
+        <v>282</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2132,8 +2171,8 @@
       <c r="I8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>233</v>
+      <c r="J8" s="59" t="s">
+        <v>200</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>20</v>
@@ -2145,8 +2184,8 @@
       <c r="N8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="31" t="s">
-        <v>234</v>
+      <c r="O8" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>19</v>
@@ -2155,19 +2194,19 @@
         <v>6</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>295</v>
+        <v>234</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -2180,12 +2219,12 @@
       <c r="D9" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="26" t="s">
-        <v>219</v>
+      <c r="E9" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="61" t="s">
+        <v>283</v>
       </c>
       <c r="H9" s="22">
         <v>7</v>
@@ -2193,8 +2232,8 @@
       <c r="I9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>220</v>
+      <c r="J9" s="59" t="s">
+        <v>306</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>20</v>
@@ -2206,8 +2245,8 @@
       <c r="N9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>317</v>
+      <c r="O9" s="29" t="s">
+        <v>267</v>
       </c>
       <c r="P9" s="15" t="s">
         <v>19</v>
@@ -2216,19 +2255,19 @@
         <v>6</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T9" s="29" t="s">
-        <v>297</v>
+        <v>234</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2241,12 +2280,12 @@
       <c r="D10" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="26" t="s">
-        <v>218</v>
+      <c r="F10" s="29"/>
+      <c r="G10" s="61" t="s">
+        <v>284</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2254,8 +2293,8 @@
       <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="32" t="s">
-        <v>221</v>
+      <c r="J10" s="59" t="s">
+        <v>307</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>20</v>
@@ -2267,8 +2306,8 @@
         <v>56</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="31" t="s">
-        <v>318</v>
+      <c r="O10" s="29" t="s">
+        <v>268</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>19</v>
@@ -2277,19 +2316,19 @@
         <v>6</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="T10" s="29" t="s">
-        <v>300</v>
+        <v>249</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>250</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2302,12 +2341,12 @@
       <c r="D11" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="26" t="s">
-        <v>222</v>
+      <c r="F11" s="29"/>
+      <c r="G11" s="61" t="s">
+        <v>285</v>
       </c>
       <c r="H11" s="16">
         <v>9</v>
@@ -2315,8 +2354,8 @@
       <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="32" t="s">
-        <v>223</v>
+      <c r="J11" s="59" t="s">
+        <v>308</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>20</v>
@@ -2328,8 +2367,8 @@
       <c r="N11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="33" t="s">
-        <v>277</v>
+      <c r="O11" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>19</v>
@@ -2338,19 +2377,19 @@
         <v>6</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>302</v>
+        <v>234</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>252</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2363,12 +2402,12 @@
       <c r="D12" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="26" t="s">
-        <v>224</v>
+      <c r="F12" s="29"/>
+      <c r="G12" s="61" t="s">
+        <v>286</v>
       </c>
       <c r="H12" s="22">
         <v>10</v>
@@ -2376,8 +2415,8 @@
       <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="32" t="s">
-        <v>225</v>
+      <c r="J12" s="59" t="s">
+        <v>309</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>20</v>
@@ -2389,29 +2428,29 @@
       <c r="N12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="P12" s="16" t="s">
+      <c r="O12" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="P12" s="66" t="s">
         <v>20</v>
       </c>
       <c r="Q12" s="19">
         <v>6</v>
       </c>
       <c r="R12" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>304</v>
+        <v>234</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>254</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -2424,12 +2463,12 @@
       <c r="D13" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="26" t="s">
-        <v>226</v>
+      <c r="F13" s="29"/>
+      <c r="G13" s="61" t="s">
+        <v>287</v>
       </c>
       <c r="H13" s="16">
         <v>11</v>
@@ -2437,8 +2476,8 @@
       <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>227</v>
+      <c r="J13" s="59" t="s">
+        <v>310</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>20</v>
@@ -2450,8 +2489,8 @@
       <c r="N13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="31" t="s">
-        <v>322</v>
+      <c r="O13" s="29" t="s">
+        <v>272</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>19</v>
@@ -2460,19 +2499,19 @@
         <v>6</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T13" s="29" t="s">
-        <v>307</v>
+        <v>234</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>257</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2485,12 +2524,12 @@
       <c r="D14" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="26" t="s">
-        <v>228</v>
+      <c r="F14" s="29"/>
+      <c r="G14" s="61" t="s">
+        <v>196</v>
       </c>
       <c r="H14" s="16">
         <v>12</v>
@@ -2498,8 +2537,8 @@
       <c r="I14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>235</v>
+      <c r="J14" s="59" t="s">
+        <v>311</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>20</v>
@@ -2511,8 +2550,8 @@
       <c r="N14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O14" s="31" t="s">
-        <v>236</v>
+      <c r="O14" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>19</v>
@@ -2521,19 +2560,19 @@
         <v>6</v>
       </c>
       <c r="R14" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T14" s="29" t="s">
-        <v>291</v>
+        <v>234</v>
+      </c>
+      <c r="T14" s="27" t="s">
+        <v>241</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -2546,11 +2585,11 @@
       <c r="D15" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="26" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="61" t="s">
         <v>129</v>
       </c>
       <c r="H15" s="22">
@@ -2559,8 +2598,8 @@
       <c r="I15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="32" t="s">
-        <v>237</v>
+      <c r="J15" s="59" t="s">
+        <v>312</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>20</v>
@@ -2572,8 +2611,8 @@
         <v>55</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="31" t="s">
-        <v>321</v>
+      <c r="O15" s="29" t="s">
+        <v>271</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>19</v>
@@ -2582,19 +2621,19 @@
         <v>6</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="S15" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="T15" s="29" t="s">
-        <v>308</v>
+        <v>249</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>258</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2607,12 +2646,12 @@
       <c r="D16" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="26" t="s">
-        <v>162</v>
+      <c r="F16" s="29"/>
+      <c r="G16" s="61" t="s">
+        <v>159</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2620,8 +2659,8 @@
       <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="32" t="s">
-        <v>163</v>
+      <c r="J16" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>19</v>
@@ -2631,7 +2670,7 @@
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="29" t="s">
         <v>128</v>
       </c>
       <c r="P16" s="16" t="s">
@@ -2641,19 +2680,19 @@
         <v>8</v>
       </c>
       <c r="R16" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="T16" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="S16" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="T16" s="29" t="s">
-        <v>162</v>
-      </c>
       <c r="U16" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -2666,14 +2705,14 @@
       <c r="D17" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>238</v>
+      <c r="G17" s="61" t="s">
+        <v>288</v>
       </c>
       <c r="H17" s="16">
         <v>15</v>
@@ -2681,8 +2720,8 @@
       <c r="I17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="32" t="s">
-        <v>239</v>
+      <c r="J17" s="59" t="s">
+        <v>313</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>20</v>
@@ -2694,8 +2733,8 @@
       <c r="N17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="31" t="s">
-        <v>324</v>
+      <c r="O17" s="29" t="s">
+        <v>274</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>19</v>
@@ -2704,19 +2743,19 @@
         <v>6</v>
       </c>
       <c r="R17" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S17" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T17" s="29" t="s">
-        <v>323</v>
+        <v>234</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2729,12 +2768,12 @@
       <c r="D18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26" t="s">
-        <v>165</v>
+      <c r="F18" s="29"/>
+      <c r="G18" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="H18" s="22">
         <v>16</v>
@@ -2742,8 +2781,8 @@
       <c r="I18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="32" t="s">
-        <v>167</v>
+      <c r="J18" s="59" t="s">
+        <v>314</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>19</v>
@@ -2753,7 +2792,7 @@
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="29" t="s">
         <v>128</v>
       </c>
       <c r="P18" s="16" t="s">
@@ -2763,19 +2802,19 @@
         <v>10</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="T18" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="T18" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2788,12 +2827,12 @@
       <c r="D19" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="26" t="s">
-        <v>172</v>
+      <c r="F19" s="29"/>
+      <c r="G19" s="61" t="s">
+        <v>167</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2801,8 +2840,8 @@
       <c r="I19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="32" t="s">
-        <v>173</v>
+      <c r="J19" s="59" t="s">
+        <v>168</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>19</v>
@@ -2812,7 +2851,7 @@
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="29" t="s">
         <v>128</v>
       </c>
       <c r="P19" s="16" t="s">
@@ -2822,19 +2861,19 @@
         <v>9</v>
       </c>
       <c r="R19" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S19" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="T19" s="29" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -2847,14 +2886,14 @@
       <c r="D20" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>240</v>
+      <c r="G20" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="H20" s="16">
         <v>18</v>
@@ -2862,8 +2901,8 @@
       <c r="I20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="32" t="s">
-        <v>241</v>
+      <c r="J20" s="59" t="s">
+        <v>315</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>20</v>
@@ -2875,8 +2914,8 @@
       <c r="N20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="31" t="s">
-        <v>242</v>
+      <c r="O20" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>19</v>
@@ -2885,19 +2924,19 @@
         <v>6</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S20" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T20" s="29" t="s">
-        <v>326</v>
+        <v>234</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="U20" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
@@ -2910,12 +2949,12 @@
       <c r="D21" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="26" t="s">
-        <v>168</v>
+      <c r="F21" s="29"/>
+      <c r="G21" s="61" t="s">
+        <v>290</v>
       </c>
       <c r="H21" s="22">
         <v>19</v>
@@ -2923,8 +2962,8 @@
       <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="32" t="s">
-        <v>208</v>
+      <c r="J21" s="59" t="s">
+        <v>316</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>19</v>
@@ -2934,7 +2973,7 @@
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="29" t="s">
         <v>128</v>
       </c>
       <c r="P21" s="16" t="s">
@@ -2944,19 +2983,19 @@
         <v>10</v>
       </c>
       <c r="R21" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="T21" s="29" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="U21" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -2969,12 +3008,12 @@
       <c r="D22" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="34" t="s">
-        <v>177</v>
+      <c r="F22" s="29"/>
+      <c r="G22" s="62" t="s">
+        <v>291</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -2982,8 +3021,8 @@
       <c r="I22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="35" t="s">
-        <v>181</v>
+      <c r="J22" s="60" t="s">
+        <v>317</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>19</v>
@@ -2993,29 +3032,29 @@
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="16" t="s">
+      <c r="P22" s="66" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="19">
         <v>9</v>
       </c>
       <c r="R22" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S22" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="T22" s="29" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="U22" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -3028,12 +3067,12 @@
       <c r="D23" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="34" t="s">
-        <v>209</v>
+      <c r="F23" s="29"/>
+      <c r="G23" s="62" t="s">
+        <v>292</v>
       </c>
       <c r="H23" s="16">
         <v>21</v>
@@ -3041,8 +3080,8 @@
       <c r="I23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="35" t="s">
-        <v>210</v>
+      <c r="J23" s="60" t="s">
+        <v>318</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>19</v>
@@ -3052,29 +3091,29 @@
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="P23" s="16" t="s">
+      <c r="P23" s="66" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="19">
         <v>9</v>
       </c>
       <c r="R23" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S23" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="T23" s="29" t="s">
-        <v>182</v>
+      <c r="T23" s="27" t="s">
+        <v>175</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3087,12 +3126,12 @@
       <c r="D24" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="34" t="s">
-        <v>245</v>
+      <c r="F24" s="29"/>
+      <c r="G24" s="62" t="s">
+        <v>204</v>
       </c>
       <c r="H24" s="22">
         <v>22</v>
@@ -3100,8 +3139,8 @@
       <c r="I24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="35" t="s">
-        <v>246</v>
+      <c r="J24" s="60" t="s">
+        <v>205</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>20</v>
@@ -3113,8 +3152,8 @@
       <c r="N24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O24" s="31" t="s">
-        <v>263</v>
+      <c r="O24" s="29" t="s">
+        <v>215</v>
       </c>
       <c r="P24" s="16" t="s">
         <v>19</v>
@@ -3123,19 +3162,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S24" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T24" s="29" t="s">
-        <v>292</v>
+        <v>234</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="U24" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -3145,13 +3184,13 @@
       <c r="C25" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="34" t="s">
-        <v>184</v>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="62" t="s">
+        <v>177</v>
       </c>
       <c r="H25" s="16">
         <v>23</v>
@@ -3159,8 +3198,8 @@
       <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="32" t="s">
-        <v>185</v>
+      <c r="J25" s="60" t="s">
+        <v>319</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>19</v>
@@ -3170,7 +3209,7 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="31" t="s">
+      <c r="O25" s="29" t="s">
         <v>128</v>
       </c>
       <c r="P25" s="16" t="s">
@@ -3180,19 +3219,19 @@
         <v>10</v>
       </c>
       <c r="R25" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="T25" s="29" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="T25" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="U25" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
@@ -3202,15 +3241,15 @@
       <c r="C26" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="26" t="s">
-        <v>243</v>
+      <c r="F26" s="29"/>
+      <c r="G26" s="61" t="s">
+        <v>293</v>
       </c>
       <c r="H26" s="16">
         <v>24</v>
@@ -3218,8 +3257,8 @@
       <c r="I26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="32" t="s">
-        <v>244</v>
+      <c r="J26" s="59" t="s">
+        <v>320</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>20</v>
@@ -3231,8 +3270,8 @@
       <c r="N26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="31" t="s">
-        <v>264</v>
+      <c r="O26" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="P26" s="16" t="s">
         <v>19</v>
@@ -3241,19 +3280,19 @@
         <v>6</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S26" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T26" s="29" t="s">
-        <v>309</v>
+        <v>234</v>
+      </c>
+      <c r="T26" s="27" t="s">
+        <v>259</v>
       </c>
       <c r="U26" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
@@ -3263,15 +3302,15 @@
       <c r="C27" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="26" t="s">
-        <v>265</v>
+      <c r="E27" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="61" t="s">
+        <v>294</v>
       </c>
       <c r="H27" s="22">
         <v>25</v>
@@ -3279,8 +3318,8 @@
       <c r="I27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="32" t="s">
-        <v>266</v>
+      <c r="J27" s="59" t="s">
+        <v>321</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>20</v>
@@ -3292,8 +3331,8 @@
       <c r="N27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="31" t="s">
-        <v>267</v>
+      <c r="O27" s="29" t="s">
+        <v>217</v>
       </c>
       <c r="P27" s="16" t="s">
         <v>19</v>
@@ -3302,19 +3341,19 @@
         <v>6</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T27" s="29" t="s">
-        <v>325</v>
+        <v>234</v>
+      </c>
+      <c r="T27" s="27" t="s">
+        <v>275</v>
       </c>
       <c r="U27" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
@@ -3324,15 +3363,15 @@
       <c r="C28" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="26" t="s">
-        <v>189</v>
+      <c r="F28" s="29"/>
+      <c r="G28" s="61" t="s">
+        <v>295</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3340,8 +3379,8 @@
       <c r="I28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="32" t="s">
-        <v>190</v>
+      <c r="J28" s="59" t="s">
+        <v>322</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>19</v>
@@ -3351,7 +3390,7 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="31" t="s">
+      <c r="O28" s="29" t="s">
         <v>128</v>
       </c>
       <c r="P28" s="16" t="s">
@@ -3361,19 +3400,19 @@
         <v>10</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S28" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="T28" s="29" t="s">
-        <v>188</v>
+        <v>178</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="U28" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -3383,15 +3422,15 @@
       <c r="C29" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="26" t="s">
-        <v>201</v>
+      <c r="F29" s="29"/>
+      <c r="G29" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="H29" s="16">
         <v>27</v>
@@ -3399,8 +3438,8 @@
       <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="32" t="s">
-        <v>212</v>
+      <c r="J29" s="59" t="s">
+        <v>323</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>19</v>
@@ -3410,7 +3449,7 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="31" t="s">
+      <c r="O29" s="29" t="s">
         <v>128</v>
       </c>
       <c r="P29" s="16" t="s">
@@ -3420,19 +3459,19 @@
         <v>8</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S29" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="T29" s="29" t="s">
-        <v>203</v>
+        <v>189</v>
+      </c>
+      <c r="T29" s="27" t="s">
+        <v>190</v>
       </c>
       <c r="U29" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
@@ -3445,12 +3484,12 @@
       <c r="D30" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="26" t="s">
-        <v>247</v>
+      <c r="F30" s="29"/>
+      <c r="G30" s="61" t="s">
+        <v>206</v>
       </c>
       <c r="H30" s="22">
         <v>28</v>
@@ -3458,8 +3497,8 @@
       <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="32" t="s">
-        <v>268</v>
+      <c r="J30" s="59" t="s">
+        <v>218</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>20</v>
@@ -3471,8 +3510,8 @@
       <c r="N30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="31" t="s">
-        <v>269</v>
+      <c r="O30" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="P30" s="16" t="s">
         <v>19</v>
@@ -3481,19 +3520,19 @@
         <v>6</v>
       </c>
       <c r="R30" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S30" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T30" s="29" t="s">
-        <v>310</v>
+        <v>234</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>260</v>
       </c>
       <c r="U30" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
@@ -3506,12 +3545,12 @@
       <c r="D31" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="26" t="s">
-        <v>250</v>
+      <c r="F31" s="29"/>
+      <c r="G31" s="61" t="s">
+        <v>296</v>
       </c>
       <c r="H31" s="16">
         <v>29</v>
@@ -3519,8 +3558,8 @@
       <c r="I31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="32" t="s">
-        <v>270</v>
+      <c r="J31" s="59" t="s">
+        <v>220</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>20</v>
@@ -3532,29 +3571,29 @@
       <c r="N31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="31" t="s">
-        <v>271</v>
+      <c r="O31" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="19">
         <v>6</v>
       </c>
       <c r="R31" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T31" s="29" t="s">
-        <v>305</v>
+        <v>234</v>
+      </c>
+      <c r="T31" s="27" t="s">
+        <v>255</v>
       </c>
       <c r="U31" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
@@ -3567,12 +3606,12 @@
       <c r="D32" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="26" t="s">
-        <v>248</v>
+      <c r="F32" s="29"/>
+      <c r="G32" s="61" t="s">
+        <v>207</v>
       </c>
       <c r="H32" s="16">
         <v>30</v>
@@ -3580,8 +3619,8 @@
       <c r="I32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="32" t="s">
-        <v>249</v>
+      <c r="J32" s="59" t="s">
+        <v>208</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>20</v>
@@ -3593,8 +3632,8 @@
         <v>59</v>
       </c>
       <c r="N32" s="6"/>
-      <c r="O32" s="31" t="s">
-        <v>272</v>
+      <c r="O32" s="29" t="s">
+        <v>222</v>
       </c>
       <c r="P32" s="16" t="s">
         <v>19</v>
@@ -3603,19 +3642,19 @@
         <v>6</v>
       </c>
       <c r="R32" s="20" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="S32" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="T32" s="29" t="s">
-        <v>314</v>
+        <v>249</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>264</v>
       </c>
       <c r="U32" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
@@ -3628,12 +3667,12 @@
       <c r="D33" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="26" t="s">
-        <v>152</v>
+      <c r="F33" s="29"/>
+      <c r="G33" s="61" t="s">
+        <v>297</v>
       </c>
       <c r="H33" s="22">
         <v>31</v>
@@ -3641,8 +3680,8 @@
       <c r="I33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="32" t="s">
-        <v>251</v>
+      <c r="J33" s="59" t="s">
+        <v>324</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>20</v>
@@ -3654,8 +3693,8 @@
       <c r="N33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O33" s="31" t="s">
-        <v>252</v>
+      <c r="O33" s="29" t="s">
+        <v>209</v>
       </c>
       <c r="P33" s="16" t="s">
         <v>19</v>
@@ -3664,19 +3703,19 @@
         <v>6</v>
       </c>
       <c r="R33" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T33" s="29" t="s">
-        <v>293</v>
+        <v>234</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>243</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -3689,12 +3728,12 @@
       <c r="D34" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="26" t="s">
-        <v>198</v>
+      <c r="F34" s="29"/>
+      <c r="G34" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="H34" s="16">
         <v>32</v>
@@ -3702,8 +3741,8 @@
       <c r="I34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="32" t="s">
-        <v>200</v>
+      <c r="J34" s="59" t="s">
+        <v>325</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>19</v>
@@ -3713,8 +3752,8 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="31" t="s">
-        <v>319</v>
+      <c r="O34" s="29" t="s">
+        <v>269</v>
       </c>
       <c r="P34" s="16" t="s">
         <v>19</v>
@@ -3723,19 +3762,19 @@
         <v>9</v>
       </c>
       <c r="R34" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S34" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="T34" s="29" t="s">
-        <v>198</v>
+        <v>185</v>
+      </c>
+      <c r="T34" s="27" t="s">
+        <v>186</v>
       </c>
       <c r="U34" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -3748,12 +3787,12 @@
       <c r="D35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="37" t="s">
-        <v>131</v>
+      <c r="F35" s="29"/>
+      <c r="G35" s="63" t="s">
+        <v>151</v>
       </c>
       <c r="H35" s="16">
         <v>33</v>
@@ -3761,8 +3800,8 @@
       <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="32" t="s">
-        <v>253</v>
+      <c r="J35" s="59" t="s">
+        <v>210</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>20</v>
@@ -3774,8 +3813,8 @@
         <v>64</v>
       </c>
       <c r="N35" s="6"/>
-      <c r="O35" s="31" t="s">
-        <v>320</v>
+      <c r="O35" s="29" t="s">
+        <v>270</v>
       </c>
       <c r="P35" s="16" t="s">
         <v>19</v>
@@ -3784,19 +3823,19 @@
         <v>6</v>
       </c>
       <c r="R35" s="20" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="S35" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="T35" s="29" t="s">
-        <v>315</v>
+        <v>249</v>
+      </c>
+      <c r="T35" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="U35" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3809,12 +3848,12 @@
       <c r="D36" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="26" t="s">
-        <v>273</v>
+      <c r="F36" s="29"/>
+      <c r="G36" s="61" t="s">
+        <v>223</v>
       </c>
       <c r="H36" s="22">
         <v>34</v>
@@ -3822,8 +3861,8 @@
       <c r="I36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="32" t="s">
-        <v>254</v>
+      <c r="J36" s="59" t="s">
+        <v>211</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>20</v>
@@ -3835,8 +3874,8 @@
       <c r="N36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O36" s="31" t="s">
-        <v>274</v>
+      <c r="O36" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="P36" s="16" t="s">
         <v>19</v>
@@ -3845,19 +3884,19 @@
         <v>6</v>
       </c>
       <c r="R36" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S36" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T36" s="29" t="s">
-        <v>294</v>
+        <v>234</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>244</v>
       </c>
       <c r="U36" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>16</v>
       </c>
@@ -3870,10 +3909,10 @@
       <c r="D37" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="26" t="s">
-        <v>255</v>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="61" t="s">
+        <v>298</v>
       </c>
       <c r="H37" s="16">
         <v>35</v>
@@ -3881,8 +3920,8 @@
       <c r="I37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="32" t="s">
-        <v>256</v>
+      <c r="J37" s="59" t="s">
+        <v>212</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>20</v>
@@ -3894,8 +3933,8 @@
       <c r="N37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="31" t="s">
-        <v>279</v>
+      <c r="O37" s="29" t="s">
+        <v>229</v>
       </c>
       <c r="P37" s="16" t="s">
         <v>19</v>
@@ -3904,19 +3943,19 @@
         <v>6</v>
       </c>
       <c r="R37" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S37" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T37" s="29" t="s">
-        <v>296</v>
+        <v>234</v>
+      </c>
+      <c r="T37" s="27" t="s">
+        <v>246</v>
       </c>
       <c r="U37" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -3929,10 +3968,10 @@
       <c r="D38" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="26" t="s">
-        <v>258</v>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="61" t="s">
+        <v>213</v>
       </c>
       <c r="H38" s="16">
         <v>36</v>
@@ -3940,8 +3979,8 @@
       <c r="I38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="32" t="s">
-        <v>259</v>
+      <c r="J38" s="59" t="s">
+        <v>326</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>20</v>
@@ -3953,8 +3992,8 @@
       <c r="N38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O38" s="31" t="s">
-        <v>278</v>
+      <c r="O38" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="P38" s="16" t="s">
         <v>19</v>
@@ -3963,19 +4002,19 @@
         <v>6</v>
       </c>
       <c r="R38" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S38" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T38" s="29" t="s">
-        <v>312</v>
+        <v>234</v>
+      </c>
+      <c r="T38" s="27" t="s">
+        <v>262</v>
       </c>
       <c r="U38" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>16</v>
       </c>
@@ -3988,10 +4027,10 @@
       <c r="D39" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="26" t="s">
-        <v>191</v>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="61" t="s">
+        <v>299</v>
       </c>
       <c r="H39" s="22">
         <v>37</v>
@@ -3999,8 +4038,8 @@
       <c r="I39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="32" t="s">
-        <v>196</v>
+      <c r="J39" s="60" t="s">
+        <v>327</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>20</v>
@@ -4010,8 +4049,8 @@
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="31" t="s">
-        <v>195</v>
+      <c r="O39" s="29" t="s">
+        <v>184</v>
       </c>
       <c r="P39" s="16" t="s">
         <v>19</v>
@@ -4020,19 +4059,19 @@
         <v>6</v>
       </c>
       <c r="R39" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S39" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="T39" s="29" t="s">
-        <v>193</v>
+        <v>181</v>
+      </c>
+      <c r="T39" s="27" t="s">
+        <v>182</v>
       </c>
       <c r="U39" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
@@ -4045,10 +4084,10 @@
       <c r="D40" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="26" t="s">
-        <v>145</v>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="61" t="s">
+        <v>300</v>
       </c>
       <c r="H40" s="16">
         <v>38</v>
@@ -4056,8 +4095,8 @@
       <c r="I40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="32" t="s">
-        <v>260</v>
+      <c r="J40" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>20</v>
@@ -4069,8 +4108,8 @@
       <c r="N40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="31" t="s">
-        <v>280</v>
+      <c r="O40" s="29" t="s">
+        <v>230</v>
       </c>
       <c r="P40" s="16" t="s">
         <v>19</v>
@@ -4079,19 +4118,19 @@
         <v>6</v>
       </c>
       <c r="R40" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S40" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T40" s="29" t="s">
-        <v>311</v>
+        <v>234</v>
+      </c>
+      <c r="T40" s="27" t="s">
+        <v>261</v>
       </c>
       <c r="U40" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
@@ -4104,10 +4143,10 @@
       <c r="D41" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="26" t="s">
-        <v>153</v>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="61" t="s">
+        <v>301</v>
       </c>
       <c r="H41" s="16">
         <v>39</v>
@@ -4115,8 +4154,8 @@
       <c r="I41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="32" t="s">
-        <v>257</v>
+      <c r="J41" s="59" t="s">
+        <v>329</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>20</v>
@@ -4128,8 +4167,8 @@
       <c r="N41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O41" s="31" t="s">
-        <v>261</v>
+      <c r="O41" s="29" t="s">
+        <v>214</v>
       </c>
       <c r="P41" s="16" t="s">
         <v>19</v>
@@ -4138,16 +4177,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S41" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T41" s="29" t="s">
-        <v>306</v>
+        <v>234</v>
+      </c>
+      <c r="T41" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="U41" s="19" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4163,9 +4202,9 @@
       <c r="D42" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="26" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="61" t="s">
         <v>124</v>
       </c>
       <c r="H42" s="22">
@@ -4174,8 +4213,8 @@
       <c r="I42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="32" t="s">
-        <v>155</v>
+      <c r="J42" s="59" t="s">
+        <v>152</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>20</v>
@@ -4185,17 +4224,17 @@
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="31"/>
+      <c r="O42" s="29"/>
       <c r="P42" s="16" t="s">
         <v>19</v>
       </c>
       <c r="Q42" s="19"/>
       <c r="R42" s="20"/>
       <c r="S42" s="19"/>
-      <c r="T42" s="29"/>
+      <c r="T42" s="27"/>
       <c r="U42" s="19"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>16</v>
       </c>
@@ -4208,9 +4247,9 @@
       <c r="D43" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="38" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="64" t="s">
         <v>125</v>
       </c>
       <c r="H43" s="16">
@@ -4219,8 +4258,8 @@
       <c r="I43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="32" t="s">
-        <v>156</v>
+      <c r="J43" s="59" t="s">
+        <v>153</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>20</v>
@@ -4232,8 +4271,8 @@
       <c r="N43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="31" t="s">
-        <v>158</v>
+      <c r="O43" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="P43" s="16" t="s">
         <v>19</v>
@@ -4242,16 +4281,16 @@
         <v>6</v>
       </c>
       <c r="R43" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S43" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T43" s="29" t="s">
-        <v>303</v>
+        <v>234</v>
+      </c>
+      <c r="T43" s="27" t="s">
+        <v>253</v>
       </c>
       <c r="U43" s="19" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4267,10 +4306,10 @@
       <c r="D44" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="26" t="s">
-        <v>154</v>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="61" t="s">
+        <v>302</v>
       </c>
       <c r="H44" s="16">
         <v>42</v>
@@ -4278,8 +4317,8 @@
       <c r="I44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="32" t="s">
-        <v>157</v>
+      <c r="J44" s="59" t="s">
+        <v>154</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>20</v>
@@ -4291,26 +4330,26 @@
       <c r="N44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O44" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="P44" s="16" t="s">
+      <c r="O44" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="P44" s="66" t="s">
         <v>20</v>
       </c>
       <c r="Q44" s="19">
         <v>6</v>
       </c>
       <c r="R44" s="20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S44" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T44" s="29" t="s">
-        <v>313</v>
+        <v>234</v>
+      </c>
+      <c r="T44" s="27" t="s">
+        <v>263</v>
       </c>
       <c r="U44" s="19" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -6288,13 +6327,13 @@
       <c r="Q258" s="24"/>
     </row>
     <row r="266" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="P266" s="40"/>
-      <c r="Q266" s="40"/>
-      <c r="R266" s="40"/>
-      <c r="S266" s="40"/>
-      <c r="T266" s="40"/>
-      <c r="U266" s="40"/>
-      <c r="V266" s="40"/>
+      <c r="P266" s="33"/>
+      <c r="Q266" s="33"/>
+      <c r="R266" s="33"/>
+      <c r="S266" s="33"/>
+      <c r="T266" s="33"/>
+      <c r="U266" s="33"/>
+      <c r="V266" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U2">

--- a/fuentes/contenidos/grado08/guion07/Escaleta_LE_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/Escaleta_LE_08_07_CO.xlsx
@@ -506,9 +506,6 @@
     <t>La oración simple: el sujeto y el predicado</t>
   </si>
   <si>
-    <t>Interactivo que realiza una presentación de los principales constituyentes de la oración: sujeto y predicado</t>
-  </si>
-  <si>
     <t>El análisis sintáctico</t>
   </si>
   <si>
@@ -624,9 +621,6 @@
   </si>
   <si>
     <t>6 preguntas que guíen al estudiante a identificar la intencionalidad de los ensayos.</t>
-  </si>
-  <si>
-    <t>Actividad para identificar las hipótesis de los ensayos</t>
   </si>
   <si>
     <t>6 imágenes acompañadas de preguntas que permitan inferir títulos de ensayos.</t>
@@ -861,9 +855,6 @@
     <t>Literatura: caracteriza el Realismo mágico</t>
   </si>
   <si>
-    <t>Gramática: identifica enlaces gramaticales</t>
-  </si>
-  <si>
     <t>Ortografía: reconoce los signos de puntuación</t>
   </si>
   <si>
@@ -873,9 +864,6 @@
     <t>Comprensión textual: el propósito de un ensayo</t>
   </si>
   <si>
-    <t>Producción textual: identifica títulos de ensayos</t>
-  </si>
-  <si>
     <t>Reconoce temas literarios</t>
   </si>
   <si>
@@ -949,22 +937,6 @@
   </si>
   <si>
     <t>Interactivo para distinguir el desarrollo literario de García Márquez</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Actividad para inferir ideas explicitas e implicitas en la obra </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cien años de soledad</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1031,9 +1003,6 @@
     <t xml:space="preserve">Interactivo que explica las partes de un ensayo </t>
   </si>
   <si>
-    <t>Actividad para distinguir las oraciones compuestas a partir del nexo</t>
-  </si>
-  <si>
     <t>Actividad para identificar la definición del guion, la raya y el paréntesis</t>
   </si>
   <si>
@@ -1041,6 +1010,37 @@
   </si>
   <si>
     <t>Actividad para reconocer las pautas para elaborar un ensayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gramática: identifica enlaces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producción textual: identifica títulos </t>
+  </si>
+  <si>
+    <t>Actividad para reconocer los titulos de ensayos a apartir de inferencias</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para inferir ideas explicitas e implícitas en la obra </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cien años de soledad</t>
+    </r>
+  </si>
+  <si>
+    <t>Interactivo que expone  los constituyentes de la oración: sujeto y predicado</t>
+  </si>
+  <si>
+    <t>Actividad para distinguir las oraciones compuestas a partir de los nexos</t>
   </si>
 </sst>
 </file>
@@ -1327,6 +1327,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,12 +1385,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1383,48 +1425,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1732,9 +1732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1763,94 +1763,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="64"/>
+      <c r="O1" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="25" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1867,8 +1867,8 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="61" t="s">
-        <v>277</v>
+      <c r="G3" s="36" t="s">
+        <v>275</v>
       </c>
       <c r="H3" s="22">
         <v>1</v>
@@ -1876,8 +1876,8 @@
       <c r="I3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="65" t="s">
-        <v>303</v>
+      <c r="J3" s="40" t="s">
+        <v>299</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>20</v>
@@ -1890,7 +1890,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>19</v>
@@ -1899,16 +1899,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T3" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="U3" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -1926,8 +1926,8 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="61" t="s">
-        <v>278</v>
+      <c r="G4" s="36" t="s">
+        <v>324</v>
       </c>
       <c r="H4" s="16">
         <v>2</v>
@@ -1935,8 +1935,8 @@
       <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="59" t="s">
-        <v>304</v>
+      <c r="J4" s="34" t="s">
+        <v>300</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>20</v>
@@ -1949,7 +1949,7 @@
         <v>28</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>19</v>
@@ -1958,16 +1958,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S4" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="U4" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="U4" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -1985,8 +1985,8 @@
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="61" t="s">
-        <v>279</v>
+      <c r="G5" s="36" t="s">
+        <v>276</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -1994,8 +1994,8 @@
       <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="59" t="s">
-        <v>226</v>
+      <c r="J5" s="34" t="s">
+        <v>224</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>20</v>
@@ -2008,7 +2008,7 @@
         <v>38</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>19</v>
@@ -2017,16 +2017,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S5" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="U5" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2044,8 +2044,8 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="61" t="s">
-        <v>280</v>
+      <c r="G6" s="36" t="s">
+        <v>277</v>
       </c>
       <c r="H6" s="22">
         <v>4</v>
@@ -2053,8 +2053,8 @@
       <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="59" t="s">
-        <v>305</v>
+      <c r="J6" s="34" t="s">
+        <v>301</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>20</v>
@@ -2067,7 +2067,7 @@
         <v>24</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>19</v>
@@ -2076,16 +2076,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S6" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="U6" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2103,8 +2103,8 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="61" t="s">
-        <v>281</v>
+      <c r="G7" s="36" t="s">
+        <v>278</v>
       </c>
       <c r="H7" s="16">
         <v>5</v>
@@ -2112,8 +2112,8 @@
       <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="59" t="s">
-        <v>198</v>
+      <c r="J7" s="34" t="s">
+        <v>197</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>20</v>
@@ -2126,7 +2126,7 @@
         <v>120</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>19</v>
@@ -2135,16 +2135,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S7" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="U7" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2162,8 +2162,8 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="61" t="s">
-        <v>282</v>
+      <c r="G8" s="36" t="s">
+        <v>325</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2171,8 +2171,8 @@
       <c r="I8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="59" t="s">
-        <v>200</v>
+      <c r="J8" s="34" t="s">
+        <v>326</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>20</v>
@@ -2185,7 +2185,7 @@
         <v>33</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>19</v>
@@ -2194,16 +2194,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S8" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="U8" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2220,11 +2220,11 @@
         <v>133</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F9" s="29"/>
-      <c r="G9" s="61" t="s">
-        <v>283</v>
+      <c r="G9" s="36" t="s">
+        <v>279</v>
       </c>
       <c r="H9" s="22">
         <v>7</v>
@@ -2232,8 +2232,8 @@
       <c r="I9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="59" t="s">
-        <v>306</v>
+      <c r="J9" s="34" t="s">
+        <v>302</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>20</v>
@@ -2246,7 +2246,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P9" s="15" t="s">
         <v>19</v>
@@ -2255,16 +2255,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S9" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="U9" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2284,8 +2284,8 @@
         <v>134</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="G10" s="61" t="s">
-        <v>284</v>
+      <c r="G10" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2293,8 +2293,8 @@
       <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="59" t="s">
-        <v>307</v>
+      <c r="J10" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>20</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>19</v>
@@ -2316,16 +2316,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="T10" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="S10" s="19" t="s">
+      <c r="U10" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="U10" s="19" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2345,8 +2345,8 @@
         <v>134</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="G11" s="61" t="s">
-        <v>285</v>
+      <c r="G11" s="36" t="s">
+        <v>281</v>
       </c>
       <c r="H11" s="16">
         <v>9</v>
@@ -2354,8 +2354,8 @@
       <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="59" t="s">
-        <v>308</v>
+      <c r="J11" s="34" t="s">
+        <v>327</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>20</v>
@@ -2368,7 +2368,7 @@
         <v>32</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>19</v>
@@ -2377,16 +2377,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S11" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="U11" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T11" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2406,8 +2406,8 @@
         <v>135</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="61" t="s">
-        <v>286</v>
+      <c r="G12" s="36" t="s">
+        <v>282</v>
       </c>
       <c r="H12" s="22">
         <v>10</v>
@@ -2415,8 +2415,8 @@
       <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="59" t="s">
-        <v>309</v>
+      <c r="J12" s="34" t="s">
+        <v>304</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>20</v>
@@ -2429,25 +2429,25 @@
         <v>45</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="P12" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="P12" s="41" t="s">
         <v>20</v>
       </c>
       <c r="Q12" s="19">
         <v>6</v>
       </c>
       <c r="R12" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S12" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="U12" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2467,8 +2467,8 @@
         <v>136</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="G13" s="61" t="s">
-        <v>287</v>
+      <c r="G13" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="H13" s="16">
         <v>11</v>
@@ -2476,8 +2476,8 @@
       <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="59" t="s">
-        <v>310</v>
+      <c r="J13" s="34" t="s">
+        <v>305</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>20</v>
@@ -2490,7 +2490,7 @@
         <v>37</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>19</v>
@@ -2499,16 +2499,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S13" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="U13" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T13" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2528,8 +2528,8 @@
         <v>121</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="G14" s="61" t="s">
-        <v>196</v>
+      <c r="G14" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="H14" s="16">
         <v>12</v>
@@ -2537,8 +2537,8 @@
       <c r="I14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="59" t="s">
-        <v>311</v>
+      <c r="J14" s="34" t="s">
+        <v>306</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>20</v>
@@ -2551,7 +2551,7 @@
         <v>120</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>19</v>
@@ -2560,16 +2560,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S14" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T14" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="U14" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T14" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>121</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="36" t="s">
         <v>129</v>
       </c>
       <c r="H15" s="22">
@@ -2598,8 +2598,8 @@
       <c r="I15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="59" t="s">
-        <v>312</v>
+      <c r="J15" s="34" t="s">
+        <v>307</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>20</v>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>19</v>
@@ -2621,19 +2621,19 @@
         <v>6</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S15" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="U15" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="T15" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>137</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="36" t="s">
         <v>159</v>
       </c>
       <c r="H16" s="16">
@@ -2659,8 +2659,8 @@
       <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="59" t="s">
-        <v>160</v>
+      <c r="J16" s="34" t="s">
+        <v>328</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>19</v>
@@ -2711,8 +2711,8 @@
       <c r="F17" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="61" t="s">
-        <v>288</v>
+      <c r="G17" s="36" t="s">
+        <v>284</v>
       </c>
       <c r="H17" s="16">
         <v>15</v>
@@ -2720,8 +2720,8 @@
       <c r="I17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="59" t="s">
-        <v>313</v>
+      <c r="J17" s="34" t="s">
+        <v>308</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>20</v>
@@ -2734,7 +2734,7 @@
         <v>34</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>19</v>
@@ -2743,16 +2743,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S17" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="U17" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T17" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2772,8 +2772,8 @@
         <v>140</v>
       </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="61" t="s">
-        <v>162</v>
+      <c r="G18" s="36" t="s">
+        <v>161</v>
       </c>
       <c r="H18" s="22">
         <v>16</v>
@@ -2781,8 +2781,8 @@
       <c r="I18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="59" t="s">
-        <v>314</v>
+      <c r="J18" s="34" t="s">
+        <v>309</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>19</v>
@@ -2805,13 +2805,13 @@
         <v>156</v>
       </c>
       <c r="S18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="T18" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="T18" s="27" t="s">
+      <c r="U18" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2831,8 +2831,8 @@
         <v>140</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="61" t="s">
-        <v>167</v>
+      <c r="G19" s="36" t="s">
+        <v>166</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2840,8 +2840,8 @@
       <c r="I19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="59" t="s">
-        <v>168</v>
+      <c r="J19" s="34" t="s">
+        <v>167</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>19</v>
@@ -2864,13 +2864,13 @@
         <v>156</v>
       </c>
       <c r="S19" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="T19" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="T19" s="27" t="s">
+      <c r="U19" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2892,8 +2892,8 @@
       <c r="F20" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="61" t="s">
-        <v>289</v>
+      <c r="G20" s="36" t="s">
+        <v>285</v>
       </c>
       <c r="H20" s="16">
         <v>18</v>
@@ -2901,8 +2901,8 @@
       <c r="I20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="59" t="s">
-        <v>315</v>
+      <c r="J20" s="34" t="s">
+        <v>310</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>20</v>
@@ -2915,7 +2915,7 @@
         <v>24</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>19</v>
@@ -2924,16 +2924,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S20" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T20" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="U20" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2953,8 +2953,8 @@
         <v>142</v>
       </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="61" t="s">
-        <v>290</v>
+      <c r="G21" s="36" t="s">
+        <v>286</v>
       </c>
       <c r="H21" s="22">
         <v>19</v>
@@ -2962,8 +2962,8 @@
       <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="59" t="s">
-        <v>316</v>
+      <c r="J21" s="34" t="s">
+        <v>311</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>19</v>
@@ -2986,13 +2986,13 @@
         <v>156</v>
       </c>
       <c r="S21" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="T21" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="T21" s="27" t="s">
+      <c r="U21" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3012,8 +3012,8 @@
         <v>122</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="62" t="s">
-        <v>291</v>
+      <c r="G22" s="37" t="s">
+        <v>287</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -3021,8 +3021,8 @@
       <c r="I22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="60" t="s">
-        <v>317</v>
+      <c r="J22" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>19</v>
@@ -3035,7 +3035,7 @@
       <c r="O22" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="66" t="s">
+      <c r="P22" s="41" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="19">
@@ -3045,13 +3045,13 @@
         <v>156</v>
       </c>
       <c r="S22" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="T22" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="T22" s="27" t="s">
+      <c r="U22" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="U22" s="19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -3071,8 +3071,8 @@
         <v>122</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="62" t="s">
-        <v>292</v>
+      <c r="G23" s="37" t="s">
+        <v>288</v>
       </c>
       <c r="H23" s="16">
         <v>21</v>
@@ -3080,8 +3080,8 @@
       <c r="I23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="60" t="s">
-        <v>318</v>
+      <c r="J23" s="35" t="s">
+        <v>313</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>19</v>
@@ -3094,7 +3094,7 @@
       <c r="O23" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="P23" s="66" t="s">
+      <c r="P23" s="41" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="19">
@@ -3107,10 +3107,10 @@
         <v>140</v>
       </c>
       <c r="T23" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="U23" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="U23" s="19" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3130,8 +3130,8 @@
         <v>122</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="62" t="s">
-        <v>204</v>
+      <c r="G24" s="37" t="s">
+        <v>202</v>
       </c>
       <c r="H24" s="22">
         <v>22</v>
@@ -3139,8 +3139,8 @@
       <c r="I24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="60" t="s">
-        <v>205</v>
+      <c r="J24" s="35" t="s">
+        <v>203</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>20</v>
@@ -3153,7 +3153,7 @@
         <v>120</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P24" s="16" t="s">
         <v>19</v>
@@ -3162,16 +3162,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S24" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="U24" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="U24" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3189,8 +3189,8 @@
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="29"/>
-      <c r="G25" s="62" t="s">
-        <v>177</v>
+      <c r="G25" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="H25" s="16">
         <v>23</v>
@@ -3198,8 +3198,8 @@
       <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="60" t="s">
-        <v>319</v>
+      <c r="J25" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>19</v>
@@ -3222,13 +3222,13 @@
         <v>156</v>
       </c>
       <c r="S25" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="T25" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="U25" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="T25" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="U25" s="19" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3248,8 +3248,8 @@
         <v>144</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="61" t="s">
-        <v>293</v>
+      <c r="G26" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H26" s="16">
         <v>24</v>
@@ -3257,8 +3257,8 @@
       <c r="I26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="59" t="s">
-        <v>320</v>
+      <c r="J26" s="34" t="s">
+        <v>315</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>20</v>
@@ -3271,7 +3271,7 @@
         <v>27</v>
       </c>
       <c r="O26" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P26" s="16" t="s">
         <v>19</v>
@@ -3280,16 +3280,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S26" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T26" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="U26" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T26" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="U26" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3306,11 +3306,11 @@
         <v>143</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="61" t="s">
-        <v>294</v>
+      <c r="G27" s="36" t="s">
+        <v>290</v>
       </c>
       <c r="H27" s="22">
         <v>25</v>
@@ -3318,8 +3318,8 @@
       <c r="I27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="59" t="s">
-        <v>321</v>
+      <c r="J27" s="34" t="s">
+        <v>316</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>20</v>
@@ -3332,7 +3332,7 @@
         <v>36</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P27" s="16" t="s">
         <v>19</v>
@@ -3341,16 +3341,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S27" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T27" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="U27" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T27" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="U27" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3370,8 +3370,8 @@
         <v>122</v>
       </c>
       <c r="F28" s="29"/>
-      <c r="G28" s="61" t="s">
-        <v>295</v>
+      <c r="G28" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3379,8 +3379,8 @@
       <c r="I28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="59" t="s">
-        <v>322</v>
+      <c r="J28" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>19</v>
@@ -3403,13 +3403,13 @@
         <v>156</v>
       </c>
       <c r="S28" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="U28" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="T28" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="U28" s="19" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -3429,8 +3429,8 @@
         <v>122</v>
       </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="61" t="s">
-        <v>188</v>
+      <c r="G29" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="H29" s="16">
         <v>27</v>
@@ -3438,8 +3438,8 @@
       <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="59" t="s">
-        <v>323</v>
+      <c r="J29" s="34" t="s">
+        <v>318</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>19</v>
@@ -3462,13 +3462,13 @@
         <v>156</v>
       </c>
       <c r="S29" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="T29" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="T29" s="27" t="s">
+      <c r="U29" s="19" t="s">
         <v>190</v>
-      </c>
-      <c r="U29" s="19" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3488,8 +3488,8 @@
         <v>146</v>
       </c>
       <c r="F30" s="29"/>
-      <c r="G30" s="61" t="s">
-        <v>206</v>
+      <c r="G30" s="36" t="s">
+        <v>204</v>
       </c>
       <c r="H30" s="22">
         <v>28</v>
@@ -3497,8 +3497,8 @@
       <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="59" t="s">
-        <v>218</v>
+      <c r="J30" s="34" t="s">
+        <v>216</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>20</v>
@@ -3511,7 +3511,7 @@
         <v>28</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P30" s="16" t="s">
         <v>19</v>
@@ -3520,16 +3520,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S30" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="U30" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T30" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="U30" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3549,8 +3549,8 @@
         <v>147</v>
       </c>
       <c r="F31" s="29"/>
-      <c r="G31" s="61" t="s">
-        <v>296</v>
+      <c r="G31" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="H31" s="16">
         <v>29</v>
@@ -3558,8 +3558,8 @@
       <c r="I31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="59" t="s">
-        <v>220</v>
+      <c r="J31" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>20</v>
@@ -3572,7 +3572,7 @@
         <v>45</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P31" s="16" t="s">
         <v>19</v>
@@ -3581,16 +3581,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S31" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T31" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="U31" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T31" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="U31" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3610,8 +3610,8 @@
         <v>148</v>
       </c>
       <c r="F32" s="29"/>
-      <c r="G32" s="61" t="s">
-        <v>207</v>
+      <c r="G32" s="36" t="s">
+        <v>205</v>
       </c>
       <c r="H32" s="16">
         <v>30</v>
@@ -3619,8 +3619,8 @@
       <c r="I32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="59" t="s">
-        <v>208</v>
+      <c r="J32" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>20</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P32" s="16" t="s">
         <v>19</v>
@@ -3642,16 +3642,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S32" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="U32" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="T32" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3671,8 +3671,8 @@
         <v>121</v>
       </c>
       <c r="F33" s="29"/>
-      <c r="G33" s="61" t="s">
-        <v>297</v>
+      <c r="G33" s="36" t="s">
+        <v>293</v>
       </c>
       <c r="H33" s="22">
         <v>31</v>
@@ -3680,8 +3680,8 @@
       <c r="I33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="59" t="s">
-        <v>324</v>
+      <c r="J33" s="34" t="s">
+        <v>319</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>20</v>
@@ -3694,7 +3694,7 @@
         <v>120</v>
       </c>
       <c r="O33" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P33" s="16" t="s">
         <v>19</v>
@@ -3703,16 +3703,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S33" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="U33" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T33" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="U33" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3732,8 +3732,8 @@
         <v>150</v>
       </c>
       <c r="F34" s="29"/>
-      <c r="G34" s="61" t="s">
-        <v>186</v>
+      <c r="G34" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="H34" s="16">
         <v>32</v>
@@ -3741,8 +3741,8 @@
       <c r="I34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="59" t="s">
-        <v>325</v>
+      <c r="J34" s="34" t="s">
+        <v>320</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>19</v>
@@ -3753,7 +3753,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P34" s="16" t="s">
         <v>19</v>
@@ -3765,13 +3765,13 @@
         <v>156</v>
       </c>
       <c r="S34" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="T34" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="T34" s="27" t="s">
+      <c r="U34" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="U34" s="19" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3791,8 +3791,8 @@
         <v>151</v>
       </c>
       <c r="F35" s="29"/>
-      <c r="G35" s="63" t="s">
-        <v>151</v>
+      <c r="G35" s="38" t="s">
+        <v>131</v>
       </c>
       <c r="H35" s="16">
         <v>33</v>
@@ -3800,8 +3800,8 @@
       <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="59" t="s">
-        <v>210</v>
+      <c r="J35" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>20</v>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P35" s="16" t="s">
         <v>19</v>
@@ -3823,16 +3823,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S35" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="T35" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="U35" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="T35" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="U35" s="19" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3852,8 +3852,8 @@
         <v>121</v>
       </c>
       <c r="F36" s="29"/>
-      <c r="G36" s="61" t="s">
-        <v>223</v>
+      <c r="G36" s="36" t="s">
+        <v>221</v>
       </c>
       <c r="H36" s="22">
         <v>34</v>
@@ -3861,8 +3861,8 @@
       <c r="I36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="59" t="s">
-        <v>211</v>
+      <c r="J36" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>20</v>
@@ -3875,7 +3875,7 @@
         <v>120</v>
       </c>
       <c r="O36" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P36" s="16" t="s">
         <v>19</v>
@@ -3884,16 +3884,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S36" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="U36" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T36" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="U36" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3911,8 +3911,8 @@
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="29"/>
-      <c r="G37" s="61" t="s">
-        <v>298</v>
+      <c r="G37" s="36" t="s">
+        <v>294</v>
       </c>
       <c r="H37" s="16">
         <v>35</v>
@@ -3920,8 +3920,8 @@
       <c r="I37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="59" t="s">
-        <v>212</v>
+      <c r="J37" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>20</v>
@@ -3934,7 +3934,7 @@
         <v>33</v>
       </c>
       <c r="O37" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P37" s="16" t="s">
         <v>19</v>
@@ -3943,16 +3943,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S37" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T37" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="U37" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T37" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="U37" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3970,8 +3970,8 @@
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="61" t="s">
-        <v>213</v>
+      <c r="G38" s="36" t="s">
+        <v>211</v>
       </c>
       <c r="H38" s="16">
         <v>36</v>
@@ -3979,8 +3979,8 @@
       <c r="I38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="59" t="s">
-        <v>326</v>
+      <c r="J38" s="34" t="s">
+        <v>329</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>20</v>
@@ -3993,7 +3993,7 @@
         <v>43</v>
       </c>
       <c r="O38" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P38" s="16" t="s">
         <v>19</v>
@@ -4002,16 +4002,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S38" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T38" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="U38" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T38" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="U38" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -4029,8 +4029,8 @@
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
-      <c r="G39" s="61" t="s">
-        <v>299</v>
+      <c r="G39" s="36" t="s">
+        <v>295</v>
       </c>
       <c r="H39" s="22">
         <v>37</v>
@@ -4038,8 +4038,8 @@
       <c r="I39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="60" t="s">
-        <v>327</v>
+      <c r="J39" s="35" t="s">
+        <v>321</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>20</v>
@@ -4050,7 +4050,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P39" s="16" t="s">
         <v>19</v>
@@ -4062,13 +4062,13 @@
         <v>156</v>
       </c>
       <c r="S39" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="T39" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="T39" s="27" t="s">
+      <c r="U39" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="U39" s="19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -4086,8 +4086,8 @@
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
-      <c r="G40" s="61" t="s">
-        <v>300</v>
+      <c r="G40" s="36" t="s">
+        <v>296</v>
       </c>
       <c r="H40" s="16">
         <v>38</v>
@@ -4095,8 +4095,8 @@
       <c r="I40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="59" t="s">
-        <v>328</v>
+      <c r="J40" s="34" t="s">
+        <v>322</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>20</v>
@@ -4109,7 +4109,7 @@
         <v>28</v>
       </c>
       <c r="O40" s="29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P40" s="16" t="s">
         <v>19</v>
@@ -4118,16 +4118,16 @@
         <v>6</v>
       </c>
       <c r="R40" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S40" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T40" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="U40" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T40" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="U40" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -4145,8 +4145,8 @@
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
-      <c r="G41" s="61" t="s">
-        <v>301</v>
+      <c r="G41" s="36" t="s">
+        <v>297</v>
       </c>
       <c r="H41" s="16">
         <v>39</v>
@@ -4154,8 +4154,8 @@
       <c r="I41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="59" t="s">
-        <v>329</v>
+      <c r="J41" s="34" t="s">
+        <v>323</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>20</v>
@@ -4168,7 +4168,7 @@
         <v>45</v>
       </c>
       <c r="O41" s="29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P41" s="16" t="s">
         <v>19</v>
@@ -4177,16 +4177,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S41" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T41" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="U41" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T41" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="U41" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="61" t="s">
+      <c r="G42" s="36" t="s">
         <v>124</v>
       </c>
       <c r="H42" s="22">
@@ -4213,7 +4213,7 @@
       <c r="I42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="59" t="s">
+      <c r="J42" s="34" t="s">
         <v>152</v>
       </c>
       <c r="K42" s="5" t="s">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="29"/>
-      <c r="G43" s="64" t="s">
+      <c r="G43" s="39" t="s">
         <v>125</v>
       </c>
       <c r="H43" s="16">
@@ -4258,7 +4258,7 @@
       <c r="I43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="59" t="s">
+      <c r="J43" s="34" t="s">
         <v>153</v>
       </c>
       <c r="K43" s="5" t="s">
@@ -4281,16 +4281,16 @@
         <v>6</v>
       </c>
       <c r="R43" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S43" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T43" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="U43" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T43" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="U43" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4308,8 +4308,8 @@
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
-      <c r="G44" s="61" t="s">
-        <v>302</v>
+      <c r="G44" s="36" t="s">
+        <v>298</v>
       </c>
       <c r="H44" s="16">
         <v>42</v>
@@ -4317,7 +4317,7 @@
       <c r="I44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="59" t="s">
+      <c r="J44" s="34" t="s">
         <v>154</v>
       </c>
       <c r="K44" s="5" t="s">
@@ -4331,25 +4331,25 @@
         <v>52</v>
       </c>
       <c r="O44" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="P44" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="P44" s="41" t="s">
         <v>20</v>
       </c>
       <c r="Q44" s="19">
         <v>6</v>
       </c>
       <c r="R44" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S44" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T44" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="U44" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="T44" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="U44" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -6340,12 +6340,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6360,6 +6354,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/Escaleta_LE_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/Escaleta_LE_08_07_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_07_CO\Escaleta Proceso y control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="329">
   <si>
     <t>Asignatura</t>
   </si>
@@ -488,9 +488,6 @@
     <t>Evalúa tus conocimientos sobre el tema El ensayo</t>
   </si>
   <si>
-    <t>Actividades sobre el tema El ensayo</t>
-  </si>
-  <si>
     <t>Realizar seis preguntas relacionadas con el tema El ensayo (temas vistos durante la unidad).</t>
   </si>
   <si>
@@ -648,12 +645,6 @@
   </si>
   <si>
     <t>8 preguntas relacionadas con los elementos, la estructura y las claves de un ensayo.</t>
-  </si>
-  <si>
-    <t>Interactivo para planear la escritura de un ensayo</t>
-  </si>
-  <si>
-    <t>Actividad para distinguir las pautas para escribir un ensayo</t>
   </si>
   <si>
     <t>Actividad para determinar el desarrollo de la novela en Colombia</t>
@@ -870,9 +861,6 @@
     <t xml:space="preserve">El sello literario de García Márquez </t>
   </si>
   <si>
-    <t>Comprende  la obra Cien años de soledad</t>
-  </si>
-  <si>
     <t>Determina la secuencia literaria</t>
   </si>
   <si>
@@ -891,9 +879,6 @@
     <t>Refuerza tu aprendizaje: Caracteriza las oraciones compuestas</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Ordena oraciones compuestas según el nexo</t>
-  </si>
-  <si>
     <t>Selecciona el signo ortográfico</t>
   </si>
   <si>
@@ -910,12 +895,6 @@
   </si>
   <si>
     <t>Literatura: la novela colombiana</t>
-  </si>
-  <si>
-    <t>Ortografía: define los signos de ortográficos</t>
-  </si>
-  <si>
-    <t>Comprensión textual: caracteriza un ensayo</t>
   </si>
   <si>
     <t>Producción textual: ordena los pasos de un ensayo</t>
@@ -997,18 +976,12 @@
     <t xml:space="preserve">Actividad para comprender la secuencia narrativa a partir de los signos de puntuación </t>
   </si>
   <si>
-    <t>Actividad para inferir ideas explícitas e implícitas en un ensayo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interactivo que explica las partes de un ensayo </t>
   </si>
   <si>
     <t>Actividad para identificar la definición del guion, la raya y el paréntesis</t>
   </si>
   <si>
-    <t>Actividad para reconocer las características de un ensayo</t>
-  </si>
-  <si>
     <t>Actividad para reconocer las pautas para elaborar un ensayo</t>
   </si>
   <si>
@@ -1016,9 +989,6 @@
   </si>
   <si>
     <t xml:space="preserve">Producción textual: identifica títulos </t>
-  </si>
-  <si>
-    <t>Actividad para reconocer los titulos de ensayos a apartir de inferencias</t>
   </si>
   <si>
     <r>
@@ -1041,6 +1011,33 @@
   </si>
   <si>
     <t>Actividad para distinguir las oraciones compuestas a partir de los nexos</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer titulos de ensayos a apartir de inferencias</t>
+  </si>
+  <si>
+    <t>Comprende  la obra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Ordena oraciones compuestas </t>
+  </si>
+  <si>
+    <t>Actividad paraidentificar ideas explícitas e inferir ideas implícitas en un ensayo</t>
+  </si>
+  <si>
+    <t>Interactivo para redactar un ensayo</t>
+  </si>
+  <si>
+    <t>Actividad para distinguir las elementos necesarios en la redacción de un ensayo</t>
+  </si>
+  <si>
+    <t>Ortografía: define los signos ortográficos</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la estructura de  un ensayo</t>
+  </si>
+  <si>
+    <t>Actividades para repasar los contenidos del tema El ensayo</t>
   </si>
 </sst>
 </file>
@@ -1351,30 +1348,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1385,6 +1358,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,6 +1403,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1732,9 +1729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3:J44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1763,94 +1760,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="61" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="59"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="25" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="45"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1868,7 +1865,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
       <c r="G3" s="36" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H3" s="22">
         <v>1</v>
@@ -1877,7 +1874,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>20</v>
@@ -1890,7 +1887,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>19</v>
@@ -1899,16 +1896,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -1927,7 +1924,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
       <c r="G4" s="36" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H4" s="16">
         <v>2</v>
@@ -1936,7 +1933,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>20</v>
@@ -1949,7 +1946,7 @@
         <v>28</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>19</v>
@@ -1958,16 +1955,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="U4" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="U4" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -1986,7 +1983,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -1995,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>20</v>
@@ -2008,7 +2005,7 @@
         <v>38</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>19</v>
@@ -2017,16 +2014,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="U5" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2045,7 +2042,7 @@
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H6" s="22">
         <v>4</v>
@@ -2054,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>20</v>
@@ -2067,7 +2064,7 @@
         <v>24</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>19</v>
@@ -2076,16 +2073,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="U6" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2104,7 +2101,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H7" s="16">
         <v>5</v>
@@ -2113,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>20</v>
@@ -2126,7 +2123,7 @@
         <v>120</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>19</v>
@@ -2135,16 +2132,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="U7" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2163,7 +2160,7 @@
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="36" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2172,7 +2169,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>20</v>
@@ -2185,7 +2182,7 @@
         <v>33</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>19</v>
@@ -2194,16 +2191,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="U8" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2220,11 +2217,11 @@
         <v>133</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H9" s="22">
         <v>7</v>
@@ -2233,7 +2230,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>20</v>
@@ -2246,7 +2243,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P9" s="15" t="s">
         <v>19</v>
@@ -2255,16 +2252,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="U9" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2285,7 +2282,7 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2294,7 +2291,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>20</v>
@@ -2307,7 +2304,7 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>19</v>
@@ -2316,16 +2313,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="U10" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="U10" s="19" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2346,7 +2343,7 @@
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="36" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="H11" s="16">
         <v>9</v>
@@ -2355,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>20</v>
@@ -2368,7 +2365,7 @@
         <v>32</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>19</v>
@@ -2377,16 +2374,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="U11" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T11" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2407,7 +2404,7 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="36" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H12" s="22">
         <v>10</v>
@@ -2416,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>20</v>
@@ -2429,7 +2426,7 @@
         <v>45</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P12" s="41" t="s">
         <v>20</v>
@@ -2438,16 +2435,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="U12" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2468,7 +2465,7 @@
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="36" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H13" s="16">
         <v>11</v>
@@ -2477,7 +2474,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>20</v>
@@ -2490,7 +2487,7 @@
         <v>37</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>19</v>
@@ -2499,16 +2496,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="U13" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S13" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T13" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2529,7 +2526,7 @@
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H14" s="16">
         <v>12</v>
@@ -2538,7 +2535,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>20</v>
@@ -2551,7 +2548,7 @@
         <v>120</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>19</v>
@@ -2560,16 +2557,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T14" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="U14" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S14" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T14" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2599,7 +2596,7 @@
         <v>19</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>20</v>
@@ -2612,7 +2609,7 @@
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>19</v>
@@ -2621,16 +2618,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="U15" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="T15" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2651,7 +2648,7 @@
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2660,7 +2657,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>19</v>
@@ -2680,16 +2677,16 @@
         <v>8</v>
       </c>
       <c r="R16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="S16" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="S16" s="19" t="s">
+      <c r="T16" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="U16" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="T16" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2712,7 +2709,7 @@
         <v>138</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H17" s="16">
         <v>15</v>
@@ -2721,7 +2718,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>20</v>
@@ -2734,7 +2731,7 @@
         <v>34</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>19</v>
@@ -2743,16 +2740,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="U17" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T17" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2773,7 +2770,7 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H18" s="22">
         <v>16</v>
@@ -2782,7 +2779,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>19</v>
@@ -2802,16 +2799,16 @@
         <v>10</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="T18" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="T18" s="27" t="s">
+      <c r="U18" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2832,7 +2829,7 @@
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2841,7 +2838,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>19</v>
@@ -2861,16 +2858,16 @@
         <v>9</v>
       </c>
       <c r="R19" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S19" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="T19" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="T19" s="27" t="s">
+      <c r="U19" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2893,7 +2890,7 @@
         <v>141</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H20" s="16">
         <v>18</v>
@@ -2902,7 +2899,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>20</v>
@@ -2915,7 +2912,7 @@
         <v>24</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>19</v>
@@ -2924,16 +2921,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S20" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T20" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="U20" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -2954,7 +2951,7 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="36" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H21" s="22">
         <v>19</v>
@@ -2963,7 +2960,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>19</v>
@@ -2983,16 +2980,16 @@
         <v>10</v>
       </c>
       <c r="R21" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S21" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="T21" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="T21" s="27" t="s">
+      <c r="U21" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3013,7 +3010,7 @@
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -3022,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>19</v>
@@ -3042,16 +3039,16 @@
         <v>9</v>
       </c>
       <c r="R22" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S22" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="T22" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="T22" s="27" t="s">
+      <c r="U22" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="U22" s="19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -3072,7 +3069,7 @@
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="37" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="H23" s="16">
         <v>21</v>
@@ -3081,7 +3078,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>19</v>
@@ -3101,16 +3098,16 @@
         <v>9</v>
       </c>
       <c r="R23" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S23" s="19" t="s">
         <v>140</v>
       </c>
       <c r="T23" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="U23" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="U23" s="19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3131,7 +3128,7 @@
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H24" s="22">
         <v>22</v>
@@ -3140,7 +3137,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>20</v>
@@ -3153,7 +3150,7 @@
         <v>120</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P24" s="16" t="s">
         <v>19</v>
@@ -3162,16 +3159,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="U24" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S24" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="U24" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3190,7 +3187,7 @@
       <c r="E25" s="28"/>
       <c r="F25" s="29"/>
       <c r="G25" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="16">
         <v>23</v>
@@ -3199,7 +3196,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>19</v>
@@ -3219,16 +3216,16 @@
         <v>10</v>
       </c>
       <c r="R25" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S25" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="T25" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="U25" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="T25" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="U25" s="19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3249,7 +3246,7 @@
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="36" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H26" s="16">
         <v>24</v>
@@ -3258,7 +3255,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>20</v>
@@ -3271,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="O26" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P26" s="16" t="s">
         <v>19</v>
@@ -3280,16 +3277,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T26" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="U26" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S26" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T26" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="U26" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3306,11 +3303,11 @@
         <v>143</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="36" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H27" s="22">
         <v>25</v>
@@ -3319,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>20</v>
@@ -3332,7 +3329,7 @@
         <v>36</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P27" s="16" t="s">
         <v>19</v>
@@ -3341,16 +3338,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S27" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T27" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="U27" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S27" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T27" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="U27" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3371,7 +3368,7 @@
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="36" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3380,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>19</v>
@@ -3400,16 +3397,16 @@
         <v>10</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S28" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="U28" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="T28" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="U28" s="19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -3430,7 +3427,7 @@
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H29" s="16">
         <v>27</v>
@@ -3439,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>19</v>
@@ -3459,16 +3456,16 @@
         <v>8</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S29" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="T29" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="T29" s="27" t="s">
+      <c r="U29" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="U29" s="19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3489,7 +3486,7 @@
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H30" s="22">
         <v>28</v>
@@ -3498,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>20</v>
@@ -3511,7 +3508,7 @@
         <v>28</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P30" s="16" t="s">
         <v>19</v>
@@ -3520,16 +3517,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S30" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="U30" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S30" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T30" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="U30" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3550,7 +3547,7 @@
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="36" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H31" s="16">
         <v>29</v>
@@ -3559,7 +3556,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>20</v>
@@ -3572,7 +3569,7 @@
         <v>45</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P31" s="16" t="s">
         <v>19</v>
@@ -3581,16 +3578,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T31" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="U31" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S31" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T31" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="U31" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3611,7 +3608,7 @@
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H32" s="16">
         <v>30</v>
@@ -3620,7 +3617,7 @@
         <v>19</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>20</v>
@@ -3633,7 +3630,7 @@
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P32" s="16" t="s">
         <v>19</v>
@@ -3642,16 +3639,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="S32" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="U32" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="S32" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="T32" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3672,7 +3669,7 @@
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H33" s="22">
         <v>31</v>
@@ -3681,7 +3678,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>20</v>
@@ -3694,7 +3691,7 @@
         <v>120</v>
       </c>
       <c r="O33" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P33" s="16" t="s">
         <v>19</v>
@@ -3703,16 +3700,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S33" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="U33" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S33" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T33" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="U33" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3733,7 +3730,7 @@
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H34" s="16">
         <v>32</v>
@@ -3742,7 +3739,7 @@
         <v>19</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>19</v>
@@ -3753,7 +3750,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P34" s="16" t="s">
         <v>19</v>
@@ -3762,19 +3759,19 @@
         <v>9</v>
       </c>
       <c r="R34" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S34" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="T34" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="T34" s="27" t="s">
+      <c r="U34" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="U34" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -3792,7 +3789,7 @@
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="38" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="H35" s="16">
         <v>33</v>
@@ -3801,7 +3798,7 @@
         <v>19</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>20</v>
@@ -3814,7 +3811,7 @@
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P35" s="16" t="s">
         <v>19</v>
@@ -3823,16 +3820,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="S35" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="T35" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="U35" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="S35" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="T35" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="U35" s="19" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3853,7 +3850,7 @@
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H36" s="22">
         <v>34</v>
@@ -3862,7 +3859,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>20</v>
@@ -3875,7 +3872,7 @@
         <v>120</v>
       </c>
       <c r="O36" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P36" s="16" t="s">
         <v>19</v>
@@ -3884,16 +3881,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S36" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="U36" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S36" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T36" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="U36" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3912,7 +3909,7 @@
       <c r="E37" s="28"/>
       <c r="F37" s="29"/>
       <c r="G37" s="36" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H37" s="16">
         <v>35</v>
@@ -3921,7 +3918,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>20</v>
@@ -3934,7 +3931,7 @@
         <v>33</v>
       </c>
       <c r="O37" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P37" s="16" t="s">
         <v>19</v>
@@ -3943,16 +3940,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S37" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T37" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="U37" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S37" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T37" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="U37" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3971,7 +3968,7 @@
       <c r="E38" s="28"/>
       <c r="F38" s="29"/>
       <c r="G38" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H38" s="16">
         <v>36</v>
@@ -3980,7 +3977,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>20</v>
@@ -3993,7 +3990,7 @@
         <v>43</v>
       </c>
       <c r="O38" s="29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P38" s="16" t="s">
         <v>19</v>
@@ -4002,16 +3999,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S38" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T38" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="U38" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S38" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T38" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="U38" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -4030,7 +4027,7 @@
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
       <c r="G39" s="36" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="H39" s="22">
         <v>37</v>
@@ -4039,7 +4036,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>20</v>
@@ -4050,7 +4047,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P39" s="16" t="s">
         <v>19</v>
@@ -4059,16 +4056,16 @@
         <v>6</v>
       </c>
       <c r="R39" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S39" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="T39" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="T39" s="27" t="s">
+      <c r="U39" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="U39" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -4087,7 +4084,7 @@
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
       <c r="G40" s="36" t="s">
-        <v>296</v>
+        <v>145</v>
       </c>
       <c r="H40" s="16">
         <v>38</v>
@@ -4096,7 +4093,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>20</v>
@@ -4109,7 +4106,7 @@
         <v>28</v>
       </c>
       <c r="O40" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P40" s="16" t="s">
         <v>19</v>
@@ -4118,16 +4115,16 @@
         <v>6</v>
       </c>
       <c r="R40" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S40" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T40" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="U40" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S40" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T40" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="U40" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -4146,7 +4143,7 @@
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
       <c r="G41" s="36" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H41" s="16">
         <v>39</v>
@@ -4155,7 +4152,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>20</v>
@@ -4168,7 +4165,7 @@
         <v>45</v>
       </c>
       <c r="O41" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P41" s="16" t="s">
         <v>19</v>
@@ -4177,16 +4174,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S41" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T41" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="U41" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S41" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T41" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="U41" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4272,7 +4269,7 @@
         <v>32</v>
       </c>
       <c r="O43" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P43" s="16" t="s">
         <v>19</v>
@@ -4281,19 +4278,19 @@
         <v>6</v>
       </c>
       <c r="R43" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S43" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T43" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="U43" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="S43" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T43" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="U43" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>16</v>
       </c>
@@ -4309,7 +4306,7 @@
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
       <c r="G44" s="36" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H44" s="16">
         <v>42</v>
@@ -4318,7 +4315,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="34" t="s">
-        <v>154</v>
+        <v>328</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>20</v>
@@ -4331,7 +4328,7 @@
         <v>52</v>
       </c>
       <c r="O44" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P44" s="41" t="s">
         <v>20</v>
@@ -4340,16 +4337,16 @@
         <v>6</v>
       </c>
       <c r="R44" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S44" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T44" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="U44" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="S44" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T44" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="U44" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -6340,6 +6337,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6354,12 +6357,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
